--- a/Filtered_By_Region/Region IX/Region IX_REPAIR.xlsx
+++ b/Filtered_By_Region/Region IX/Region IX_REPAIR.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU157"/>
+  <dimension ref="A1:AV157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,6 +674,11 @@
           <t>Unnamed: 46</t>
         </is>
       </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -734,10 +740,10 @@
       <c r="O2" t="n">
         <v>1</v>
       </c>
-      <c r="P2" s="2" t="n">
+      <c r="P2" s="3" t="n">
         <v>44260</v>
       </c>
-      <c r="Q2" s="2" t="n">
+      <c r="Q2" s="3" t="n">
         <v>44469</v>
       </c>
       <c r="R2" t="inlineStr">
@@ -750,19 +756,19 @@
           <t>2020-09-003</t>
         </is>
       </c>
-      <c r="T2" s="2" t="n">
+      <c r="T2" s="3" t="n">
         <v>43801</v>
       </c>
-      <c r="U2" s="2" t="n">
+      <c r="U2" s="3" t="n">
         <v>43801</v>
       </c>
-      <c r="V2" s="2" t="n">
+      <c r="V2" s="3" t="n">
         <v>43815</v>
       </c>
-      <c r="W2" s="2" t="n">
+      <c r="W2" s="3" t="n">
         <v>44103</v>
       </c>
-      <c r="X2" s="2" t="n">
+      <c r="X2" s="3" t="n">
         <v>44110</v>
       </c>
       <c r="Y2" t="inlineStr">
@@ -770,7 +776,6 @@
           <t>MORTE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
         <v>0</v>
       </c>
@@ -813,16 +818,11 @@
       <c r="AN2" t="n">
         <v>0</v>
       </c>
-      <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="inlineStr"/>
       <c r="AU2" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -889,10 +889,10 @@
       <c r="O3" t="n">
         <v>1</v>
       </c>
-      <c r="P3" s="2" t="n">
+      <c r="P3" s="3" t="n">
         <v>44260</v>
       </c>
-      <c r="Q3" s="2" t="n">
+      <c r="Q3" s="3" t="n">
         <v>44469</v>
       </c>
       <c r="R3" t="inlineStr">
@@ -905,19 +905,19 @@
           <t>2020-09-003</t>
         </is>
       </c>
-      <c r="T3" s="2" t="n">
+      <c r="T3" s="3" t="n">
         <v>43801</v>
       </c>
-      <c r="U3" s="2" t="n">
+      <c r="U3" s="3" t="n">
         <v>43801</v>
       </c>
-      <c r="V3" s="2" t="n">
+      <c r="V3" s="3" t="n">
         <v>43815</v>
       </c>
-      <c r="W3" s="2" t="n">
+      <c r="W3" s="3" t="n">
         <v>44103</v>
       </c>
-      <c r="X3" s="2" t="n">
+      <c r="X3" s="3" t="n">
         <v>44110</v>
       </c>
       <c r="Y3" t="inlineStr">
@@ -925,7 +925,6 @@
           <t>MORTE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="n">
         <v>0</v>
       </c>
@@ -968,16 +967,11 @@
       <c r="AN3" t="n">
         <v>0</v>
       </c>
-      <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
-      <c r="AT3" t="inlineStr"/>
       <c r="AU3" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1044,10 +1038,10 @@
       <c r="O4" t="n">
         <v>1</v>
       </c>
-      <c r="P4" s="2" t="n">
+      <c r="P4" s="3" t="n">
         <v>44260</v>
       </c>
-      <c r="Q4" s="2" t="n">
+      <c r="Q4" s="3" t="n">
         <v>44455</v>
       </c>
       <c r="R4" t="inlineStr">
@@ -1060,19 +1054,19 @@
           <t>2020-09-004</t>
         </is>
       </c>
-      <c r="T4" s="2" t="n">
+      <c r="T4" s="3" t="n">
         <v>43801</v>
       </c>
-      <c r="U4" s="2" t="n">
+      <c r="U4" s="3" t="n">
         <v>43801</v>
       </c>
-      <c r="V4" s="2" t="n">
+      <c r="V4" s="3" t="n">
         <v>43815</v>
       </c>
-      <c r="W4" s="2" t="n">
+      <c r="W4" s="3" t="n">
         <v>44103</v>
       </c>
-      <c r="X4" s="2" t="n">
+      <c r="X4" s="3" t="n">
         <v>44110</v>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1080,7 +1074,6 @@
           <t>MORTE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="n">
         <v>0</v>
       </c>
@@ -1123,16 +1116,11 @@
       <c r="AN4" t="n">
         <v>0</v>
       </c>
-      <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
-      <c r="AT4" t="inlineStr"/>
       <c r="AU4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1199,10 +1187,10 @@
       <c r="O5" t="n">
         <v>1</v>
       </c>
-      <c r="P5" s="2" t="n">
+      <c r="P5" s="3" t="n">
         <v>44260</v>
       </c>
-      <c r="Q5" s="2" t="n">
+      <c r="Q5" s="3" t="n">
         <v>44375</v>
       </c>
       <c r="R5" t="inlineStr">
@@ -1215,19 +1203,19 @@
           <t>2020-09-004</t>
         </is>
       </c>
-      <c r="T5" s="2" t="n">
+      <c r="T5" s="3" t="n">
         <v>43801</v>
       </c>
-      <c r="U5" s="2" t="n">
+      <c r="U5" s="3" t="n">
         <v>43801</v>
       </c>
-      <c r="V5" s="2" t="n">
+      <c r="V5" s="3" t="n">
         <v>43815</v>
       </c>
-      <c r="W5" s="2" t="n">
+      <c r="W5" s="3" t="n">
         <v>44103</v>
       </c>
-      <c r="X5" s="2" t="n">
+      <c r="X5" s="3" t="n">
         <v>44110</v>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1235,7 +1223,6 @@
           <t>MORTE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="n">
         <v>0</v>
       </c>
@@ -1278,16 +1265,11 @@
       <c r="AN5" t="n">
         <v>0</v>
       </c>
-      <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr"/>
-      <c r="AT5" t="inlineStr"/>
       <c r="AU5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1354,10 +1336,10 @@
       <c r="O6" t="n">
         <v>1</v>
       </c>
-      <c r="P6" s="2" t="n">
+      <c r="P6" s="3" t="n">
         <v>44316</v>
       </c>
-      <c r="Q6" s="2" t="n">
+      <c r="Q6" s="3" t="n">
         <v>44600</v>
       </c>
       <c r="R6" t="inlineStr">
@@ -1370,19 +1352,19 @@
           <t>DepED-Repair-20-IX-Dip-DPDS</t>
         </is>
       </c>
-      <c r="T6" s="2" t="n">
+      <c r="T6" s="3" t="n">
         <v>43815</v>
       </c>
-      <c r="U6" s="2" t="n">
+      <c r="U6" s="3" t="n">
         <v>43822</v>
       </c>
-      <c r="V6" s="2" t="n">
+      <c r="V6" s="3" t="n">
         <v>43840</v>
       </c>
-      <c r="W6" s="2" t="n">
+      <c r="W6" s="3" t="n">
         <v>44090</v>
       </c>
-      <c r="X6" s="2" t="n">
+      <c r="X6" s="3" t="n">
         <v>44105</v>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1390,7 +1372,6 @@
           <t>Stars and Stripes Construction</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="n">
         <v>0</v>
       </c>
@@ -1433,16 +1414,11 @@
       <c r="AN6" t="n">
         <v>0</v>
       </c>
-      <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ6" t="inlineStr"/>
-      <c r="AR6" t="inlineStr"/>
-      <c r="AS6" t="inlineStr"/>
-      <c r="AT6" t="inlineStr"/>
       <c r="AU6" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1509,10 +1485,10 @@
       <c r="O7" t="n">
         <v>1</v>
       </c>
-      <c r="P7" s="2" t="n">
+      <c r="P7" s="3" t="n">
         <v>44196</v>
       </c>
-      <c r="Q7" s="2" t="n">
+      <c r="Q7" s="3" t="n">
         <v>44193</v>
       </c>
       <c r="R7" t="inlineStr">
@@ -1525,19 +1501,19 @@
           <t>DepED-Repair-20-IX-Dip-TES</t>
         </is>
       </c>
-      <c r="T7" s="2" t="n">
+      <c r="T7" s="3" t="n">
         <v>43815</v>
       </c>
-      <c r="U7" s="2" t="n">
+      <c r="U7" s="3" t="n">
         <v>43822</v>
       </c>
-      <c r="V7" s="2" t="n">
+      <c r="V7" s="3" t="n">
         <v>43840</v>
       </c>
-      <c r="W7" s="2" t="n">
+      <c r="W7" s="3" t="n">
         <v>44090</v>
       </c>
-      <c r="X7" s="2" t="n">
+      <c r="X7" s="3" t="n">
         <v>44105</v>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1545,7 +1521,6 @@
           <t>RGS Construction</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="n">
         <v>0</v>
       </c>
@@ -1588,16 +1563,11 @@
       <c r="AN7" t="n">
         <v>0</v>
       </c>
-      <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="inlineStr"/>
-      <c r="AT7" t="inlineStr"/>
       <c r="AU7" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1653,7 +1623,6 @@
       <c r="L8" t="n">
         <v>1</v>
       </c>
-      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1662,17 +1631,6 @@
       <c r="O8" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="n">
         <v>0</v>
       </c>
@@ -1715,16 +1673,11 @@
       <c r="AN8" t="n">
         <v>0</v>
       </c>
-      <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr"/>
-      <c r="AS8" t="inlineStr"/>
-      <c r="AT8" t="inlineStr"/>
       <c r="AU8" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1780,7 +1733,6 @@
       <c r="L9" t="n">
         <v>1</v>
       </c>
-      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1789,17 +1741,6 @@
       <c r="O9" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="n">
         <v>0</v>
       </c>
@@ -1842,16 +1783,11 @@
       <c r="AN9" t="n">
         <v>0</v>
       </c>
-      <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="inlineStr"/>
-      <c r="AS9" t="inlineStr"/>
-      <c r="AT9" t="inlineStr"/>
       <c r="AU9" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1907,7 +1843,6 @@
       <c r="L10" t="n">
         <v>1</v>
       </c>
-      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1916,17 +1851,6 @@
       <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="n">
         <v>0</v>
       </c>
@@ -1969,16 +1893,11 @@
       <c r="AN10" t="n">
         <v>0</v>
       </c>
-      <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr"/>
-      <c r="AT10" t="inlineStr"/>
       <c r="AU10" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2034,7 +1953,6 @@
       <c r="L11" t="n">
         <v>1</v>
       </c>
-      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2043,17 +1961,6 @@
       <c r="O11" t="n">
         <v>1</v>
       </c>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="n">
         <v>0</v>
       </c>
@@ -2096,16 +2003,11 @@
       <c r="AN11" t="n">
         <v>0</v>
       </c>
-      <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="inlineStr"/>
-      <c r="AT11" t="inlineStr"/>
       <c r="AU11" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2172,10 +2074,10 @@
       <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="P12" s="2" t="n">
+      <c r="P12" s="3" t="n">
         <v>44258</v>
       </c>
-      <c r="Q12" s="2" t="n">
+      <c r="Q12" s="3" t="n">
         <v>44237</v>
       </c>
       <c r="R12" t="inlineStr">
@@ -2188,19 +2090,19 @@
           <t>Depep-Repair-2020-IX-PAG-2</t>
         </is>
       </c>
-      <c r="T12" s="2" t="n">
+      <c r="T12" s="3" t="n">
         <v>43798</v>
       </c>
-      <c r="U12" s="2" t="n">
+      <c r="U12" s="3" t="n">
         <v>43808</v>
       </c>
-      <c r="V12" s="2" t="n">
+      <c r="V12" s="3" t="n">
         <v>43822</v>
       </c>
-      <c r="W12" s="2" t="n">
+      <c r="W12" s="3" t="n">
         <v>43846</v>
       </c>
-      <c r="X12" s="2" t="n">
+      <c r="X12" s="3" t="n">
         <v>44102</v>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2208,7 +2110,6 @@
           <t>ARADEL CONST. &amp; SUPPLIES</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="n">
         <v>0</v>
       </c>
@@ -2251,16 +2152,11 @@
       <c r="AN12" t="n">
         <v>0</v>
       </c>
-      <c r="AO12" t="inlineStr"/>
       <c r="AP12" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="inlineStr"/>
-      <c r="AT12" t="inlineStr"/>
       <c r="AU12" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2327,10 +2223,10 @@
       <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="P13" s="2" t="n">
+      <c r="P13" s="3" t="n">
         <v>44258</v>
       </c>
-      <c r="Q13" s="2" t="n">
+      <c r="Q13" s="3" t="n">
         <v>44237</v>
       </c>
       <c r="R13" t="inlineStr">
@@ -2343,19 +2239,19 @@
           <t>Depep-Repair-2020-IX-PAG-2</t>
         </is>
       </c>
-      <c r="T13" s="2" t="n">
+      <c r="T13" s="3" t="n">
         <v>43798</v>
       </c>
-      <c r="U13" s="2" t="n">
+      <c r="U13" s="3" t="n">
         <v>43808</v>
       </c>
-      <c r="V13" s="2" t="n">
+      <c r="V13" s="3" t="n">
         <v>43822</v>
       </c>
-      <c r="W13" s="2" t="n">
+      <c r="W13" s="3" t="n">
         <v>43846</v>
       </c>
-      <c r="X13" s="2" t="n">
+      <c r="X13" s="3" t="n">
         <v>44102</v>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2363,7 +2259,6 @@
           <t>ARADEL CONST. &amp; SUPPLIES</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="n">
         <v>0</v>
       </c>
@@ -2406,16 +2301,11 @@
       <c r="AN13" t="n">
         <v>0</v>
       </c>
-      <c r="AO13" t="inlineStr"/>
       <c r="AP13" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="inlineStr"/>
-      <c r="AT13" t="inlineStr"/>
       <c r="AU13" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2482,10 +2372,10 @@
       <c r="O14" t="n">
         <v>1</v>
       </c>
-      <c r="P14" s="2" t="n">
+      <c r="P14" s="3" t="n">
         <v>44258</v>
       </c>
-      <c r="Q14" s="2" t="n">
+      <c r="Q14" s="3" t="n">
         <v>44236</v>
       </c>
       <c r="R14" t="inlineStr">
@@ -2498,19 +2388,19 @@
           <t>Depep-Repair-2020-IX-PAG-1</t>
         </is>
       </c>
-      <c r="T14" s="2" t="n">
+      <c r="T14" s="3" t="n">
         <v>43798</v>
       </c>
-      <c r="U14" s="2" t="n">
+      <c r="U14" s="3" t="n">
         <v>43808</v>
       </c>
-      <c r="V14" s="2" t="n">
+      <c r="V14" s="3" t="n">
         <v>43822</v>
       </c>
-      <c r="W14" s="2" t="n">
+      <c r="W14" s="3" t="n">
         <v>43846</v>
       </c>
-      <c r="X14" s="2" t="n">
+      <c r="X14" s="3" t="n">
         <v>44102</v>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2518,7 +2408,6 @@
           <t>JZ MAGO CONST. &amp; ENTERPRISES</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="n">
         <v>0</v>
       </c>
@@ -2561,16 +2450,11 @@
       <c r="AN14" t="n">
         <v>0</v>
       </c>
-      <c r="AO14" t="inlineStr"/>
       <c r="AP14" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="inlineStr"/>
-      <c r="AT14" t="inlineStr"/>
       <c r="AU14" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2637,10 +2521,10 @@
       <c r="O15" t="n">
         <v>1</v>
       </c>
-      <c r="P15" s="2" t="n">
+      <c r="P15" s="3" t="n">
         <v>44258</v>
       </c>
-      <c r="Q15" s="2" t="n">
+      <c r="Q15" s="3" t="n">
         <v>44237</v>
       </c>
       <c r="R15" t="inlineStr">
@@ -2653,19 +2537,19 @@
           <t>Depep-Repair-2020-IX-PAG-2</t>
         </is>
       </c>
-      <c r="T15" s="2" t="n">
+      <c r="T15" s="3" t="n">
         <v>43798</v>
       </c>
-      <c r="U15" s="2" t="n">
+      <c r="U15" s="3" t="n">
         <v>43808</v>
       </c>
-      <c r="V15" s="2" t="n">
+      <c r="V15" s="3" t="n">
         <v>43822</v>
       </c>
-      <c r="W15" s="2" t="n">
+      <c r="W15" s="3" t="n">
         <v>43846</v>
       </c>
-      <c r="X15" s="2" t="n">
+      <c r="X15" s="3" t="n">
         <v>44102</v>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2673,7 +2557,6 @@
           <t>ARADEL CONST. &amp; SUPPLIES</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="n">
         <v>0</v>
       </c>
@@ -2716,16 +2599,11 @@
       <c r="AN15" t="n">
         <v>0</v>
       </c>
-      <c r="AO15" t="inlineStr"/>
       <c r="AP15" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="inlineStr"/>
-      <c r="AT15" t="inlineStr"/>
       <c r="AU15" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2792,10 +2670,10 @@
       <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="P16" s="2" t="n">
+      <c r="P16" s="3" t="n">
         <v>44258</v>
       </c>
-      <c r="Q16" s="2" t="n">
+      <c r="Q16" s="3" t="n">
         <v>44236</v>
       </c>
       <c r="R16" t="inlineStr">
@@ -2808,19 +2686,19 @@
           <t>Depep-Repair-2020-IX-PAG-1</t>
         </is>
       </c>
-      <c r="T16" s="2" t="n">
+      <c r="T16" s="3" t="n">
         <v>43798</v>
       </c>
-      <c r="U16" s="2" t="n">
+      <c r="U16" s="3" t="n">
         <v>43808</v>
       </c>
-      <c r="V16" s="2" t="n">
+      <c r="V16" s="3" t="n">
         <v>43822</v>
       </c>
-      <c r="W16" s="2" t="n">
+      <c r="W16" s="3" t="n">
         <v>43846</v>
       </c>
-      <c r="X16" s="2" t="n">
+      <c r="X16" s="3" t="n">
         <v>44102</v>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2828,7 +2706,6 @@
           <t>JZ MAGO CONST. &amp; ENTERPRISES</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="n">
         <v>0</v>
       </c>
@@ -2871,16 +2748,11 @@
       <c r="AN16" t="n">
         <v>0</v>
       </c>
-      <c r="AO16" t="inlineStr"/>
       <c r="AP16" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="inlineStr"/>
-      <c r="AS16" t="inlineStr"/>
-      <c r="AT16" t="inlineStr"/>
       <c r="AU16" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2947,10 +2819,10 @@
       <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P17" s="2" t="n">
+      <c r="P17" s="3" t="n">
         <v>44258</v>
       </c>
-      <c r="Q17" s="2" t="n">
+      <c r="Q17" s="3" t="n">
         <v>44236</v>
       </c>
       <c r="R17" t="inlineStr">
@@ -2963,19 +2835,19 @@
           <t>Depep-Repair-2020-IX-PAG-1</t>
         </is>
       </c>
-      <c r="T17" s="2" t="n">
+      <c r="T17" s="3" t="n">
         <v>43798</v>
       </c>
-      <c r="U17" s="2" t="n">
+      <c r="U17" s="3" t="n">
         <v>43808</v>
       </c>
-      <c r="V17" s="2" t="n">
+      <c r="V17" s="3" t="n">
         <v>43822</v>
       </c>
-      <c r="W17" s="2" t="n">
+      <c r="W17" s="3" t="n">
         <v>43846</v>
       </c>
-      <c r="X17" s="2" t="n">
+      <c r="X17" s="3" t="n">
         <v>44102</v>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2983,7 +2855,6 @@
           <t>JZ MAGO CONST. &amp; ENTERPRISES</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="n">
         <v>0</v>
       </c>
@@ -3026,16 +2897,11 @@
       <c r="AN17" t="n">
         <v>0</v>
       </c>
-      <c r="AO17" t="inlineStr"/>
       <c r="AP17" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ17" t="inlineStr"/>
-      <c r="AR17" t="inlineStr"/>
-      <c r="AS17" t="inlineStr"/>
-      <c r="AT17" t="inlineStr"/>
       <c r="AU17" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3102,10 +2968,10 @@
       <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="P18" s="2" t="n">
+      <c r="P18" s="3" t="n">
         <v>44258</v>
       </c>
-      <c r="Q18" s="2" t="n">
+      <c r="Q18" s="3" t="n">
         <v>44258</v>
       </c>
       <c r="R18" t="inlineStr">
@@ -3118,19 +2984,19 @@
           <t>Depep-Repair-2020-IX-PAG-3</t>
         </is>
       </c>
-      <c r="T18" s="2" t="n">
+      <c r="T18" s="3" t="n">
         <v>43798</v>
       </c>
-      <c r="U18" s="2" t="n">
+      <c r="U18" s="3" t="n">
         <v>43808</v>
       </c>
-      <c r="V18" s="2" t="n">
+      <c r="V18" s="3" t="n">
         <v>43822</v>
       </c>
-      <c r="W18" s="2" t="n">
+      <c r="W18" s="3" t="n">
         <v>43846</v>
       </c>
-      <c r="X18" s="2" t="n">
+      <c r="X18" s="3" t="n">
         <v>44102</v>
       </c>
       <c r="Y18" t="inlineStr">
@@ -3138,7 +3004,6 @@
           <t>ALIÑAB CONST. &amp; SUPPLIES</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="n">
         <v>0</v>
       </c>
@@ -3181,16 +3046,11 @@
       <c r="AN18" t="n">
         <v>0</v>
       </c>
-      <c r="AO18" t="inlineStr"/>
       <c r="AP18" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ18" t="inlineStr"/>
-      <c r="AR18" t="inlineStr"/>
-      <c r="AS18" t="inlineStr"/>
-      <c r="AT18" t="inlineStr"/>
       <c r="AU18" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3257,7 +3117,7 @@
       <c r="O19" t="n">
         <v>1</v>
       </c>
-      <c r="P19" s="2" t="n">
+      <c r="P19" s="3" t="n">
         <v>44217</v>
       </c>
       <c r="Q19" t="inlineStr">
@@ -3305,7 +3165,6 @@
           <t>JM2K CONSTUCTION</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="n">
         <v>0</v>
       </c>
@@ -3348,16 +3207,11 @@
       <c r="AN19" t="n">
         <v>0</v>
       </c>
-      <c r="AO19" t="inlineStr"/>
       <c r="AP19" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ19" t="inlineStr"/>
-      <c r="AR19" t="inlineStr"/>
-      <c r="AS19" t="inlineStr"/>
-      <c r="AT19" t="inlineStr"/>
       <c r="AU19" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3424,7 +3278,7 @@
       <c r="O20" t="n">
         <v>1</v>
       </c>
-      <c r="P20" s="2" t="n">
+      <c r="P20" s="3" t="n">
         <v>44217</v>
       </c>
       <c r="Q20" t="inlineStr">
@@ -3472,7 +3326,6 @@
           <t>MMP CONSTRUCTION  AND SUPPLIES</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="n">
         <v>0</v>
       </c>
@@ -3515,16 +3368,11 @@
       <c r="AN20" t="n">
         <v>0</v>
       </c>
-      <c r="AO20" t="inlineStr"/>
       <c r="AP20" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ20" t="inlineStr"/>
-      <c r="AR20" t="inlineStr"/>
-      <c r="AS20" t="inlineStr"/>
-      <c r="AT20" t="inlineStr"/>
       <c r="AU20" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3591,7 +3439,7 @@
       <c r="O21" t="n">
         <v>1</v>
       </c>
-      <c r="P21" s="2" t="n">
+      <c r="P21" s="3" t="n">
         <v>44217</v>
       </c>
       <c r="Q21" t="inlineStr">
@@ -3639,7 +3487,6 @@
           <t>ZAMBOANGA 3VC CONSTRUCTION, INC.</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="n">
         <v>0</v>
       </c>
@@ -3682,16 +3529,11 @@
       <c r="AN21" t="n">
         <v>0</v>
       </c>
-      <c r="AO21" t="inlineStr"/>
       <c r="AP21" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ21" t="inlineStr"/>
-      <c r="AR21" t="inlineStr"/>
-      <c r="AS21" t="inlineStr"/>
-      <c r="AT21" t="inlineStr"/>
       <c r="AU21" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3758,7 +3600,7 @@
       <c r="O22" t="n">
         <v>1</v>
       </c>
-      <c r="P22" s="2" t="n">
+      <c r="P22" s="3" t="n">
         <v>44217</v>
       </c>
       <c r="Q22" t="inlineStr">
@@ -3806,7 +3648,6 @@
           <t>IYADA BUILDERS AND ENTERPRISES</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="n">
         <v>0</v>
       </c>
@@ -3849,16 +3690,11 @@
       <c r="AN22" t="n">
         <v>0</v>
       </c>
-      <c r="AO22" t="inlineStr"/>
       <c r="AP22" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ22" t="inlineStr"/>
-      <c r="AR22" t="inlineStr"/>
-      <c r="AS22" t="inlineStr"/>
-      <c r="AT22" t="inlineStr"/>
       <c r="AU22" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3925,7 +3761,7 @@
       <c r="O23" t="n">
         <v>1</v>
       </c>
-      <c r="P23" s="2" t="n">
+      <c r="P23" s="3" t="n">
         <v>44217</v>
       </c>
       <c r="Q23" t="inlineStr">
@@ -3973,7 +3809,6 @@
           <t>IYADA BUILDERS AND ENTERPRISES</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="n">
         <v>0</v>
       </c>
@@ -4016,16 +3851,11 @@
       <c r="AN23" t="n">
         <v>0</v>
       </c>
-      <c r="AO23" t="inlineStr"/>
       <c r="AP23" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ23" t="inlineStr"/>
-      <c r="AR23" t="inlineStr"/>
-      <c r="AS23" t="inlineStr"/>
-      <c r="AT23" t="inlineStr"/>
       <c r="AU23" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4092,7 +3922,7 @@
       <c r="O24" t="n">
         <v>1</v>
       </c>
-      <c r="P24" s="2" t="n">
+      <c r="P24" s="3" t="n">
         <v>44217</v>
       </c>
       <c r="Q24" t="inlineStr">
@@ -4140,7 +3970,6 @@
           <t>ZAMBOANGA 3VC CONSTRUCTION, INC.</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="n">
         <v>0</v>
       </c>
@@ -4183,16 +4012,11 @@
       <c r="AN24" t="n">
         <v>0</v>
       </c>
-      <c r="AO24" t="inlineStr"/>
       <c r="AP24" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ24" t="inlineStr"/>
-      <c r="AR24" t="inlineStr"/>
-      <c r="AS24" t="inlineStr"/>
-      <c r="AT24" t="inlineStr"/>
       <c r="AU24" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4259,7 +4083,7 @@
       <c r="O25" t="n">
         <v>1</v>
       </c>
-      <c r="P25" s="2" t="n">
+      <c r="P25" s="3" t="n">
         <v>44217</v>
       </c>
       <c r="Q25" t="inlineStr">
@@ -4307,7 +4131,6 @@
           <t>HIGH RISER CONSTRUCTION AND TRADING</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="n">
         <v>0</v>
       </c>
@@ -4350,16 +4173,11 @@
       <c r="AN25" t="n">
         <v>0</v>
       </c>
-      <c r="AO25" t="inlineStr"/>
       <c r="AP25" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ25" t="inlineStr"/>
-      <c r="AR25" t="inlineStr"/>
-      <c r="AS25" t="inlineStr"/>
-      <c r="AT25" t="inlineStr"/>
       <c r="AU25" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4426,7 +4244,7 @@
       <c r="O26" t="n">
         <v>1</v>
       </c>
-      <c r="P26" s="2" t="n">
+      <c r="P26" s="3" t="n">
         <v>44217</v>
       </c>
       <c r="Q26" t="inlineStr">
@@ -4474,7 +4292,6 @@
           <t>ZAMBOANGA 3VC CONSTRUCTION, INC.</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="n">
         <v>0</v>
       </c>
@@ -4517,16 +4334,11 @@
       <c r="AN26" t="n">
         <v>0</v>
       </c>
-      <c r="AO26" t="inlineStr"/>
       <c r="AP26" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ26" t="inlineStr"/>
-      <c r="AR26" t="inlineStr"/>
-      <c r="AS26" t="inlineStr"/>
-      <c r="AT26" t="inlineStr"/>
       <c r="AU26" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4593,7 +4405,7 @@
       <c r="O27" t="n">
         <v>1</v>
       </c>
-      <c r="P27" s="2" t="n">
+      <c r="P27" s="3" t="n">
         <v>44217</v>
       </c>
       <c r="Q27" t="inlineStr">
@@ -4641,7 +4453,6 @@
           <t>HIGH RISER CONSTRUCTION AND TRADING</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="n">
         <v>0</v>
       </c>
@@ -4684,16 +4495,11 @@
       <c r="AN27" t="n">
         <v>0</v>
       </c>
-      <c r="AO27" t="inlineStr"/>
       <c r="AP27" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ27" t="inlineStr"/>
-      <c r="AR27" t="inlineStr"/>
-      <c r="AS27" t="inlineStr"/>
-      <c r="AT27" t="inlineStr"/>
       <c r="AU27" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4760,7 +4566,7 @@
       <c r="O28" t="n">
         <v>1</v>
       </c>
-      <c r="P28" s="2" t="n">
+      <c r="P28" s="3" t="n">
         <v>44217</v>
       </c>
       <c r="Q28" t="inlineStr">
@@ -4808,7 +4614,6 @@
           <t>SK PATH CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="n">
         <v>0</v>
       </c>
@@ -4851,16 +4656,11 @@
       <c r="AN28" t="n">
         <v>0</v>
       </c>
-      <c r="AO28" t="inlineStr"/>
       <c r="AP28" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ28" t="inlineStr"/>
-      <c r="AR28" t="inlineStr"/>
-      <c r="AS28" t="inlineStr"/>
-      <c r="AT28" t="inlineStr"/>
       <c r="AU28" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4927,14 +4727,11 @@
       <c r="O29" t="n">
         <v>1</v>
       </c>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
           <t>Repair2020-RIX-Zamboanga Del Norte-007</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr">
         <is>
           <t>20 Nov. 2019</t>
@@ -4965,7 +4762,6 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="n">
         <v>0</v>
       </c>
@@ -5008,16 +4804,11 @@
       <c r="AN29" t="n">
         <v>0</v>
       </c>
-      <c r="AO29" t="inlineStr"/>
       <c r="AP29" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ29" t="inlineStr"/>
-      <c r="AR29" t="inlineStr"/>
-      <c r="AS29" t="inlineStr"/>
-      <c r="AT29" t="inlineStr"/>
       <c r="AU29" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5084,14 +4875,11 @@
       <c r="O30" t="n">
         <v>1</v>
       </c>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
           <t>Repair2020-RIX-Zamboanga Del Norte-015</t>
         </is>
       </c>
-      <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr">
         <is>
           <t>20 Nov. 2019</t>
@@ -5122,7 +4910,6 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="n">
         <v>0</v>
       </c>
@@ -5165,16 +4952,11 @@
       <c r="AN30" t="n">
         <v>0</v>
       </c>
-      <c r="AO30" t="inlineStr"/>
       <c r="AP30" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ30" t="inlineStr"/>
-      <c r="AR30" t="inlineStr"/>
-      <c r="AS30" t="inlineStr"/>
-      <c r="AT30" t="inlineStr"/>
       <c r="AU30" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5241,14 +5023,11 @@
       <c r="O31" t="n">
         <v>1</v>
       </c>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
           <t>Repair2020-RIX-Zamboanga Del Norte-021</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr">
         <is>
           <t>20 Nov. 2019</t>
@@ -5279,7 +5058,6 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="n">
         <v>0</v>
       </c>
@@ -5322,16 +5100,11 @@
       <c r="AN31" t="n">
         <v>0</v>
       </c>
-      <c r="AO31" t="inlineStr"/>
       <c r="AP31" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ31" t="inlineStr"/>
-      <c r="AR31" t="inlineStr"/>
-      <c r="AS31" t="inlineStr"/>
-      <c r="AT31" t="inlineStr"/>
       <c r="AU31" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5398,14 +5171,11 @@
       <c r="O32" t="n">
         <v>1</v>
       </c>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
           <t>Repair2020-RIX-Zamboanga Del Norte-031</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr">
         <is>
           <t>20 Nov. 2019</t>
@@ -5436,7 +5206,6 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="n">
         <v>0</v>
       </c>
@@ -5479,16 +5248,11 @@
       <c r="AN32" t="n">
         <v>0</v>
       </c>
-      <c r="AO32" t="inlineStr"/>
       <c r="AP32" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ32" t="inlineStr"/>
-      <c r="AR32" t="inlineStr"/>
-      <c r="AS32" t="inlineStr"/>
-      <c r="AT32" t="inlineStr"/>
       <c r="AU32" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5555,14 +5319,11 @@
       <c r="O33" t="n">
         <v>1</v>
       </c>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
           <t>Repair2020-RIX-Zamboanga Del Norte-057</t>
         </is>
       </c>
-      <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr">
         <is>
           <t>20 Nov. 2019</t>
@@ -5593,7 +5354,6 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="n">
         <v>0</v>
       </c>
@@ -5636,16 +5396,11 @@
       <c r="AN33" t="n">
         <v>0</v>
       </c>
-      <c r="AO33" t="inlineStr"/>
       <c r="AP33" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ33" t="inlineStr"/>
-      <c r="AR33" t="inlineStr"/>
-      <c r="AS33" t="inlineStr"/>
-      <c r="AT33" t="inlineStr"/>
       <c r="AU33" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5712,14 +5467,11 @@
       <c r="O34" t="n">
         <v>1</v>
       </c>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
           <t>Repair2020-RIX-Zamboanga Del Norte-040</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr">
         <is>
           <t>20 Nov. 2019</t>
@@ -5750,7 +5502,6 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="n">
         <v>0</v>
       </c>
@@ -5793,16 +5544,11 @@
       <c r="AN34" t="n">
         <v>0</v>
       </c>
-      <c r="AO34" t="inlineStr"/>
       <c r="AP34" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ34" t="inlineStr"/>
-      <c r="AR34" t="inlineStr"/>
-      <c r="AS34" t="inlineStr"/>
-      <c r="AT34" t="inlineStr"/>
       <c r="AU34" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5869,14 +5615,11 @@
       <c r="O35" t="n">
         <v>1</v>
       </c>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
           <t>Repair2020-RIX-Zamboanga Del Norte-036</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr">
         <is>
           <t>20 Nov. 2019</t>
@@ -5907,7 +5650,6 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="n">
         <v>0</v>
       </c>
@@ -5950,16 +5692,11 @@
       <c r="AN35" t="n">
         <v>0</v>
       </c>
-      <c r="AO35" t="inlineStr"/>
       <c r="AP35" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ35" t="inlineStr"/>
-      <c r="AR35" t="inlineStr"/>
-      <c r="AS35" t="inlineStr"/>
-      <c r="AT35" t="inlineStr"/>
       <c r="AU35" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6026,14 +5763,11 @@
       <c r="O36" t="n">
         <v>1</v>
       </c>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
           <t>Repair2020-RIX-Zamboanga Del Norte-048</t>
         </is>
       </c>
-      <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr">
         <is>
           <t>20 Nov. 2019</t>
@@ -6064,7 +5798,6 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="n">
         <v>0</v>
       </c>
@@ -6107,16 +5840,11 @@
       <c r="AN36" t="n">
         <v>0</v>
       </c>
-      <c r="AO36" t="inlineStr"/>
       <c r="AP36" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ36" t="inlineStr"/>
-      <c r="AR36" t="inlineStr"/>
-      <c r="AS36" t="inlineStr"/>
-      <c r="AT36" t="inlineStr"/>
       <c r="AU36" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6183,14 +5911,11 @@
       <c r="O37" t="n">
         <v>1</v>
       </c>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
           <t>Repair2020-RIX-Zamboanga Del Norte-044</t>
         </is>
       </c>
-      <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr">
         <is>
           <t>20 Nov. 2019</t>
@@ -6221,7 +5946,6 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="n">
         <v>0</v>
       </c>
@@ -6264,16 +5988,11 @@
       <c r="AN37" t="n">
         <v>0</v>
       </c>
-      <c r="AO37" t="inlineStr"/>
       <c r="AP37" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ37" t="inlineStr"/>
-      <c r="AR37" t="inlineStr"/>
-      <c r="AS37" t="inlineStr"/>
-      <c r="AT37" t="inlineStr"/>
       <c r="AU37" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6340,14 +6059,11 @@
       <c r="O38" t="n">
         <v>1</v>
       </c>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
           <t>Repair2020-RIX-Zamboanga Del Norte-041</t>
         </is>
       </c>
-      <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr">
         <is>
           <t>20 Nov. 2019</t>
@@ -6378,7 +6094,6 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="n">
         <v>0</v>
       </c>
@@ -6421,16 +6136,11 @@
       <c r="AN38" t="n">
         <v>0</v>
       </c>
-      <c r="AO38" t="inlineStr"/>
       <c r="AP38" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ38" t="inlineStr"/>
-      <c r="AR38" t="inlineStr"/>
-      <c r="AS38" t="inlineStr"/>
-      <c r="AT38" t="inlineStr"/>
       <c r="AU38" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6497,14 +6207,11 @@
       <c r="O39" t="n">
         <v>1</v>
       </c>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
           <t>Repair2020-RIX-Zamboanga Del Norte-072</t>
         </is>
       </c>
-      <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr">
         <is>
           <t>20 Nov. 2019</t>
@@ -6535,7 +6242,6 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="n">
         <v>0</v>
       </c>
@@ -6578,16 +6284,11 @@
       <c r="AN39" t="n">
         <v>0</v>
       </c>
-      <c r="AO39" t="inlineStr"/>
       <c r="AP39" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ39" t="inlineStr"/>
-      <c r="AR39" t="inlineStr"/>
-      <c r="AS39" t="inlineStr"/>
-      <c r="AT39" t="inlineStr"/>
       <c r="AU39" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6654,14 +6355,11 @@
       <c r="O40" t="n">
         <v>1</v>
       </c>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
           <t>Repair2020-RIX-Zamboanga Del Norte-074</t>
         </is>
       </c>
-      <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr">
         <is>
           <t>20 Nov. 2019</t>
@@ -6692,7 +6390,6 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="n">
         <v>0</v>
       </c>
@@ -6735,16 +6432,11 @@
       <c r="AN40" t="n">
         <v>0</v>
       </c>
-      <c r="AO40" t="inlineStr"/>
       <c r="AP40" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ40" t="inlineStr"/>
-      <c r="AR40" t="inlineStr"/>
-      <c r="AS40" t="inlineStr"/>
-      <c r="AT40" t="inlineStr"/>
       <c r="AU40" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6811,14 +6503,11 @@
       <c r="O41" t="n">
         <v>1</v>
       </c>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
           <t>Repair2020-RIX-Zamboanga Del Norte-097</t>
         </is>
       </c>
-      <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr">
         <is>
           <t>20 Nov. 2019</t>
@@ -6849,7 +6538,6 @@
           <t>CPAN ENGINEERING</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="n">
         <v>0</v>
       </c>
@@ -6892,16 +6580,11 @@
       <c r="AN41" t="n">
         <v>0</v>
       </c>
-      <c r="AO41" t="inlineStr"/>
       <c r="AP41" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ41" t="inlineStr"/>
-      <c r="AR41" t="inlineStr"/>
-      <c r="AS41" t="inlineStr"/>
-      <c r="AT41" t="inlineStr"/>
       <c r="AU41" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6968,14 +6651,11 @@
       <c r="O42" t="n">
         <v>1</v>
       </c>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
           <t>Repair2020-RIX-Zamboanga Del Norte-081</t>
         </is>
       </c>
-      <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr">
         <is>
           <t>20 Nov. 2019</t>
@@ -7006,7 +6686,6 @@
           <t>CPAN ENGINEERING</t>
         </is>
       </c>
-      <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="n">
         <v>0</v>
       </c>
@@ -7049,16 +6728,11 @@
       <c r="AN42" t="n">
         <v>0</v>
       </c>
-      <c r="AO42" t="inlineStr"/>
       <c r="AP42" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ42" t="inlineStr"/>
-      <c r="AR42" t="inlineStr"/>
-      <c r="AS42" t="inlineStr"/>
-      <c r="AT42" t="inlineStr"/>
       <c r="AU42" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7125,14 +6799,11 @@
       <c r="O43" t="n">
         <v>1</v>
       </c>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
           <t>Repair2020-RIX-Zamboanga Del Norte-079</t>
         </is>
       </c>
-      <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr">
         <is>
           <t>20 Nov. 2019</t>
@@ -7163,7 +6834,6 @@
           <t>CPAN ENGINEERING</t>
         </is>
       </c>
-      <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="n">
         <v>0</v>
       </c>
@@ -7206,16 +6876,11 @@
       <c r="AN43" t="n">
         <v>0</v>
       </c>
-      <c r="AO43" t="inlineStr"/>
       <c r="AP43" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ43" t="inlineStr"/>
-      <c r="AR43" t="inlineStr"/>
-      <c r="AS43" t="inlineStr"/>
-      <c r="AT43" t="inlineStr"/>
       <c r="AU43" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7282,14 +6947,11 @@
       <c r="O44" t="n">
         <v>1</v>
       </c>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
           <t>Repair2020-RIX-Zamboanga Del Norte-080</t>
         </is>
       </c>
-      <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr">
         <is>
           <t>20 Nov. 2019</t>
@@ -7320,7 +6982,6 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="n">
         <v>0</v>
       </c>
@@ -7363,16 +7024,11 @@
       <c r="AN44" t="n">
         <v>0</v>
       </c>
-      <c r="AO44" t="inlineStr"/>
       <c r="AP44" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ44" t="inlineStr"/>
-      <c r="AR44" t="inlineStr"/>
-      <c r="AS44" t="inlineStr"/>
-      <c r="AT44" t="inlineStr"/>
       <c r="AU44" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7439,14 +7095,11 @@
       <c r="O45" t="n">
         <v>1</v>
       </c>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
           <t>Repair2020-RIX-Zamboanga Del Norte-092</t>
         </is>
       </c>
-      <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr">
         <is>
           <t>20 Nov. 2019</t>
@@ -7477,7 +7130,6 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="n">
         <v>0</v>
       </c>
@@ -7520,16 +7172,11 @@
       <c r="AN45" t="n">
         <v>0</v>
       </c>
-      <c r="AO45" t="inlineStr"/>
       <c r="AP45" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ45" t="inlineStr"/>
-      <c r="AR45" t="inlineStr"/>
-      <c r="AS45" t="inlineStr"/>
-      <c r="AT45" t="inlineStr"/>
       <c r="AU45" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7596,14 +7243,11 @@
       <c r="O46" t="n">
         <v>1</v>
       </c>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
           <t>Repair2020-RIX-Zamboanga Del Norte-086</t>
         </is>
       </c>
-      <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr">
         <is>
           <t>20 Nov. 2019</t>
@@ -7634,7 +7278,6 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="n">
         <v>0</v>
       </c>
@@ -7677,16 +7320,11 @@
       <c r="AN46" t="n">
         <v>0</v>
       </c>
-      <c r="AO46" t="inlineStr"/>
       <c r="AP46" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ46" t="inlineStr"/>
-      <c r="AR46" t="inlineStr"/>
-      <c r="AS46" t="inlineStr"/>
-      <c r="AT46" t="inlineStr"/>
       <c r="AU46" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7753,14 +7391,11 @@
       <c r="O47" t="n">
         <v>1</v>
       </c>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
           <t>Repair2020-RIX-Zamboanga Del Norte-083</t>
         </is>
       </c>
-      <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr">
         <is>
           <t>20 Nov. 2019</t>
@@ -7791,7 +7426,6 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="n">
         <v>0</v>
       </c>
@@ -7834,16 +7468,11 @@
       <c r="AN47" t="n">
         <v>0</v>
       </c>
-      <c r="AO47" t="inlineStr"/>
       <c r="AP47" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ47" t="inlineStr"/>
-      <c r="AR47" t="inlineStr"/>
-      <c r="AS47" t="inlineStr"/>
-      <c r="AT47" t="inlineStr"/>
       <c r="AU47" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7910,14 +7539,11 @@
       <c r="O48" t="n">
         <v>1</v>
       </c>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
           <t>Repair2020-RIX-Zamboanga Del Norte-103</t>
         </is>
       </c>
-      <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr">
         <is>
           <t>20 Nov. 2019</t>
@@ -7948,7 +7574,6 @@
           <t>CPAN ENGINEERING</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="n">
         <v>0</v>
       </c>
@@ -7991,16 +7616,11 @@
       <c r="AN48" t="n">
         <v>0</v>
       </c>
-      <c r="AO48" t="inlineStr"/>
       <c r="AP48" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ48" t="inlineStr"/>
-      <c r="AR48" t="inlineStr"/>
-      <c r="AS48" t="inlineStr"/>
-      <c r="AT48" t="inlineStr"/>
       <c r="AU48" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8067,14 +7687,11 @@
       <c r="O49" t="n">
         <v>1</v>
       </c>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
           <t>Repair2020-RIX-Zamboanga Del Norte-106</t>
         </is>
       </c>
-      <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr">
         <is>
           <t>20 Nov. 2019</t>
@@ -8105,7 +7722,6 @@
           <t>CPAN ENGINEERING</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="n">
         <v>0</v>
       </c>
@@ -8148,16 +7764,11 @@
       <c r="AN49" t="n">
         <v>0</v>
       </c>
-      <c r="AO49" t="inlineStr"/>
       <c r="AP49" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ49" t="inlineStr"/>
-      <c r="AR49" t="inlineStr"/>
-      <c r="AS49" t="inlineStr"/>
-      <c r="AT49" t="inlineStr"/>
       <c r="AU49" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8224,14 +7835,11 @@
       <c r="O50" t="n">
         <v>1</v>
       </c>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
           <t>Repair2020-RIX-Zamboanga Del Norte-107</t>
         </is>
       </c>
-      <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr">
         <is>
           <t>20 Nov. 2019</t>
@@ -8262,7 +7870,6 @@
           <t>CPAN ENGINEERING</t>
         </is>
       </c>
-      <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="n">
         <v>0</v>
       </c>
@@ -8305,16 +7912,11 @@
       <c r="AN50" t="n">
         <v>0</v>
       </c>
-      <c r="AO50" t="inlineStr"/>
       <c r="AP50" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ50" t="inlineStr"/>
-      <c r="AR50" t="inlineStr"/>
-      <c r="AS50" t="inlineStr"/>
-      <c r="AT50" t="inlineStr"/>
       <c r="AU50" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8381,14 +7983,11 @@
       <c r="O51" t="n">
         <v>1</v>
       </c>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
           <t>Repair2020-RIX-Zamboanga Del Norte-108</t>
         </is>
       </c>
-      <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr">
         <is>
           <t>20 Nov. 2019</t>
@@ -8419,7 +8018,6 @@
           <t>CPAN ENGINEERING</t>
         </is>
       </c>
-      <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="n">
         <v>0</v>
       </c>
@@ -8462,16 +8060,11 @@
       <c r="AN51" t="n">
         <v>0</v>
       </c>
-      <c r="AO51" t="inlineStr"/>
       <c r="AP51" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ51" t="inlineStr"/>
-      <c r="AR51" t="inlineStr"/>
-      <c r="AS51" t="inlineStr"/>
-      <c r="AT51" t="inlineStr"/>
       <c r="AU51" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8538,10 +8131,10 @@
       <c r="O52" t="n">
         <v>1</v>
       </c>
-      <c r="P52" s="2" t="n">
+      <c r="P52" s="3" t="n">
         <v>44217</v>
       </c>
-      <c r="Q52" s="2" t="n">
+      <c r="Q52" s="3" t="n">
         <v>44217</v>
       </c>
       <c r="R52" t="inlineStr">
@@ -8554,19 +8147,19 @@
           <t>ZDS-20-RR-01</t>
         </is>
       </c>
-      <c r="T52" s="2" t="n">
+      <c r="T52" s="3" t="n">
         <v>43797</v>
       </c>
-      <c r="U52" s="2" t="n">
+      <c r="U52" s="3" t="n">
         <v>43808</v>
       </c>
-      <c r="V52" s="2" t="n">
+      <c r="V52" s="3" t="n">
         <v>43822</v>
       </c>
-      <c r="W52" s="2" t="n">
+      <c r="W52" s="3" t="n">
         <v>43864</v>
       </c>
-      <c r="X52" s="2" t="n">
+      <c r="X52" s="3" t="n">
         <v>44090</v>
       </c>
       <c r="Y52" t="inlineStr">
@@ -8574,7 +8167,6 @@
           <t>AC DEMONI CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="n">
         <v>0</v>
       </c>
@@ -8617,16 +8209,11 @@
       <c r="AN52" t="n">
         <v>0</v>
       </c>
-      <c r="AO52" t="inlineStr"/>
       <c r="AP52" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ52" t="inlineStr"/>
-      <c r="AR52" t="inlineStr"/>
-      <c r="AS52" t="inlineStr"/>
-      <c r="AT52" t="inlineStr"/>
       <c r="AU52" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8693,10 +8280,10 @@
       <c r="O53" t="n">
         <v>1</v>
       </c>
-      <c r="P53" s="2" t="n">
+      <c r="P53" s="3" t="n">
         <v>44217</v>
       </c>
-      <c r="Q53" s="2" t="n">
+      <c r="Q53" s="3" t="n">
         <v>44905</v>
       </c>
       <c r="R53" t="inlineStr">
@@ -8709,19 +8296,19 @@
           <t>ZDS-20-RR-04</t>
         </is>
       </c>
-      <c r="T53" s="2" t="n">
+      <c r="T53" s="3" t="n">
         <v>43797</v>
       </c>
-      <c r="U53" s="2" t="n">
+      <c r="U53" s="3" t="n">
         <v>43808</v>
       </c>
-      <c r="V53" s="2" t="n">
+      <c r="V53" s="3" t="n">
         <v>43822</v>
       </c>
-      <c r="W53" s="2" t="n">
+      <c r="W53" s="3" t="n">
         <v>43864</v>
       </c>
-      <c r="X53" s="2" t="n">
+      <c r="X53" s="3" t="n">
         <v>44090</v>
       </c>
       <c r="Y53" t="inlineStr">
@@ -8729,7 +8316,6 @@
           <t>CPIN BUILDERS</t>
         </is>
       </c>
-      <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="n">
         <v>0</v>
       </c>
@@ -8772,16 +8358,11 @@
       <c r="AN53" t="n">
         <v>0</v>
       </c>
-      <c r="AO53" t="inlineStr"/>
       <c r="AP53" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ53" t="inlineStr"/>
-      <c r="AR53" t="inlineStr"/>
-      <c r="AS53" t="inlineStr"/>
-      <c r="AT53" t="inlineStr"/>
       <c r="AU53" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8848,10 +8429,10 @@
       <c r="O54" t="n">
         <v>1</v>
       </c>
-      <c r="P54" s="2" t="n">
+      <c r="P54" s="3" t="n">
         <v>44217</v>
       </c>
-      <c r="Q54" s="2" t="n">
+      <c r="Q54" s="3" t="n">
         <v>44180</v>
       </c>
       <c r="R54" t="inlineStr">
@@ -8864,19 +8445,19 @@
           <t>ZDS-20-RR-02</t>
         </is>
       </c>
-      <c r="T54" s="2" t="n">
+      <c r="T54" s="3" t="n">
         <v>43797</v>
       </c>
-      <c r="U54" s="2" t="n">
+      <c r="U54" s="3" t="n">
         <v>43808</v>
       </c>
-      <c r="V54" s="2" t="n">
+      <c r="V54" s="3" t="n">
         <v>43822</v>
       </c>
-      <c r="W54" s="2" t="n">
+      <c r="W54" s="3" t="n">
         <v>43864</v>
       </c>
-      <c r="X54" s="2" t="n">
+      <c r="X54" s="3" t="n">
         <v>44090</v>
       </c>
       <c r="Y54" t="inlineStr">
@@ -8884,7 +8465,6 @@
           <t>CHIOCO BUILDERS AND SUPPLIES</t>
         </is>
       </c>
-      <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="n">
         <v>0</v>
       </c>
@@ -8927,16 +8507,11 @@
       <c r="AN54" t="n">
         <v>0</v>
       </c>
-      <c r="AO54" t="inlineStr"/>
       <c r="AP54" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ54" t="inlineStr"/>
-      <c r="AR54" t="inlineStr"/>
-      <c r="AS54" t="inlineStr"/>
-      <c r="AT54" t="inlineStr"/>
       <c r="AU54" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9003,10 +8578,10 @@
       <c r="O55" t="n">
         <v>1</v>
       </c>
-      <c r="P55" s="2" t="n">
+      <c r="P55" s="3" t="n">
         <v>44217</v>
       </c>
-      <c r="Q55" s="2" t="n">
+      <c r="Q55" s="3" t="n">
         <v>44180</v>
       </c>
       <c r="R55" t="inlineStr">
@@ -9019,19 +8594,19 @@
           <t>ZDS-20-RR-05</t>
         </is>
       </c>
-      <c r="T55" s="2" t="n">
+      <c r="T55" s="3" t="n">
         <v>43797</v>
       </c>
-      <c r="U55" s="2" t="n">
+      <c r="U55" s="3" t="n">
         <v>43808</v>
       </c>
-      <c r="V55" s="2" t="n">
+      <c r="V55" s="3" t="n">
         <v>43822</v>
       </c>
-      <c r="W55" s="2" t="n">
+      <c r="W55" s="3" t="n">
         <v>43864</v>
       </c>
-      <c r="X55" s="2" t="n">
+      <c r="X55" s="3" t="n">
         <v>44090</v>
       </c>
       <c r="Y55" t="inlineStr">
@@ -9039,7 +8614,6 @@
           <t>JOCODZ CONSTRUCTION AND SUPPLIES</t>
         </is>
       </c>
-      <c r="Z55" t="inlineStr"/>
       <c r="AA55" t="n">
         <v>0</v>
       </c>
@@ -9082,16 +8656,11 @@
       <c r="AN55" t="n">
         <v>0</v>
       </c>
-      <c r="AO55" t="inlineStr"/>
       <c r="AP55" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ55" t="inlineStr"/>
-      <c r="AR55" t="inlineStr"/>
-      <c r="AS55" t="inlineStr"/>
-      <c r="AT55" t="inlineStr"/>
       <c r="AU55" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9158,10 +8727,10 @@
       <c r="O56" t="n">
         <v>1</v>
       </c>
-      <c r="P56" s="2" t="n">
+      <c r="P56" s="3" t="n">
         <v>44217</v>
       </c>
-      <c r="Q56" s="2" t="n">
+      <c r="Q56" s="3" t="n">
         <v>44180</v>
       </c>
       <c r="R56" t="inlineStr">
@@ -9174,19 +8743,19 @@
           <t>ZDS-20-RR-05</t>
         </is>
       </c>
-      <c r="T56" s="2" t="n">
+      <c r="T56" s="3" t="n">
         <v>43797</v>
       </c>
-      <c r="U56" s="2" t="n">
+      <c r="U56" s="3" t="n">
         <v>43808</v>
       </c>
-      <c r="V56" s="2" t="n">
+      <c r="V56" s="3" t="n">
         <v>43822</v>
       </c>
-      <c r="W56" s="2" t="n">
+      <c r="W56" s="3" t="n">
         <v>43864</v>
       </c>
-      <c r="X56" s="2" t="n">
+      <c r="X56" s="3" t="n">
         <v>44090</v>
       </c>
       <c r="Y56" t="inlineStr">
@@ -9194,7 +8763,6 @@
           <t>JOCODZ CONSTRUCTION AND SUPPLIES</t>
         </is>
       </c>
-      <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="n">
         <v>0</v>
       </c>
@@ -9237,16 +8805,11 @@
       <c r="AN56" t="n">
         <v>0</v>
       </c>
-      <c r="AO56" t="inlineStr"/>
       <c r="AP56" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ56" t="inlineStr"/>
-      <c r="AR56" t="inlineStr"/>
-      <c r="AS56" t="inlineStr"/>
-      <c r="AT56" t="inlineStr"/>
       <c r="AU56" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9313,10 +8876,10 @@
       <c r="O57" t="n">
         <v>1</v>
       </c>
-      <c r="P57" s="2" t="n">
+      <c r="P57" s="3" t="n">
         <v>44247</v>
       </c>
-      <c r="Q57" s="2" t="n">
+      <c r="Q57" s="3" t="n">
         <v>44905</v>
       </c>
       <c r="R57" t="inlineStr">
@@ -9329,19 +8892,19 @@
           <t>ZDS-20-RR-03</t>
         </is>
       </c>
-      <c r="T57" s="2" t="n">
+      <c r="T57" s="3" t="n">
         <v>43797</v>
       </c>
-      <c r="U57" s="2" t="n">
+      <c r="U57" s="3" t="n">
         <v>43808</v>
       </c>
-      <c r="V57" s="2" t="n">
+      <c r="V57" s="3" t="n">
         <v>43822</v>
       </c>
-      <c r="W57" s="2" t="n">
+      <c r="W57" s="3" t="n">
         <v>43864</v>
       </c>
-      <c r="X57" s="2" t="n">
+      <c r="X57" s="3" t="n">
         <v>44090</v>
       </c>
       <c r="Y57" t="inlineStr">
@@ -9349,7 +8912,6 @@
           <t>CPIN BUILDERS</t>
         </is>
       </c>
-      <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="n">
         <v>0</v>
       </c>
@@ -9392,16 +8954,11 @@
       <c r="AN57" t="n">
         <v>0</v>
       </c>
-      <c r="AO57" t="inlineStr"/>
       <c r="AP57" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ57" t="inlineStr"/>
-      <c r="AR57" t="inlineStr"/>
-      <c r="AS57" t="inlineStr"/>
-      <c r="AT57" t="inlineStr"/>
       <c r="AU57" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9468,10 +9025,10 @@
       <c r="O58" t="n">
         <v>1</v>
       </c>
-      <c r="P58" s="2" t="n">
+      <c r="P58" s="3" t="n">
         <v>44217</v>
       </c>
-      <c r="Q58" s="2" t="n">
+      <c r="Q58" s="3" t="n">
         <v>44180</v>
       </c>
       <c r="R58" t="inlineStr">
@@ -9484,19 +9041,19 @@
           <t>ZDS-20-RR-05</t>
         </is>
       </c>
-      <c r="T58" s="2" t="n">
+      <c r="T58" s="3" t="n">
         <v>43797</v>
       </c>
-      <c r="U58" s="2" t="n">
+      <c r="U58" s="3" t="n">
         <v>43808</v>
       </c>
-      <c r="V58" s="2" t="n">
+      <c r="V58" s="3" t="n">
         <v>43822</v>
       </c>
-      <c r="W58" s="2" t="n">
+      <c r="W58" s="3" t="n">
         <v>43864</v>
       </c>
-      <c r="X58" s="2" t="n">
+      <c r="X58" s="3" t="n">
         <v>44090</v>
       </c>
       <c r="Y58" t="inlineStr">
@@ -9504,7 +9061,6 @@
           <t>JOCODZ CONSTRUCTION AND SUPPLIES</t>
         </is>
       </c>
-      <c r="Z58" t="inlineStr"/>
       <c r="AA58" t="n">
         <v>0</v>
       </c>
@@ -9547,16 +9103,11 @@
       <c r="AN58" t="n">
         <v>0</v>
       </c>
-      <c r="AO58" t="inlineStr"/>
       <c r="AP58" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ58" t="inlineStr"/>
-      <c r="AR58" t="inlineStr"/>
-      <c r="AS58" t="inlineStr"/>
-      <c r="AT58" t="inlineStr"/>
       <c r="AU58" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9623,10 +9174,10 @@
       <c r="O59" t="n">
         <v>1</v>
       </c>
-      <c r="P59" s="2" t="n">
+      <c r="P59" s="3" t="n">
         <v>44247</v>
       </c>
-      <c r="Q59" s="2" t="n">
+      <c r="Q59" s="3" t="n">
         <v>44179</v>
       </c>
       <c r="R59" t="inlineStr">
@@ -9639,19 +9190,19 @@
           <t>ZDS-20-RR-06</t>
         </is>
       </c>
-      <c r="T59" s="2" t="n">
+      <c r="T59" s="3" t="n">
         <v>43797</v>
       </c>
-      <c r="U59" s="2" t="n">
+      <c r="U59" s="3" t="n">
         <v>43808</v>
       </c>
-      <c r="V59" s="2" t="n">
+      <c r="V59" s="3" t="n">
         <v>43822</v>
       </c>
-      <c r="W59" s="2" t="n">
+      <c r="W59" s="3" t="n">
         <v>43864</v>
       </c>
-      <c r="X59" s="2" t="n">
+      <c r="X59" s="3" t="n">
         <v>44090</v>
       </c>
       <c r="Y59" t="inlineStr">
@@ -9659,7 +9210,6 @@
           <t>AYUS BUILDERS AND ENTERPRISES</t>
         </is>
       </c>
-      <c r="Z59" t="inlineStr"/>
       <c r="AA59" t="n">
         <v>0</v>
       </c>
@@ -9702,16 +9252,11 @@
       <c r="AN59" t="n">
         <v>0</v>
       </c>
-      <c r="AO59" t="inlineStr"/>
       <c r="AP59" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ59" t="inlineStr"/>
-      <c r="AR59" t="inlineStr"/>
-      <c r="AS59" t="inlineStr"/>
-      <c r="AT59" t="inlineStr"/>
       <c r="AU59" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9778,10 +9323,10 @@
       <c r="O60" t="n">
         <v>1</v>
       </c>
-      <c r="P60" s="2" t="n">
+      <c r="P60" s="3" t="n">
         <v>44247</v>
       </c>
-      <c r="Q60" s="2" t="n">
+      <c r="Q60" s="3" t="n">
         <v>44179</v>
       </c>
       <c r="R60" t="inlineStr">
@@ -9794,19 +9339,19 @@
           <t>ZDS-20-RR-06</t>
         </is>
       </c>
-      <c r="T60" s="2" t="n">
+      <c r="T60" s="3" t="n">
         <v>43797</v>
       </c>
-      <c r="U60" s="2" t="n">
+      <c r="U60" s="3" t="n">
         <v>43808</v>
       </c>
-      <c r="V60" s="2" t="n">
+      <c r="V60" s="3" t="n">
         <v>43822</v>
       </c>
-      <c r="W60" s="2" t="n">
+      <c r="W60" s="3" t="n">
         <v>43864</v>
       </c>
-      <c r="X60" s="2" t="n">
+      <c r="X60" s="3" t="n">
         <v>44090</v>
       </c>
       <c r="Y60" t="inlineStr">
@@ -9814,7 +9359,6 @@
           <t>AYUS BUILDERS AND ENTERPRISES</t>
         </is>
       </c>
-      <c r="Z60" t="inlineStr"/>
       <c r="AA60" t="n">
         <v>0</v>
       </c>
@@ -9857,16 +9401,11 @@
       <c r="AN60" t="n">
         <v>0</v>
       </c>
-      <c r="AO60" t="inlineStr"/>
       <c r="AP60" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ60" t="inlineStr"/>
-      <c r="AR60" t="inlineStr"/>
-      <c r="AS60" t="inlineStr"/>
-      <c r="AT60" t="inlineStr"/>
       <c r="AU60" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9933,10 +9472,10 @@
       <c r="O61" t="n">
         <v>1</v>
       </c>
-      <c r="P61" s="2" t="n">
+      <c r="P61" s="3" t="n">
         <v>44247</v>
       </c>
-      <c r="Q61" s="2" t="n">
+      <c r="Q61" s="3" t="n">
         <v>44180</v>
       </c>
       <c r="R61" t="inlineStr">
@@ -9949,19 +9488,19 @@
           <t>ZDS-20-RR-07</t>
         </is>
       </c>
-      <c r="T61" s="2" t="n">
+      <c r="T61" s="3" t="n">
         <v>43797</v>
       </c>
-      <c r="U61" s="2" t="n">
+      <c r="U61" s="3" t="n">
         <v>43808</v>
       </c>
-      <c r="V61" s="2" t="n">
+      <c r="V61" s="3" t="n">
         <v>43822</v>
       </c>
-      <c r="W61" s="2" t="n">
+      <c r="W61" s="3" t="n">
         <v>43864</v>
       </c>
-      <c r="X61" s="2" t="n">
+      <c r="X61" s="3" t="n">
         <v>44090</v>
       </c>
       <c r="Y61" t="inlineStr">
@@ -9969,7 +9508,6 @@
           <t>ARADEL CONSTRUCTION AND SUPPLIES</t>
         </is>
       </c>
-      <c r="Z61" t="inlineStr"/>
       <c r="AA61" t="n">
         <v>0</v>
       </c>
@@ -10012,16 +9550,11 @@
       <c r="AN61" t="n">
         <v>0</v>
       </c>
-      <c r="AO61" t="inlineStr"/>
       <c r="AP61" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ61" t="inlineStr"/>
-      <c r="AR61" t="inlineStr"/>
-      <c r="AS61" t="inlineStr"/>
-      <c r="AT61" t="inlineStr"/>
       <c r="AU61" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10088,10 +9621,10 @@
       <c r="O62" t="n">
         <v>1</v>
       </c>
-      <c r="P62" s="2" t="n">
+      <c r="P62" s="3" t="n">
         <v>44247</v>
       </c>
-      <c r="Q62" s="2" t="n">
+      <c r="Q62" s="3" t="n">
         <v>44180</v>
       </c>
       <c r="R62" t="inlineStr">
@@ -10104,19 +9637,19 @@
           <t>ZDS-20-RR-07</t>
         </is>
       </c>
-      <c r="T62" s="2" t="n">
+      <c r="T62" s="3" t="n">
         <v>43797</v>
       </c>
-      <c r="U62" s="2" t="n">
+      <c r="U62" s="3" t="n">
         <v>43808</v>
       </c>
-      <c r="V62" s="2" t="n">
+      <c r="V62" s="3" t="n">
         <v>43822</v>
       </c>
-      <c r="W62" s="2" t="n">
+      <c r="W62" s="3" t="n">
         <v>43864</v>
       </c>
-      <c r="X62" s="2" t="n">
+      <c r="X62" s="3" t="n">
         <v>44090</v>
       </c>
       <c r="Y62" t="inlineStr">
@@ -10124,7 +9657,6 @@
           <t>ARADEL CONSTRUCTION AND SUPPLIES</t>
         </is>
       </c>
-      <c r="Z62" t="inlineStr"/>
       <c r="AA62" t="n">
         <v>0</v>
       </c>
@@ -10167,16 +9699,11 @@
       <c r="AN62" t="n">
         <v>0</v>
       </c>
-      <c r="AO62" t="inlineStr"/>
       <c r="AP62" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ62" t="inlineStr"/>
-      <c r="AR62" t="inlineStr"/>
-      <c r="AS62" t="inlineStr"/>
-      <c r="AT62" t="inlineStr"/>
       <c r="AU62" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10243,10 +9770,10 @@
       <c r="O63" t="n">
         <v>1</v>
       </c>
-      <c r="P63" s="2" t="n">
+      <c r="P63" s="3" t="n">
         <v>44217</v>
       </c>
-      <c r="Q63" s="2" t="n">
+      <c r="Q63" s="3" t="n">
         <v>43851</v>
       </c>
       <c r="R63" t="inlineStr">
@@ -10259,19 +9786,19 @@
           <t>ZDS-20-RR-08</t>
         </is>
       </c>
-      <c r="T63" s="2" t="n">
+      <c r="T63" s="3" t="n">
         <v>43797</v>
       </c>
-      <c r="U63" s="2" t="n">
+      <c r="U63" s="3" t="n">
         <v>43808</v>
       </c>
-      <c r="V63" s="2" t="n">
+      <c r="V63" s="3" t="n">
         <v>43822</v>
       </c>
-      <c r="W63" s="2" t="n">
+      <c r="W63" s="3" t="n">
         <v>43864</v>
       </c>
-      <c r="X63" s="2" t="n">
+      <c r="X63" s="3" t="n">
         <v>44090</v>
       </c>
       <c r="Y63" t="inlineStr">
@@ -10279,7 +9806,6 @@
           <t>CDTECH BUILDERS</t>
         </is>
       </c>
-      <c r="Z63" t="inlineStr"/>
       <c r="AA63" t="n">
         <v>0</v>
       </c>
@@ -10322,16 +9848,11 @@
       <c r="AN63" t="n">
         <v>0</v>
       </c>
-      <c r="AO63" t="inlineStr"/>
       <c r="AP63" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ63" t="inlineStr"/>
-      <c r="AR63" t="inlineStr"/>
-      <c r="AS63" t="inlineStr"/>
-      <c r="AT63" t="inlineStr"/>
       <c r="AU63" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10398,10 +9919,10 @@
       <c r="O64" t="n">
         <v>1</v>
       </c>
-      <c r="P64" s="2" t="n">
+      <c r="P64" s="3" t="n">
         <v>44217</v>
       </c>
-      <c r="Q64" s="2" t="n">
+      <c r="Q64" s="3" t="n">
         <v>43851</v>
       </c>
       <c r="R64" t="inlineStr">
@@ -10414,19 +9935,19 @@
           <t>ZDS-20-RR-08</t>
         </is>
       </c>
-      <c r="T64" s="2" t="n">
+      <c r="T64" s="3" t="n">
         <v>43797</v>
       </c>
-      <c r="U64" s="2" t="n">
+      <c r="U64" s="3" t="n">
         <v>43808</v>
       </c>
-      <c r="V64" s="2" t="n">
+      <c r="V64" s="3" t="n">
         <v>43822</v>
       </c>
-      <c r="W64" s="2" t="n">
+      <c r="W64" s="3" t="n">
         <v>43864</v>
       </c>
-      <c r="X64" s="2" t="n">
+      <c r="X64" s="3" t="n">
         <v>44090</v>
       </c>
       <c r="Y64" t="inlineStr">
@@ -10434,7 +9955,6 @@
           <t>CDTECH BUILDERS</t>
         </is>
       </c>
-      <c r="Z64" t="inlineStr"/>
       <c r="AA64" t="n">
         <v>0</v>
       </c>
@@ -10477,16 +9997,11 @@
       <c r="AN64" t="n">
         <v>0</v>
       </c>
-      <c r="AO64" t="inlineStr"/>
       <c r="AP64" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ64" t="inlineStr"/>
-      <c r="AR64" t="inlineStr"/>
-      <c r="AS64" t="inlineStr"/>
-      <c r="AT64" t="inlineStr"/>
       <c r="AU64" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10553,10 +10068,10 @@
       <c r="O65" t="n">
         <v>1</v>
       </c>
-      <c r="P65" s="2" t="n">
+      <c r="P65" s="3" t="n">
         <v>44217</v>
       </c>
-      <c r="Q65" s="2" t="n">
+      <c r="Q65" s="3" t="n">
         <v>44336</v>
       </c>
       <c r="R65" t="inlineStr">
@@ -10569,19 +10084,19 @@
           <t>ZDS-20-RR-09</t>
         </is>
       </c>
-      <c r="T65" s="2" t="n">
+      <c r="T65" s="3" t="n">
         <v>43797</v>
       </c>
-      <c r="U65" s="2" t="n">
+      <c r="U65" s="3" t="n">
         <v>43808</v>
       </c>
-      <c r="V65" s="2" t="n">
+      <c r="V65" s="3" t="n">
         <v>43822</v>
       </c>
-      <c r="W65" s="2" t="n">
+      <c r="W65" s="3" t="n">
         <v>43864</v>
       </c>
-      <c r="X65" s="2" t="n">
+      <c r="X65" s="3" t="n">
         <v>44090</v>
       </c>
       <c r="Y65" t="inlineStr">
@@ -10589,7 +10104,6 @@
           <t>A.M. TABAYAG BUILDERS</t>
         </is>
       </c>
-      <c r="Z65" t="inlineStr"/>
       <c r="AA65" t="n">
         <v>0</v>
       </c>
@@ -10632,16 +10146,11 @@
       <c r="AN65" t="n">
         <v>0</v>
       </c>
-      <c r="AO65" t="inlineStr"/>
       <c r="AP65" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ65" t="inlineStr"/>
-      <c r="AR65" t="inlineStr"/>
-      <c r="AS65" t="inlineStr"/>
-      <c r="AT65" t="inlineStr"/>
       <c r="AU65" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10708,10 +10217,10 @@
       <c r="O66" t="n">
         <v>1</v>
       </c>
-      <c r="P66" s="2" t="n">
+      <c r="P66" s="3" t="n">
         <v>44217</v>
       </c>
-      <c r="Q66" s="2" t="n">
+      <c r="Q66" s="3" t="n">
         <v>44336</v>
       </c>
       <c r="R66" t="inlineStr">
@@ -10724,19 +10233,19 @@
           <t>ZDS-20-RR-09</t>
         </is>
       </c>
-      <c r="T66" s="2" t="n">
+      <c r="T66" s="3" t="n">
         <v>43797</v>
       </c>
-      <c r="U66" s="2" t="n">
+      <c r="U66" s="3" t="n">
         <v>43808</v>
       </c>
-      <c r="V66" s="2" t="n">
+      <c r="V66" s="3" t="n">
         <v>43822</v>
       </c>
-      <c r="W66" s="2" t="n">
+      <c r="W66" s="3" t="n">
         <v>43864</v>
       </c>
-      <c r="X66" s="2" t="n">
+      <c r="X66" s="3" t="n">
         <v>44090</v>
       </c>
       <c r="Y66" t="inlineStr">
@@ -10744,7 +10253,6 @@
           <t>A.M. TABAYAG BUILDERS</t>
         </is>
       </c>
-      <c r="Z66" t="inlineStr"/>
       <c r="AA66" t="n">
         <v>0</v>
       </c>
@@ -10787,16 +10295,11 @@
       <c r="AN66" t="n">
         <v>0</v>
       </c>
-      <c r="AO66" t="inlineStr"/>
       <c r="AP66" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ66" t="inlineStr"/>
-      <c r="AR66" t="inlineStr"/>
-      <c r="AS66" t="inlineStr"/>
-      <c r="AT66" t="inlineStr"/>
       <c r="AU66" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10863,10 +10366,10 @@
       <c r="O67" t="n">
         <v>1</v>
       </c>
-      <c r="P67" s="2" t="n">
+      <c r="P67" s="3" t="n">
         <v>44217</v>
       </c>
-      <c r="Q67" s="2" t="n">
+      <c r="Q67" s="3" t="n">
         <v>44175</v>
       </c>
       <c r="R67" t="inlineStr">
@@ -10879,19 +10382,19 @@
           <t>ZDS-20-RR-010</t>
         </is>
       </c>
-      <c r="T67" s="2" t="n">
+      <c r="T67" s="3" t="n">
         <v>43797</v>
       </c>
-      <c r="U67" s="2" t="n">
+      <c r="U67" s="3" t="n">
         <v>43808</v>
       </c>
-      <c r="V67" s="2" t="n">
+      <c r="V67" s="3" t="n">
         <v>43822</v>
       </c>
-      <c r="W67" s="2" t="n">
+      <c r="W67" s="3" t="n">
         <v>43864</v>
       </c>
-      <c r="X67" s="2" t="n">
+      <c r="X67" s="3" t="n">
         <v>44090</v>
       </c>
       <c r="Y67" t="inlineStr">
@@ -10899,7 +10402,6 @@
           <t>KAYRO CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z67" t="inlineStr"/>
       <c r="AA67" t="n">
         <v>0</v>
       </c>
@@ -10942,16 +10444,11 @@
       <c r="AN67" t="n">
         <v>0</v>
       </c>
-      <c r="AO67" t="inlineStr"/>
       <c r="AP67" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ67" t="inlineStr"/>
-      <c r="AR67" t="inlineStr"/>
-      <c r="AS67" t="inlineStr"/>
-      <c r="AT67" t="inlineStr"/>
       <c r="AU67" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11018,10 +10515,10 @@
       <c r="O68" t="n">
         <v>1</v>
       </c>
-      <c r="P68" s="2" t="n">
+      <c r="P68" s="3" t="n">
         <v>44217</v>
       </c>
-      <c r="Q68" s="2" t="n">
+      <c r="Q68" s="3" t="n">
         <v>44175</v>
       </c>
       <c r="R68" t="inlineStr">
@@ -11034,19 +10531,19 @@
           <t>ZDS-20-RR-010</t>
         </is>
       </c>
-      <c r="T68" s="2" t="n">
+      <c r="T68" s="3" t="n">
         <v>43797</v>
       </c>
-      <c r="U68" s="2" t="n">
+      <c r="U68" s="3" t="n">
         <v>43808</v>
       </c>
-      <c r="V68" s="2" t="n">
+      <c r="V68" s="3" t="n">
         <v>43822</v>
       </c>
-      <c r="W68" s="2" t="n">
+      <c r="W68" s="3" t="n">
         <v>43864</v>
       </c>
-      <c r="X68" s="2" t="n">
+      <c r="X68" s="3" t="n">
         <v>44090</v>
       </c>
       <c r="Y68" t="inlineStr">
@@ -11054,7 +10551,6 @@
           <t>KAYRO CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z68" t="inlineStr"/>
       <c r="AA68" t="n">
         <v>0</v>
       </c>
@@ -11097,16 +10593,11 @@
       <c r="AN68" t="n">
         <v>0</v>
       </c>
-      <c r="AO68" t="inlineStr"/>
       <c r="AP68" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ68" t="inlineStr"/>
-      <c r="AR68" t="inlineStr"/>
-      <c r="AS68" t="inlineStr"/>
-      <c r="AT68" t="inlineStr"/>
       <c r="AU68" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11173,10 +10664,10 @@
       <c r="O69" t="n">
         <v>1</v>
       </c>
-      <c r="P69" s="2" t="n">
+      <c r="P69" s="3" t="n">
         <v>44217</v>
       </c>
-      <c r="Q69" s="2" t="n">
+      <c r="Q69" s="3" t="n">
         <v>44176</v>
       </c>
       <c r="R69" t="inlineStr">
@@ -11189,19 +10680,19 @@
           <t>ZDS-20-RR-011</t>
         </is>
       </c>
-      <c r="T69" s="2" t="n">
+      <c r="T69" s="3" t="n">
         <v>43797</v>
       </c>
-      <c r="U69" s="2" t="n">
+      <c r="U69" s="3" t="n">
         <v>43808</v>
       </c>
-      <c r="V69" s="2" t="n">
+      <c r="V69" s="3" t="n">
         <v>43822</v>
       </c>
-      <c r="W69" s="2" t="n">
+      <c r="W69" s="3" t="n">
         <v>43864</v>
       </c>
-      <c r="X69" s="2" t="n">
+      <c r="X69" s="3" t="n">
         <v>44090</v>
       </c>
       <c r="Y69" t="inlineStr">
@@ -11209,7 +10700,6 @@
           <t>DASSAN CONSTRUCTION AND SUPPLIES</t>
         </is>
       </c>
-      <c r="Z69" t="inlineStr"/>
       <c r="AA69" t="n">
         <v>0</v>
       </c>
@@ -11252,16 +10742,11 @@
       <c r="AN69" t="n">
         <v>0</v>
       </c>
-      <c r="AO69" t="inlineStr"/>
       <c r="AP69" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ69" t="inlineStr"/>
-      <c r="AR69" t="inlineStr"/>
-      <c r="AS69" t="inlineStr"/>
-      <c r="AT69" t="inlineStr"/>
       <c r="AU69" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11328,10 +10813,10 @@
       <c r="O70" t="n">
         <v>1</v>
       </c>
-      <c r="P70" s="2" t="n">
+      <c r="P70" s="3" t="n">
         <v>44217</v>
       </c>
-      <c r="Q70" s="2" t="n">
+      <c r="Q70" s="3" t="n">
         <v>44176</v>
       </c>
       <c r="R70" t="inlineStr">
@@ -11344,19 +10829,19 @@
           <t>ZDS-20-RR-011</t>
         </is>
       </c>
-      <c r="T70" s="2" t="n">
+      <c r="T70" s="3" t="n">
         <v>43797</v>
       </c>
-      <c r="U70" s="2" t="n">
+      <c r="U70" s="3" t="n">
         <v>43808</v>
       </c>
-      <c r="V70" s="2" t="n">
+      <c r="V70" s="3" t="n">
         <v>43822</v>
       </c>
-      <c r="W70" s="2" t="n">
+      <c r="W70" s="3" t="n">
         <v>43864</v>
       </c>
-      <c r="X70" s="2" t="n">
+      <c r="X70" s="3" t="n">
         <v>44090</v>
       </c>
       <c r="Y70" t="inlineStr">
@@ -11364,7 +10849,6 @@
           <t>DASSAN CONSTRUCTION AND SUPPLIES</t>
         </is>
       </c>
-      <c r="Z70" t="inlineStr"/>
       <c r="AA70" t="n">
         <v>0</v>
       </c>
@@ -11407,16 +10891,11 @@
       <c r="AN70" t="n">
         <v>0</v>
       </c>
-      <c r="AO70" t="inlineStr"/>
       <c r="AP70" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ70" t="inlineStr"/>
-      <c r="AR70" t="inlineStr"/>
-      <c r="AS70" t="inlineStr"/>
-      <c r="AT70" t="inlineStr"/>
       <c r="AU70" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11483,10 +10962,10 @@
       <c r="O71" t="n">
         <v>1</v>
       </c>
-      <c r="P71" s="2" t="n">
+      <c r="P71" s="3" t="n">
         <v>44217</v>
       </c>
-      <c r="Q71" s="2" t="n">
+      <c r="Q71" s="3" t="n">
         <v>44176</v>
       </c>
       <c r="R71" t="inlineStr">
@@ -11499,19 +10978,19 @@
           <t>ZDS-20-RR-012</t>
         </is>
       </c>
-      <c r="T71" s="2" t="n">
+      <c r="T71" s="3" t="n">
         <v>43797</v>
       </c>
-      <c r="U71" s="2" t="n">
+      <c r="U71" s="3" t="n">
         <v>43808</v>
       </c>
-      <c r="V71" s="2" t="n">
+      <c r="V71" s="3" t="n">
         <v>43822</v>
       </c>
-      <c r="W71" s="2" t="n">
+      <c r="W71" s="3" t="n">
         <v>43864</v>
       </c>
-      <c r="X71" s="2" t="n">
+      <c r="X71" s="3" t="n">
         <v>44090</v>
       </c>
       <c r="Y71" t="inlineStr">
@@ -11519,7 +10998,6 @@
           <t>MS CONSTRUCTION AND MARKETING</t>
         </is>
       </c>
-      <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="n">
         <v>0</v>
       </c>
@@ -11562,16 +11040,11 @@
       <c r="AN71" t="n">
         <v>0</v>
       </c>
-      <c r="AO71" t="inlineStr"/>
       <c r="AP71" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ71" t="inlineStr"/>
-      <c r="AR71" t="inlineStr"/>
-      <c r="AS71" t="inlineStr"/>
-      <c r="AT71" t="inlineStr"/>
       <c r="AU71" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11638,10 +11111,10 @@
       <c r="O72" t="n">
         <v>1</v>
       </c>
-      <c r="P72" s="2" t="n">
+      <c r="P72" s="3" t="n">
         <v>44217</v>
       </c>
-      <c r="Q72" s="2" t="n">
+      <c r="Q72" s="3" t="n">
         <v>44176</v>
       </c>
       <c r="R72" t="inlineStr">
@@ -11654,19 +11127,19 @@
           <t>ZDS-20-RR-012</t>
         </is>
       </c>
-      <c r="T72" s="2" t="n">
+      <c r="T72" s="3" t="n">
         <v>43797</v>
       </c>
-      <c r="U72" s="2" t="n">
+      <c r="U72" s="3" t="n">
         <v>43808</v>
       </c>
-      <c r="V72" s="2" t="n">
+      <c r="V72" s="3" t="n">
         <v>43822</v>
       </c>
-      <c r="W72" s="2" t="n">
+      <c r="W72" s="3" t="n">
         <v>43864</v>
       </c>
-      <c r="X72" s="2" t="n">
+      <c r="X72" s="3" t="n">
         <v>44090</v>
       </c>
       <c r="Y72" t="inlineStr">
@@ -11674,7 +11147,6 @@
           <t>MS CONSTRUCTION AND MARKETING</t>
         </is>
       </c>
-      <c r="Z72" t="inlineStr"/>
       <c r="AA72" t="n">
         <v>0</v>
       </c>
@@ -11717,16 +11189,11 @@
       <c r="AN72" t="n">
         <v>0</v>
       </c>
-      <c r="AO72" t="inlineStr"/>
       <c r="AP72" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ72" t="inlineStr"/>
-      <c r="AR72" t="inlineStr"/>
-      <c r="AS72" t="inlineStr"/>
-      <c r="AT72" t="inlineStr"/>
       <c r="AU72" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11803,8 +11270,6 @@
           <t>March 05, 2021</t>
         </is>
       </c>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr">
         <is>
           <t>Jan. 08, 2020</t>
@@ -11882,16 +11347,11 @@
       <c r="AN73" t="n">
         <v>0</v>
       </c>
-      <c r="AO73" t="inlineStr"/>
       <c r="AP73" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ73" t="inlineStr"/>
-      <c r="AR73" t="inlineStr"/>
-      <c r="AS73" t="inlineStr"/>
-      <c r="AT73" t="inlineStr"/>
       <c r="AU73" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11968,8 +11428,6 @@
           <t>March 04, 2021</t>
         </is>
       </c>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr">
         <is>
           <t>Jan. 08, 2020</t>
@@ -12047,16 +11505,11 @@
       <c r="AN74" t="n">
         <v>0</v>
       </c>
-      <c r="AO74" t="inlineStr"/>
       <c r="AP74" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ74" t="inlineStr"/>
-      <c r="AR74" t="inlineStr"/>
-      <c r="AS74" t="inlineStr"/>
-      <c r="AT74" t="inlineStr"/>
       <c r="AU74" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12133,8 +11586,6 @@
           <t>March 05, 2021</t>
         </is>
       </c>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr">
         <is>
           <t>Jan. 08, 2020</t>
@@ -12212,16 +11663,11 @@
       <c r="AN75" t="n">
         <v>0</v>
       </c>
-      <c r="AO75" t="inlineStr"/>
       <c r="AP75" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ75" t="inlineStr"/>
-      <c r="AR75" t="inlineStr"/>
-      <c r="AS75" t="inlineStr"/>
-      <c r="AT75" t="inlineStr"/>
       <c r="AU75" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12298,8 +11744,6 @@
           <t>Feb. 19, 2021</t>
         </is>
       </c>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr">
         <is>
           <t>Jan. 08, 2020</t>
@@ -12377,16 +11821,11 @@
       <c r="AN76" t="n">
         <v>0</v>
       </c>
-      <c r="AO76" t="inlineStr"/>
       <c r="AP76" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ76" t="inlineStr"/>
-      <c r="AR76" t="inlineStr"/>
-      <c r="AS76" t="inlineStr"/>
-      <c r="AT76" t="inlineStr"/>
       <c r="AU76" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12463,8 +11902,6 @@
           <t>Feb. 19, 2021</t>
         </is>
       </c>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr">
         <is>
           <t>Jan. 08, 2020</t>
@@ -12542,16 +11979,11 @@
       <c r="AN77" t="n">
         <v>0</v>
       </c>
-      <c r="AO77" t="inlineStr"/>
       <c r="AP77" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ77" t="inlineStr"/>
-      <c r="AR77" t="inlineStr"/>
-      <c r="AS77" t="inlineStr"/>
-      <c r="AT77" t="inlineStr"/>
       <c r="AU77" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12618,10 +12050,10 @@
       <c r="O78" t="n">
         <v>1</v>
       </c>
-      <c r="P78" s="2" t="n">
+      <c r="P78" s="3" t="n">
         <v>44583</v>
       </c>
-      <c r="Q78" s="2" t="n">
+      <c r="Q78" s="3" t="n">
         <v>44586</v>
       </c>
       <c r="R78" t="inlineStr">
@@ -12634,19 +12066,19 @@
           <t>2021-01</t>
         </is>
       </c>
-      <c r="T78" s="2" t="n">
+      <c r="T78" s="3" t="n">
         <v>44359</v>
       </c>
-      <c r="U78" s="2" t="n">
+      <c r="U78" s="3" t="n">
         <v>44368</v>
       </c>
-      <c r="V78" s="2" t="n">
+      <c r="V78" s="3" t="n">
         <v>44382</v>
       </c>
-      <c r="W78" s="2" t="n">
+      <c r="W78" s="3" t="n">
         <v>44412</v>
       </c>
-      <c r="X78" s="2" t="n">
+      <c r="X78" s="3" t="n">
         <v>44433</v>
       </c>
       <c r="Y78" t="inlineStr">
@@ -12654,7 +12086,6 @@
           <t>MORTE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z78" t="inlineStr"/>
       <c r="AA78" t="n">
         <v>0</v>
       </c>
@@ -12705,10 +12136,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ78" t="inlineStr"/>
-      <c r="AR78" t="inlineStr"/>
-      <c r="AS78" t="inlineStr"/>
-      <c r="AT78" t="inlineStr"/>
       <c r="AU78" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12775,10 +12202,10 @@
       <c r="O79" t="n">
         <v>1</v>
       </c>
-      <c r="P79" s="2" t="n">
+      <c r="P79" s="3" t="n">
         <v>44583</v>
       </c>
-      <c r="Q79" s="2" t="n">
+      <c r="Q79" s="3" t="n">
         <v>44557</v>
       </c>
       <c r="R79" t="inlineStr">
@@ -12791,19 +12218,19 @@
           <t>2021-02</t>
         </is>
       </c>
-      <c r="T79" s="2" t="n">
+      <c r="T79" s="3" t="n">
         <v>44359</v>
       </c>
-      <c r="U79" s="2" t="n">
+      <c r="U79" s="3" t="n">
         <v>44368</v>
       </c>
-      <c r="V79" s="2" t="n">
+      <c r="V79" s="3" t="n">
         <v>44382</v>
       </c>
-      <c r="W79" s="2" t="n">
+      <c r="W79" s="3" t="n">
         <v>44412</v>
       </c>
-      <c r="X79" s="2" t="n">
+      <c r="X79" s="3" t="n">
         <v>44433</v>
       </c>
       <c r="Y79" t="inlineStr">
@@ -12811,7 +12238,6 @@
           <t>MORTE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z79" t="inlineStr"/>
       <c r="AA79" t="n">
         <v>0</v>
       </c>
@@ -12862,10 +12288,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ79" t="inlineStr"/>
-      <c r="AR79" t="inlineStr"/>
-      <c r="AS79" t="inlineStr"/>
-      <c r="AT79" t="inlineStr"/>
       <c r="AU79" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12932,10 +12354,10 @@
       <c r="O80" t="n">
         <v>1</v>
       </c>
-      <c r="P80" s="2" t="n">
+      <c r="P80" s="3" t="n">
         <v>44572</v>
       </c>
-      <c r="Q80" s="2" t="n">
+      <c r="Q80" s="3" t="n">
         <v>44578</v>
       </c>
       <c r="R80" t="inlineStr">
@@ -12948,11 +12370,10 @@
           <t>DepED-Repair-21-IX-Dip-GES</t>
         </is>
       </c>
-      <c r="T80" t="inlineStr"/>
-      <c r="U80" s="2" t="n">
+      <c r="U80" s="3" t="n">
         <v>44407</v>
       </c>
-      <c r="V80" s="2" t="n">
+      <c r="V80" s="3" t="n">
         <v>44417</v>
       </c>
       <c r="W80" t="inlineStr">
@@ -12960,7 +12381,7 @@
           <t>Auguts 23, 2021</t>
         </is>
       </c>
-      <c r="X80" s="2" t="n">
+      <c r="X80" s="3" t="n">
         <v>44452</v>
       </c>
       <c r="Y80" t="inlineStr">
@@ -12968,7 +12389,6 @@
           <t>NGP Construction</t>
         </is>
       </c>
-      <c r="Z80" t="inlineStr"/>
       <c r="AA80" t="n">
         <v>0</v>
       </c>
@@ -13019,10 +12439,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ80" t="inlineStr"/>
-      <c r="AR80" t="inlineStr"/>
-      <c r="AS80" t="inlineStr"/>
-      <c r="AT80" t="inlineStr"/>
       <c r="AU80" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13078,7 +12494,6 @@
       <c r="L81" t="n">
         <v>1</v>
       </c>
-      <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13087,17 +12502,6 @@
       <c r="O81" t="n">
         <v>1</v>
       </c>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="inlineStr"/>
-      <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
-      <c r="Z81" t="inlineStr"/>
       <c r="AA81" t="n">
         <v>0</v>
       </c>
@@ -13148,10 +12552,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ81" t="inlineStr"/>
-      <c r="AR81" t="inlineStr"/>
-      <c r="AS81" t="inlineStr"/>
-      <c r="AT81" t="inlineStr"/>
       <c r="AU81" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13207,7 +12607,6 @@
       <c r="L82" t="n">
         <v>1</v>
       </c>
-      <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13216,17 +12615,6 @@
       <c r="O82" t="n">
         <v>1</v>
       </c>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr"/>
-      <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr"/>
-      <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr"/>
-      <c r="Z82" t="inlineStr"/>
       <c r="AA82" t="n">
         <v>0</v>
       </c>
@@ -13277,10 +12665,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ82" t="inlineStr"/>
-      <c r="AR82" t="inlineStr"/>
-      <c r="AS82" t="inlineStr"/>
-      <c r="AT82" t="inlineStr"/>
       <c r="AU82" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13347,10 +12731,10 @@
       <c r="O83" t="n">
         <v>1</v>
       </c>
-      <c r="P83" s="2" t="n">
+      <c r="P83" s="3" t="n">
         <v>44583</v>
       </c>
-      <c r="Q83" s="2" t="n">
+      <c r="Q83" s="3" t="n">
         <v>44582</v>
       </c>
       <c r="R83" t="inlineStr">
@@ -13363,19 +12747,19 @@
           <t>PAG-21-RR-2</t>
         </is>
       </c>
-      <c r="T83" s="2" t="n">
+      <c r="T83" s="3" t="n">
         <v>44351</v>
       </c>
-      <c r="U83" s="2" t="n">
+      <c r="U83" s="3" t="n">
         <v>44358</v>
       </c>
-      <c r="V83" s="2" t="n">
+      <c r="V83" s="3" t="n">
         <v>44371</v>
       </c>
-      <c r="W83" s="2" t="n">
+      <c r="W83" s="3" t="n">
         <v>44434</v>
       </c>
-      <c r="X83" s="2" t="n">
+      <c r="X83" s="3" t="n">
         <v>44449</v>
       </c>
       <c r="Y83" t="inlineStr">
@@ -13383,7 +12767,6 @@
           <t>JZ MAGO CONST. &amp; ENTERPRISES</t>
         </is>
       </c>
-      <c r="Z83" t="inlineStr"/>
       <c r="AA83" t="n">
         <v>0</v>
       </c>
@@ -13434,10 +12817,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ83" t="inlineStr"/>
-      <c r="AR83" t="inlineStr"/>
-      <c r="AS83" t="inlineStr"/>
-      <c r="AT83" t="inlineStr"/>
       <c r="AU83" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13504,10 +12883,10 @@
       <c r="O84" t="n">
         <v>1</v>
       </c>
-      <c r="P84" s="2" t="n">
+      <c r="P84" s="3" t="n">
         <v>44582</v>
       </c>
-      <c r="Q84" s="2" t="n">
+      <c r="Q84" s="3" t="n">
         <v>44582</v>
       </c>
       <c r="R84" t="inlineStr">
@@ -13520,19 +12899,19 @@
           <t>PAG-21-RR-1</t>
         </is>
       </c>
-      <c r="T84" s="2" t="n">
+      <c r="T84" s="3" t="n">
         <v>44351</v>
       </c>
-      <c r="U84" s="2" t="n">
+      <c r="U84" s="3" t="n">
         <v>44358</v>
       </c>
-      <c r="V84" s="2" t="n">
+      <c r="V84" s="3" t="n">
         <v>44371</v>
       </c>
-      <c r="W84" s="2" t="n">
+      <c r="W84" s="3" t="n">
         <v>44403</v>
       </c>
-      <c r="X84" s="2" t="n">
+      <c r="X84" s="3" t="n">
         <v>44431</v>
       </c>
       <c r="Y84" t="inlineStr">
@@ -13540,7 +12919,6 @@
           <t>JZ MAGO CONST. &amp; ENTERPRISES</t>
         </is>
       </c>
-      <c r="Z84" t="inlineStr"/>
       <c r="AA84" t="n">
         <v>0</v>
       </c>
@@ -13591,10 +12969,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ84" t="inlineStr"/>
-      <c r="AR84" t="inlineStr"/>
-      <c r="AS84" t="inlineStr"/>
-      <c r="AT84" t="inlineStr"/>
       <c r="AU84" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13711,7 +13085,6 @@
           <t>PM CONSTRUCTION AND TRADING</t>
         </is>
       </c>
-      <c r="Z85" t="inlineStr"/>
       <c r="AA85" t="n">
         <v>0</v>
       </c>
@@ -13762,10 +13135,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ85" t="inlineStr"/>
-      <c r="AR85" t="inlineStr"/>
-      <c r="AS85" t="inlineStr"/>
-      <c r="AT85" t="inlineStr"/>
       <c r="AU85" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13882,7 +13251,6 @@
           <t>JM2K CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z86" t="inlineStr"/>
       <c r="AA86" t="n">
         <v>0</v>
       </c>
@@ -13933,10 +13301,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ86" t="inlineStr"/>
-      <c r="AR86" t="inlineStr"/>
-      <c r="AS86" t="inlineStr"/>
-      <c r="AT86" t="inlineStr"/>
       <c r="AU86" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -14053,7 +13417,6 @@
           <t>ZAMBOPEN CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z87" t="inlineStr"/>
       <c r="AA87" t="n">
         <v>0</v>
       </c>
@@ -14104,10 +13467,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ87" t="inlineStr"/>
-      <c r="AR87" t="inlineStr"/>
-      <c r="AS87" t="inlineStr"/>
-      <c r="AT87" t="inlineStr"/>
       <c r="AU87" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -14224,7 +13583,6 @@
           <t xml:space="preserve">LONG ISLAND BUILDERS AND CONST. </t>
         </is>
       </c>
-      <c r="Z88" t="inlineStr"/>
       <c r="AA88" t="n">
         <v>0</v>
       </c>
@@ -14275,10 +13633,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ88" t="inlineStr"/>
-      <c r="AR88" t="inlineStr"/>
-      <c r="AS88" t="inlineStr"/>
-      <c r="AT88" t="inlineStr"/>
       <c r="AU88" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -14345,20 +13699,16 @@
       <c r="O89" t="n">
         <v>1</v>
       </c>
-      <c r="P89" s="2" t="n">
+      <c r="P89" s="3" t="n">
         <v>44512</v>
       </c>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="inlineStr"/>
-      <c r="T89" t="inlineStr"/>
-      <c r="U89" s="2" t="n">
+      <c r="U89" s="3" t="n">
         <v>44347</v>
       </c>
-      <c r="V89" s="2" t="n">
+      <c r="V89" s="3" t="n">
         <v>44358</v>
       </c>
-      <c r="W89" s="2" t="n">
+      <c r="W89" s="3" t="n">
         <v>44362</v>
       </c>
       <c r="X89" t="inlineStr">
@@ -14371,7 +13721,6 @@
           <t>STARS &amp; STRIPES CONST</t>
         </is>
       </c>
-      <c r="Z89" t="inlineStr"/>
       <c r="AA89" t="n">
         <v>0</v>
       </c>
@@ -14422,10 +13771,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ89" t="inlineStr"/>
-      <c r="AR89" t="inlineStr"/>
-      <c r="AS89" t="inlineStr"/>
-      <c r="AT89" t="inlineStr"/>
       <c r="AU89" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -14492,20 +13837,16 @@
       <c r="O90" t="n">
         <v>1</v>
       </c>
-      <c r="P90" s="2" t="n">
+      <c r="P90" s="3" t="n">
         <v>44512</v>
       </c>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="inlineStr"/>
-      <c r="T90" t="inlineStr"/>
-      <c r="U90" s="2" t="n">
+      <c r="U90" s="3" t="n">
         <v>44347</v>
       </c>
-      <c r="V90" s="2" t="n">
+      <c r="V90" s="3" t="n">
         <v>44358</v>
       </c>
-      <c r="W90" s="2" t="n">
+      <c r="W90" s="3" t="n">
         <v>44362</v>
       </c>
       <c r="X90" t="inlineStr">
@@ -14518,7 +13859,6 @@
           <t>STARS &amp; STRIPES CONST</t>
         </is>
       </c>
-      <c r="Z90" t="inlineStr"/>
       <c r="AA90" t="n">
         <v>0</v>
       </c>
@@ -14569,10 +13909,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ90" t="inlineStr"/>
-      <c r="AR90" t="inlineStr"/>
-      <c r="AS90" t="inlineStr"/>
-      <c r="AT90" t="inlineStr"/>
       <c r="AU90" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -14639,20 +13975,16 @@
       <c r="O91" t="n">
         <v>1</v>
       </c>
-      <c r="P91" s="2" t="n">
+      <c r="P91" s="3" t="n">
         <v>44506</v>
       </c>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="inlineStr"/>
-      <c r="T91" t="inlineStr"/>
-      <c r="U91" s="2" t="n">
+      <c r="U91" s="3" t="n">
         <v>44347</v>
       </c>
-      <c r="V91" s="2" t="n">
+      <c r="V91" s="3" t="n">
         <v>44358</v>
       </c>
-      <c r="W91" s="2" t="n">
+      <c r="W91" s="3" t="n">
         <v>44362</v>
       </c>
       <c r="X91" t="inlineStr">
@@ -14665,7 +13997,6 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Z91" t="inlineStr"/>
       <c r="AA91" t="n">
         <v>0</v>
       </c>
@@ -14716,10 +14047,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ91" t="inlineStr"/>
-      <c r="AR91" t="inlineStr"/>
-      <c r="AS91" t="inlineStr"/>
-      <c r="AT91" t="inlineStr"/>
       <c r="AU91" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -14786,20 +14113,16 @@
       <c r="O92" t="n">
         <v>1</v>
       </c>
-      <c r="P92" s="2" t="n">
+      <c r="P92" s="3" t="n">
         <v>44506</v>
       </c>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="inlineStr"/>
-      <c r="T92" t="inlineStr"/>
-      <c r="U92" s="2" t="n">
+      <c r="U92" s="3" t="n">
         <v>44347</v>
       </c>
-      <c r="V92" s="2" t="n">
+      <c r="V92" s="3" t="n">
         <v>44358</v>
       </c>
-      <c r="W92" s="2" t="n">
+      <c r="W92" s="3" t="n">
         <v>44362</v>
       </c>
       <c r="X92" t="inlineStr">
@@ -14812,7 +14135,6 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Z92" t="inlineStr"/>
       <c r="AA92" t="n">
         <v>0</v>
       </c>
@@ -14863,10 +14185,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ92" t="inlineStr"/>
-      <c r="AR92" t="inlineStr"/>
-      <c r="AS92" t="inlineStr"/>
-      <c r="AT92" t="inlineStr"/>
       <c r="AU92" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -14933,20 +14251,16 @@
       <c r="O93" t="n">
         <v>1</v>
       </c>
-      <c r="P93" s="2" t="n">
+      <c r="P93" s="3" t="n">
         <v>44506</v>
       </c>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="inlineStr"/>
-      <c r="T93" t="inlineStr"/>
-      <c r="U93" s="2" t="n">
+      <c r="U93" s="3" t="n">
         <v>44347</v>
       </c>
-      <c r="V93" s="2" t="n">
+      <c r="V93" s="3" t="n">
         <v>44358</v>
       </c>
-      <c r="W93" s="2" t="n">
+      <c r="W93" s="3" t="n">
         <v>44362</v>
       </c>
       <c r="X93" t="inlineStr">
@@ -14959,7 +14273,6 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Z93" t="inlineStr"/>
       <c r="AA93" t="n">
         <v>0</v>
       </c>
@@ -15010,10 +14323,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ93" t="inlineStr"/>
-      <c r="AR93" t="inlineStr"/>
-      <c r="AS93" t="inlineStr"/>
-      <c r="AT93" t="inlineStr"/>
       <c r="AU93" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -15080,20 +14389,16 @@
       <c r="O94" t="n">
         <v>1</v>
       </c>
-      <c r="P94" s="2" t="n">
+      <c r="P94" s="3" t="n">
         <v>44506</v>
       </c>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="inlineStr"/>
-      <c r="T94" t="inlineStr"/>
-      <c r="U94" s="2" t="n">
+      <c r="U94" s="3" t="n">
         <v>44347</v>
       </c>
-      <c r="V94" s="2" t="n">
+      <c r="V94" s="3" t="n">
         <v>44358</v>
       </c>
-      <c r="W94" s="2" t="n">
+      <c r="W94" s="3" t="n">
         <v>44362</v>
       </c>
       <c r="X94" t="inlineStr">
@@ -15106,7 +14411,6 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Z94" t="inlineStr"/>
       <c r="AA94" t="n">
         <v>0</v>
       </c>
@@ -15157,10 +14461,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ94" t="inlineStr"/>
-      <c r="AR94" t="inlineStr"/>
-      <c r="AS94" t="inlineStr"/>
-      <c r="AT94" t="inlineStr"/>
       <c r="AU94" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -15227,20 +14527,16 @@
       <c r="O95" t="n">
         <v>1</v>
       </c>
-      <c r="P95" s="2" t="n">
+      <c r="P95" s="3" t="n">
         <v>44506</v>
       </c>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="inlineStr"/>
-      <c r="T95" t="inlineStr"/>
-      <c r="U95" s="2" t="n">
+      <c r="U95" s="3" t="n">
         <v>44347</v>
       </c>
-      <c r="V95" s="2" t="n">
+      <c r="V95" s="3" t="n">
         <v>44358</v>
       </c>
-      <c r="W95" s="2" t="n">
+      <c r="W95" s="3" t="n">
         <v>44362</v>
       </c>
       <c r="X95" t="inlineStr">
@@ -15253,7 +14549,6 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Z95" t="inlineStr"/>
       <c r="AA95" t="n">
         <v>0</v>
       </c>
@@ -15304,10 +14599,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ95" t="inlineStr"/>
-      <c r="AR95" t="inlineStr"/>
-      <c r="AS95" t="inlineStr"/>
-      <c r="AT95" t="inlineStr"/>
       <c r="AU95" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -15374,20 +14665,16 @@
       <c r="O96" t="n">
         <v>1</v>
       </c>
-      <c r="P96" s="2" t="n">
+      <c r="P96" s="3" t="n">
         <v>44506</v>
       </c>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr"/>
-      <c r="T96" t="inlineStr"/>
-      <c r="U96" s="2" t="n">
+      <c r="U96" s="3" t="n">
         <v>44347</v>
       </c>
-      <c r="V96" s="2" t="n">
+      <c r="V96" s="3" t="n">
         <v>44358</v>
       </c>
-      <c r="W96" s="2" t="n">
+      <c r="W96" s="3" t="n">
         <v>44362</v>
       </c>
       <c r="X96" t="inlineStr">
@@ -15400,7 +14687,6 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Z96" t="inlineStr"/>
       <c r="AA96" t="n">
         <v>0</v>
       </c>
@@ -15451,10 +14737,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ96" t="inlineStr"/>
-      <c r="AR96" t="inlineStr"/>
-      <c r="AS96" t="inlineStr"/>
-      <c r="AT96" t="inlineStr"/>
       <c r="AU96" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -15521,20 +14803,16 @@
       <c r="O97" t="n">
         <v>1</v>
       </c>
-      <c r="P97" s="2" t="n">
+      <c r="P97" s="3" t="n">
         <v>44506</v>
       </c>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="inlineStr"/>
-      <c r="T97" t="inlineStr"/>
-      <c r="U97" s="2" t="n">
+      <c r="U97" s="3" t="n">
         <v>44347</v>
       </c>
-      <c r="V97" s="2" t="n">
+      <c r="V97" s="3" t="n">
         <v>44358</v>
       </c>
-      <c r="W97" s="2" t="n">
+      <c r="W97" s="3" t="n">
         <v>44362</v>
       </c>
       <c r="X97" t="inlineStr">
@@ -15547,7 +14825,6 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Z97" t="inlineStr"/>
       <c r="AA97" t="n">
         <v>0</v>
       </c>
@@ -15598,10 +14875,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ97" t="inlineStr"/>
-      <c r="AR97" t="inlineStr"/>
-      <c r="AS97" t="inlineStr"/>
-      <c r="AT97" t="inlineStr"/>
       <c r="AU97" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -15668,10 +14941,10 @@
       <c r="O98" t="n">
         <v>1</v>
       </c>
-      <c r="P98" s="2" t="n">
+      <c r="P98" s="3" t="n">
         <v>44526</v>
       </c>
-      <c r="Q98" s="2" t="n">
+      <c r="Q98" s="3" t="n">
         <v>44525</v>
       </c>
       <c r="R98" t="inlineStr">
@@ -15684,19 +14957,19 @@
           <t>ZDS-21-RR-01</t>
         </is>
       </c>
-      <c r="T98" s="2" t="n">
+      <c r="T98" s="3" t="n">
         <v>44340</v>
       </c>
-      <c r="U98" s="2" t="n">
+      <c r="U98" s="3" t="n">
         <v>44350</v>
       </c>
-      <c r="V98" s="2" t="n">
+      <c r="V98" s="3" t="n">
         <v>44379</v>
       </c>
-      <c r="W98" s="2" t="n">
+      <c r="W98" s="3" t="n">
         <v>44382</v>
       </c>
-      <c r="X98" s="2" t="n">
+      <c r="X98" s="3" t="n">
         <v>44399</v>
       </c>
       <c r="Y98" t="inlineStr">
@@ -15704,7 +14977,6 @@
           <t>CPIN BUILDERS</t>
         </is>
       </c>
-      <c r="Z98" t="inlineStr"/>
       <c r="AA98" t="n">
         <v>0</v>
       </c>
@@ -15755,10 +15027,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ98" t="inlineStr"/>
-      <c r="AR98" t="inlineStr"/>
-      <c r="AS98" t="inlineStr"/>
-      <c r="AT98" t="inlineStr"/>
       <c r="AU98" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -15825,10 +15093,10 @@
       <c r="O99" t="n">
         <v>1</v>
       </c>
-      <c r="P99" s="2" t="n">
+      <c r="P99" s="3" t="n">
         <v>44526</v>
       </c>
-      <c r="Q99" s="2" t="n">
+      <c r="Q99" s="3" t="n">
         <v>44524</v>
       </c>
       <c r="R99" t="inlineStr">
@@ -15841,19 +15109,19 @@
           <t>ZDS-21-RR-02</t>
         </is>
       </c>
-      <c r="T99" s="2" t="n">
+      <c r="T99" s="3" t="n">
         <v>44340</v>
       </c>
-      <c r="U99" s="2" t="n">
+      <c r="U99" s="3" t="n">
         <v>44350</v>
       </c>
-      <c r="V99" s="2" t="n">
+      <c r="V99" s="3" t="n">
         <v>44379</v>
       </c>
-      <c r="W99" s="2" t="n">
+      <c r="W99" s="3" t="n">
         <v>44382</v>
       </c>
-      <c r="X99" s="2" t="n">
+      <c r="X99" s="3" t="n">
         <v>44399</v>
       </c>
       <c r="Y99" t="inlineStr">
@@ -15861,7 +15129,6 @@
           <t>CPIN BUILDERS</t>
         </is>
       </c>
-      <c r="Z99" t="inlineStr"/>
       <c r="AA99" t="n">
         <v>0</v>
       </c>
@@ -15912,10 +15179,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ99" t="inlineStr"/>
-      <c r="AR99" t="inlineStr"/>
-      <c r="AS99" t="inlineStr"/>
-      <c r="AT99" t="inlineStr"/>
       <c r="AU99" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -15982,10 +15245,10 @@
       <c r="O100" t="n">
         <v>1</v>
       </c>
-      <c r="P100" s="2" t="n">
+      <c r="P100" s="3" t="n">
         <v>44526</v>
       </c>
-      <c r="Q100" s="2" t="n">
+      <c r="Q100" s="3" t="n">
         <v>44524</v>
       </c>
       <c r="R100" t="inlineStr">
@@ -15998,19 +15261,19 @@
           <t>ZDS-21-RR-02</t>
         </is>
       </c>
-      <c r="T100" s="2" t="n">
+      <c r="T100" s="3" t="n">
         <v>44340</v>
       </c>
-      <c r="U100" s="2" t="n">
+      <c r="U100" s="3" t="n">
         <v>44350</v>
       </c>
-      <c r="V100" s="2" t="n">
+      <c r="V100" s="3" t="n">
         <v>44379</v>
       </c>
-      <c r="W100" s="2" t="n">
+      <c r="W100" s="3" t="n">
         <v>44382</v>
       </c>
-      <c r="X100" s="2" t="n">
+      <c r="X100" s="3" t="n">
         <v>44399</v>
       </c>
       <c r="Y100" t="inlineStr">
@@ -16018,7 +15281,6 @@
           <t>CPIN BUILDERS</t>
         </is>
       </c>
-      <c r="Z100" t="inlineStr"/>
       <c r="AA100" t="n">
         <v>0</v>
       </c>
@@ -16069,10 +15331,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ100" t="inlineStr"/>
-      <c r="AR100" t="inlineStr"/>
-      <c r="AS100" t="inlineStr"/>
-      <c r="AT100" t="inlineStr"/>
       <c r="AU100" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -16139,10 +15397,10 @@
       <c r="O101" t="n">
         <v>1</v>
       </c>
-      <c r="P101" s="2" t="n">
+      <c r="P101" s="3" t="n">
         <v>44526</v>
       </c>
-      <c r="Q101" s="2" t="n">
+      <c r="Q101" s="3" t="n">
         <v>44524</v>
       </c>
       <c r="R101" t="inlineStr">
@@ -16155,19 +15413,19 @@
           <t>ZDS-21-RR-04</t>
         </is>
       </c>
-      <c r="T101" s="2" t="n">
+      <c r="T101" s="3" t="n">
         <v>44340</v>
       </c>
-      <c r="U101" s="2" t="n">
+      <c r="U101" s="3" t="n">
         <v>44350</v>
       </c>
-      <c r="V101" s="2" t="n">
+      <c r="V101" s="3" t="n">
         <v>44379</v>
       </c>
-      <c r="W101" s="2" t="n">
+      <c r="W101" s="3" t="n">
         <v>44382</v>
       </c>
-      <c r="X101" s="2" t="n">
+      <c r="X101" s="3" t="n">
         <v>44399</v>
       </c>
       <c r="Y101" t="inlineStr">
@@ -16175,7 +15433,6 @@
           <t>CPIN BUILDERS</t>
         </is>
       </c>
-      <c r="Z101" t="inlineStr"/>
       <c r="AA101" t="n">
         <v>0</v>
       </c>
@@ -16226,10 +15483,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ101" t="inlineStr"/>
-      <c r="AR101" t="inlineStr"/>
-      <c r="AS101" t="inlineStr"/>
-      <c r="AT101" t="inlineStr"/>
       <c r="AU101" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -16296,10 +15549,10 @@
       <c r="O102" t="n">
         <v>1</v>
       </c>
-      <c r="P102" s="2" t="n">
+      <c r="P102" s="3" t="n">
         <v>44526</v>
       </c>
-      <c r="Q102" s="2" t="n">
+      <c r="Q102" s="3" t="n">
         <v>44524</v>
       </c>
       <c r="R102" t="inlineStr">
@@ -16312,19 +15565,19 @@
           <t>ZDS-21-RR-04</t>
         </is>
       </c>
-      <c r="T102" s="2" t="n">
+      <c r="T102" s="3" t="n">
         <v>44340</v>
       </c>
-      <c r="U102" s="2" t="n">
+      <c r="U102" s="3" t="n">
         <v>44350</v>
       </c>
-      <c r="V102" s="2" t="n">
+      <c r="V102" s="3" t="n">
         <v>44379</v>
       </c>
-      <c r="W102" s="2" t="n">
+      <c r="W102" s="3" t="n">
         <v>44382</v>
       </c>
-      <c r="X102" s="2" t="n">
+      <c r="X102" s="3" t="n">
         <v>44399</v>
       </c>
       <c r="Y102" t="inlineStr">
@@ -16332,7 +15585,6 @@
           <t>CPIN BUILDERS</t>
         </is>
       </c>
-      <c r="Z102" t="inlineStr"/>
       <c r="AA102" t="n">
         <v>0</v>
       </c>
@@ -16383,10 +15635,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ102" t="inlineStr"/>
-      <c r="AR102" t="inlineStr"/>
-      <c r="AS102" t="inlineStr"/>
-      <c r="AT102" t="inlineStr"/>
       <c r="AU102" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -16453,10 +15701,10 @@
       <c r="O103" t="n">
         <v>1</v>
       </c>
-      <c r="P103" s="2" t="n">
+      <c r="P103" s="3" t="n">
         <v>44526</v>
       </c>
-      <c r="Q103" s="2" t="n">
+      <c r="Q103" s="3" t="n">
         <v>44523</v>
       </c>
       <c r="R103" t="inlineStr">
@@ -16469,19 +15717,19 @@
           <t>ZDS-21-RR-03</t>
         </is>
       </c>
-      <c r="T103" s="2" t="n">
+      <c r="T103" s="3" t="n">
         <v>44340</v>
       </c>
-      <c r="U103" s="2" t="n">
+      <c r="U103" s="3" t="n">
         <v>44350</v>
       </c>
-      <c r="V103" s="2" t="n">
+      <c r="V103" s="3" t="n">
         <v>44379</v>
       </c>
-      <c r="W103" s="2" t="n">
+      <c r="W103" s="3" t="n">
         <v>44382</v>
       </c>
-      <c r="X103" s="2" t="n">
+      <c r="X103" s="3" t="n">
         <v>44399</v>
       </c>
       <c r="Y103" t="inlineStr">
@@ -16489,7 +15737,6 @@
           <t>CPIN BUILDERS</t>
         </is>
       </c>
-      <c r="Z103" t="inlineStr"/>
       <c r="AA103" t="n">
         <v>0</v>
       </c>
@@ -16540,10 +15787,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ103" t="inlineStr"/>
-      <c r="AR103" t="inlineStr"/>
-      <c r="AS103" t="inlineStr"/>
-      <c r="AT103" t="inlineStr"/>
       <c r="AU103" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -16610,10 +15853,10 @@
       <c r="O104" t="n">
         <v>1</v>
       </c>
-      <c r="P104" s="2" t="n">
+      <c r="P104" s="3" t="n">
         <v>44526</v>
       </c>
-      <c r="Q104" s="2" t="n">
+      <c r="Q104" s="3" t="n">
         <v>44523</v>
       </c>
       <c r="R104" t="inlineStr">
@@ -16626,19 +15869,19 @@
           <t>ZDS-21-RR-03</t>
         </is>
       </c>
-      <c r="T104" s="2" t="n">
+      <c r="T104" s="3" t="n">
         <v>44340</v>
       </c>
-      <c r="U104" s="2" t="n">
+      <c r="U104" s="3" t="n">
         <v>44350</v>
       </c>
-      <c r="V104" s="2" t="n">
+      <c r="V104" s="3" t="n">
         <v>44379</v>
       </c>
-      <c r="W104" s="2" t="n">
+      <c r="W104" s="3" t="n">
         <v>44382</v>
       </c>
-      <c r="X104" s="2" t="n">
+      <c r="X104" s="3" t="n">
         <v>44399</v>
       </c>
       <c r="Y104" t="inlineStr">
@@ -16646,7 +15889,6 @@
           <t>CPIN BUILDERS</t>
         </is>
       </c>
-      <c r="Z104" t="inlineStr"/>
       <c r="AA104" t="n">
         <v>0</v>
       </c>
@@ -16697,10 +15939,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ104" t="inlineStr"/>
-      <c r="AR104" t="inlineStr"/>
-      <c r="AS104" t="inlineStr"/>
-      <c r="AT104" t="inlineStr"/>
       <c r="AU104" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -16767,10 +16005,10 @@
       <c r="O105" t="n">
         <v>1</v>
       </c>
-      <c r="P105" s="2" t="n">
+      <c r="P105" s="3" t="n">
         <v>44526</v>
       </c>
-      <c r="Q105" s="2" t="n">
+      <c r="Q105" s="3" t="n">
         <v>44523</v>
       </c>
       <c r="R105" t="inlineStr">
@@ -16783,19 +16021,19 @@
           <t>ZDS-21-RR-03</t>
         </is>
       </c>
-      <c r="T105" s="2" t="n">
+      <c r="T105" s="3" t="n">
         <v>44340</v>
       </c>
-      <c r="U105" s="2" t="n">
+      <c r="U105" s="3" t="n">
         <v>44350</v>
       </c>
-      <c r="V105" s="2" t="n">
+      <c r="V105" s="3" t="n">
         <v>44379</v>
       </c>
-      <c r="W105" s="2" t="n">
+      <c r="W105" s="3" t="n">
         <v>44382</v>
       </c>
-      <c r="X105" s="2" t="n">
+      <c r="X105" s="3" t="n">
         <v>44399</v>
       </c>
       <c r="Y105" t="inlineStr">
@@ -16803,7 +16041,6 @@
           <t>CPIN BUILDERS</t>
         </is>
       </c>
-      <c r="Z105" t="inlineStr"/>
       <c r="AA105" t="n">
         <v>0</v>
       </c>
@@ -16854,10 +16091,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ105" t="inlineStr"/>
-      <c r="AR105" t="inlineStr"/>
-      <c r="AS105" t="inlineStr"/>
-      <c r="AT105" t="inlineStr"/>
       <c r="AU105" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -16924,16 +16157,14 @@
       <c r="O106" t="n">
         <v>1</v>
       </c>
-      <c r="P106" s="2" t="n">
+      <c r="P106" s="3" t="n">
         <v>44527</v>
       </c>
-      <c r="Q106" t="inlineStr"/>
       <c r="R106" t="inlineStr">
         <is>
           <t>ZSY-2021R-01</t>
         </is>
       </c>
-      <c r="S106" t="inlineStr"/>
       <c r="T106" t="inlineStr">
         <is>
           <t>April 31, 2021</t>
@@ -16964,7 +16195,6 @@
           <t>Diplahan Commercial</t>
         </is>
       </c>
-      <c r="Z106" t="inlineStr"/>
       <c r="AA106" t="n">
         <v>0</v>
       </c>
@@ -17015,10 +16245,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ106" t="inlineStr"/>
-      <c r="AR106" t="inlineStr"/>
-      <c r="AS106" t="inlineStr"/>
-      <c r="AT106" t="inlineStr"/>
       <c r="AU106" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -17085,16 +16311,14 @@
       <c r="O107" t="n">
         <v>1</v>
       </c>
-      <c r="P107" s="2" t="n">
+      <c r="P107" s="3" t="n">
         <v>44527</v>
       </c>
-      <c r="Q107" t="inlineStr"/>
       <c r="R107" t="inlineStr">
         <is>
           <t>ZSY-2021R-01</t>
         </is>
       </c>
-      <c r="S107" t="inlineStr"/>
       <c r="T107" t="inlineStr">
         <is>
           <t>April 31, 2021</t>
@@ -17125,7 +16349,6 @@
           <t>Diplahan Commercial</t>
         </is>
       </c>
-      <c r="Z107" t="inlineStr"/>
       <c r="AA107" t="n">
         <v>0</v>
       </c>
@@ -17176,10 +16399,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ107" t="inlineStr"/>
-      <c r="AR107" t="inlineStr"/>
-      <c r="AS107" t="inlineStr"/>
-      <c r="AT107" t="inlineStr"/>
       <c r="AU107" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -17246,16 +16465,14 @@
       <c r="O108" t="n">
         <v>1</v>
       </c>
-      <c r="P108" s="2" t="n">
+      <c r="P108" s="3" t="n">
         <v>44527</v>
       </c>
-      <c r="Q108" t="inlineStr"/>
       <c r="R108" t="inlineStr">
         <is>
           <t>ZSY-2021R-01</t>
         </is>
       </c>
-      <c r="S108" t="inlineStr"/>
       <c r="T108" t="inlineStr">
         <is>
           <t>April 31, 2021</t>
@@ -17286,7 +16503,6 @@
           <t>Diplahan Commercial</t>
         </is>
       </c>
-      <c r="Z108" t="inlineStr"/>
       <c r="AA108" t="n">
         <v>0</v>
       </c>
@@ -17337,10 +16553,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ108" t="inlineStr"/>
-      <c r="AR108" t="inlineStr"/>
-      <c r="AS108" t="inlineStr"/>
-      <c r="AT108" t="inlineStr"/>
       <c r="AU108" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -17407,7 +16619,7 @@
       <c r="O109" t="n">
         <v>1</v>
       </c>
-      <c r="P109" s="2" t="n">
+      <c r="P109" s="3" t="n">
         <v>44527</v>
       </c>
       <c r="Q109" t="inlineStr">
@@ -17420,7 +16632,6 @@
           <t>ZSY-2021R-02</t>
         </is>
       </c>
-      <c r="S109" t="inlineStr"/>
       <c r="T109" t="inlineStr">
         <is>
           <t>April 31, 2021</t>
@@ -17451,7 +16662,6 @@
           <t>Stone Throw Construction and Enterprise</t>
         </is>
       </c>
-      <c r="Z109" t="inlineStr"/>
       <c r="AA109" t="n">
         <v>0</v>
       </c>
@@ -17502,10 +16712,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ109" t="inlineStr"/>
-      <c r="AR109" t="inlineStr"/>
-      <c r="AS109" t="inlineStr"/>
-      <c r="AT109" t="inlineStr"/>
       <c r="AU109" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -17572,7 +16778,7 @@
       <c r="O110" t="n">
         <v>1</v>
       </c>
-      <c r="P110" s="2" t="n">
+      <c r="P110" s="3" t="n">
         <v>44527</v>
       </c>
       <c r="Q110" t="inlineStr">
@@ -17585,7 +16791,6 @@
           <t>ZSY-2021R-02</t>
         </is>
       </c>
-      <c r="S110" t="inlineStr"/>
       <c r="T110" t="inlineStr">
         <is>
           <t>April 31, 2021</t>
@@ -17616,7 +16821,6 @@
           <t>Stone Throw Construction and Enterprise</t>
         </is>
       </c>
-      <c r="Z110" t="inlineStr"/>
       <c r="AA110" t="n">
         <v>0</v>
       </c>
@@ -17667,10 +16871,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ110" t="inlineStr"/>
-      <c r="AR110" t="inlineStr"/>
-      <c r="AS110" t="inlineStr"/>
-      <c r="AT110" t="inlineStr"/>
       <c r="AU110" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -17737,10 +16937,10 @@
       <c r="O111" t="n">
         <v>1</v>
       </c>
-      <c r="P111" s="2" t="n">
+      <c r="P111" s="3" t="n">
         <v>44834</v>
       </c>
-      <c r="Q111" s="2" t="n">
+      <c r="Q111" s="3" t="n">
         <v>44812</v>
       </c>
       <c r="R111" t="inlineStr">
@@ -17753,19 +16953,19 @@
           <t>Repair 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T111" s="2" t="n">
+      <c r="T111" s="3" t="n">
         <v>44600</v>
       </c>
-      <c r="U111" s="2" t="n">
+      <c r="U111" s="3" t="n">
         <v>44609</v>
       </c>
-      <c r="V111" s="2" t="n">
+      <c r="V111" s="3" t="n">
         <v>44622</v>
       </c>
-      <c r="W111" s="2" t="n">
+      <c r="W111" s="3" t="n">
         <v>44631</v>
       </c>
-      <c r="X111" s="2" t="n">
+      <c r="X111" s="3" t="n">
         <v>44711</v>
       </c>
       <c r="Y111" t="inlineStr">
@@ -17773,7 +16973,6 @@
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z111" t="inlineStr"/>
       <c r="AA111" t="n">
         <v>0</v>
       </c>
@@ -17816,15 +17015,11 @@
       <c r="AN111" t="n">
         <v>0</v>
       </c>
-      <c r="AO111" t="inlineStr"/>
       <c r="AP111" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ111" t="inlineStr"/>
-      <c r="AR111" t="inlineStr"/>
-      <c r="AS111" t="inlineStr"/>
       <c r="AT111" t="inlineStr">
         <is>
           <t>CY 2022</t>
@@ -17896,10 +17091,10 @@
       <c r="O112" t="n">
         <v>1</v>
       </c>
-      <c r="P112" s="2" t="n">
+      <c r="P112" s="3" t="n">
         <v>44834</v>
       </c>
-      <c r="Q112" s="2" t="n">
+      <c r="Q112" s="3" t="n">
         <v>44812</v>
       </c>
       <c r="R112" t="inlineStr">
@@ -17912,19 +17107,19 @@
           <t>Repair 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T112" s="2" t="n">
+      <c r="T112" s="3" t="n">
         <v>44600</v>
       </c>
-      <c r="U112" s="2" t="n">
+      <c r="U112" s="3" t="n">
         <v>44609</v>
       </c>
-      <c r="V112" s="2" t="n">
+      <c r="V112" s="3" t="n">
         <v>44622</v>
       </c>
-      <c r="W112" s="2" t="n">
+      <c r="W112" s="3" t="n">
         <v>44631</v>
       </c>
-      <c r="X112" s="2" t="n">
+      <c r="X112" s="3" t="n">
         <v>44711</v>
       </c>
       <c r="Y112" t="inlineStr">
@@ -17932,7 +17127,6 @@
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z112" t="inlineStr"/>
       <c r="AA112" t="n">
         <v>0</v>
       </c>
@@ -17975,15 +17169,11 @@
       <c r="AN112" t="n">
         <v>0</v>
       </c>
-      <c r="AO112" t="inlineStr"/>
       <c r="AP112" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ112" t="inlineStr"/>
-      <c r="AR112" t="inlineStr"/>
-      <c r="AS112" t="inlineStr"/>
       <c r="AT112" t="inlineStr">
         <is>
           <t>CY 2022</t>
@@ -18055,10 +17245,10 @@
       <c r="O113" t="n">
         <v>1</v>
       </c>
-      <c r="P113" s="2" t="n">
+      <c r="P113" s="3" t="n">
         <v>44856</v>
       </c>
-      <c r="Q113" s="2" t="n">
+      <c r="Q113" s="3" t="n">
         <v>44812</v>
       </c>
       <c r="R113" t="inlineStr">
@@ -18071,19 +17261,19 @@
           <t>ZDS-22-RR-01</t>
         </is>
       </c>
-      <c r="T113" s="2" t="n">
+      <c r="T113" s="3" t="n">
         <v>44599</v>
       </c>
-      <c r="U113" s="2" t="n">
+      <c r="U113" s="3" t="n">
         <v>44613</v>
       </c>
-      <c r="V113" s="2" t="n">
+      <c r="V113" s="3" t="n">
         <v>44627</v>
       </c>
-      <c r="W113" s="2" t="n">
+      <c r="W113" s="3" t="n">
         <v>44645</v>
       </c>
-      <c r="X113" s="2" t="n">
+      <c r="X113" s="3" t="n">
         <v>44736</v>
       </c>
       <c r="Y113" t="inlineStr">
@@ -18091,7 +17281,6 @@
           <t>CPIN Builders</t>
         </is>
       </c>
-      <c r="Z113" t="inlineStr"/>
       <c r="AA113" t="n">
         <v>0</v>
       </c>
@@ -18134,15 +17323,11 @@
       <c r="AN113" t="n">
         <v>0</v>
       </c>
-      <c r="AO113" t="inlineStr"/>
       <c r="AP113" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ113" t="inlineStr"/>
-      <c r="AR113" t="inlineStr"/>
-      <c r="AS113" t="inlineStr"/>
       <c r="AT113" t="inlineStr">
         <is>
           <t>CY 2022</t>
@@ -18214,10 +17399,10 @@
       <c r="O114" t="n">
         <v>1</v>
       </c>
-      <c r="P114" s="2" t="n">
+      <c r="P114" s="3" t="n">
         <v>44856</v>
       </c>
-      <c r="Q114" s="2" t="n">
+      <c r="Q114" s="3" t="n">
         <v>44854</v>
       </c>
       <c r="R114" t="inlineStr">
@@ -18230,19 +17415,19 @@
           <t>ZDS-22-RR-01</t>
         </is>
       </c>
-      <c r="T114" s="2" t="n">
+      <c r="T114" s="3" t="n">
         <v>44599</v>
       </c>
-      <c r="U114" s="2" t="n">
+      <c r="U114" s="3" t="n">
         <v>44613</v>
       </c>
-      <c r="V114" s="2" t="n">
+      <c r="V114" s="3" t="n">
         <v>44627</v>
       </c>
-      <c r="W114" s="2" t="n">
+      <c r="W114" s="3" t="n">
         <v>44644</v>
       </c>
-      <c r="X114" s="2" t="n">
+      <c r="X114" s="3" t="n">
         <v>44736</v>
       </c>
       <c r="Y114" t="inlineStr">
@@ -18250,7 +17435,6 @@
           <t>JZ MAGO CONSTRUCTION &amp; ENT.</t>
         </is>
       </c>
-      <c r="Z114" t="inlineStr"/>
       <c r="AA114" t="n">
         <v>0</v>
       </c>
@@ -18293,15 +17477,11 @@
       <c r="AN114" t="n">
         <v>0</v>
       </c>
-      <c r="AO114" t="inlineStr"/>
       <c r="AP114" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ114" t="inlineStr"/>
-      <c r="AR114" t="inlineStr"/>
-      <c r="AS114" t="inlineStr"/>
       <c r="AT114" t="inlineStr">
         <is>
           <t>CY 2022</t>
@@ -18373,10 +17553,10 @@
       <c r="O115" t="n">
         <v>1</v>
       </c>
-      <c r="P115" s="2" t="n">
+      <c r="P115" s="3" t="n">
         <v>44856</v>
       </c>
-      <c r="Q115" s="2" t="n">
+      <c r="Q115" s="3" t="n">
         <v>44854</v>
       </c>
       <c r="R115" t="inlineStr">
@@ -18389,19 +17569,19 @@
           <t>ZDS-22-RR-01</t>
         </is>
       </c>
-      <c r="T115" s="2" t="n">
+      <c r="T115" s="3" t="n">
         <v>44599</v>
       </c>
-      <c r="U115" s="2" t="n">
+      <c r="U115" s="3" t="n">
         <v>44613</v>
       </c>
-      <c r="V115" s="2" t="n">
+      <c r="V115" s="3" t="n">
         <v>44627</v>
       </c>
-      <c r="W115" s="2" t="n">
+      <c r="W115" s="3" t="n">
         <v>44644</v>
       </c>
-      <c r="X115" s="2" t="n">
+      <c r="X115" s="3" t="n">
         <v>44736</v>
       </c>
       <c r="Y115" t="inlineStr">
@@ -18409,7 +17589,6 @@
           <t>JZ MAGO CONSTRUCTION &amp; ENT.</t>
         </is>
       </c>
-      <c r="Z115" t="inlineStr"/>
       <c r="AA115" t="n">
         <v>0</v>
       </c>
@@ -18452,15 +17631,11 @@
       <c r="AN115" t="n">
         <v>0</v>
       </c>
-      <c r="AO115" t="inlineStr"/>
       <c r="AP115" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ115" t="inlineStr"/>
-      <c r="AR115" t="inlineStr"/>
-      <c r="AS115" t="inlineStr"/>
       <c r="AT115" t="inlineStr">
         <is>
           <t>CY 2022</t>
@@ -18532,10 +17707,10 @@
       <c r="O116" t="n">
         <v>1</v>
       </c>
-      <c r="P116" s="2" t="n">
+      <c r="P116" s="3" t="n">
         <v>44851</v>
       </c>
-      <c r="Q116" s="2" t="n">
+      <c r="Q116" s="3" t="n">
         <v>44851</v>
       </c>
       <c r="R116" t="inlineStr">
@@ -18548,10 +17723,10 @@
           <t>ZSY-2022R-01</t>
         </is>
       </c>
-      <c r="T116" s="2" t="n">
+      <c r="T116" s="3" t="n">
         <v>44605</v>
       </c>
-      <c r="U116" s="2" t="n">
+      <c r="U116" s="3" t="n">
         <v>44613</v>
       </c>
       <c r="V116" t="inlineStr">
@@ -18564,7 +17739,7 @@
           <t>March 31, 2022</t>
         </is>
       </c>
-      <c r="X116" s="2" t="n">
+      <c r="X116" s="3" t="n">
         <v>44758</v>
       </c>
       <c r="Y116" t="inlineStr">
@@ -18572,7 +17747,6 @@
           <t>CPAN Engineering &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Z116" t="inlineStr"/>
       <c r="AA116" t="n">
         <v>0</v>
       </c>
@@ -18621,9 +17795,6 @@
       <c r="AP116" t="n">
         <v>1.23</v>
       </c>
-      <c r="AQ116" t="inlineStr"/>
-      <c r="AR116" t="inlineStr"/>
-      <c r="AS116" t="inlineStr"/>
       <c r="AT116" t="inlineStr">
         <is>
           <t>CY 2023</t>
@@ -18695,10 +17866,10 @@
       <c r="O117" t="n">
         <v>1</v>
       </c>
-      <c r="P117" s="2" t="n">
+      <c r="P117" s="3" t="n">
         <v>44851</v>
       </c>
-      <c r="Q117" s="2" t="n">
+      <c r="Q117" s="3" t="n">
         <v>44851</v>
       </c>
       <c r="R117" t="inlineStr">
@@ -18711,10 +17882,10 @@
           <t>ZSY-2022R-02</t>
         </is>
       </c>
-      <c r="T117" s="2" t="n">
+      <c r="T117" s="3" t="n">
         <v>44605</v>
       </c>
-      <c r="U117" s="2" t="n">
+      <c r="U117" s="3" t="n">
         <v>44613</v>
       </c>
       <c r="V117" t="inlineStr">
@@ -18727,7 +17898,7 @@
           <t>March 31, 2022</t>
         </is>
       </c>
-      <c r="X117" s="2" t="n">
+      <c r="X117" s="3" t="n">
         <v>44758</v>
       </c>
       <c r="Y117" t="inlineStr">
@@ -18735,7 +17906,6 @@
           <t>CPAN Engineering &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Z117" t="inlineStr"/>
       <c r="AA117" t="n">
         <v>0</v>
       </c>
@@ -18784,9 +17954,6 @@
       <c r="AP117" t="n">
         <v>1.23</v>
       </c>
-      <c r="AQ117" t="inlineStr"/>
-      <c r="AR117" t="inlineStr"/>
-      <c r="AS117" t="inlineStr"/>
       <c r="AT117" t="inlineStr">
         <is>
           <t>CY 2023</t>
@@ -18851,7 +18018,6 @@
           <t>DPWH (Batch 2)</t>
         </is>
       </c>
-      <c r="M118" t="inlineStr"/>
       <c r="N118" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -18860,17 +18026,6 @@
       <c r="O118" t="n">
         <v>1</v>
       </c>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="inlineStr"/>
-      <c r="T118" t="inlineStr"/>
-      <c r="U118" t="inlineStr"/>
-      <c r="V118" t="inlineStr"/>
-      <c r="W118" t="inlineStr"/>
-      <c r="X118" t="inlineStr"/>
-      <c r="Y118" t="inlineStr"/>
-      <c r="Z118" t="inlineStr"/>
       <c r="AA118" t="n">
         <v>0</v>
       </c>
@@ -18913,14 +18068,9 @@
       <c r="AN118" t="n">
         <v>0</v>
       </c>
-      <c r="AO118" t="inlineStr"/>
       <c r="AP118" t="n">
         <v>2.25</v>
       </c>
-      <c r="AQ118" t="inlineStr"/>
-      <c r="AR118" t="inlineStr"/>
-      <c r="AS118" t="inlineStr"/>
-      <c r="AT118" t="inlineStr"/>
       <c r="AU118" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -18980,7 +18130,6 @@
           <t>DPWH (Batch 2)</t>
         </is>
       </c>
-      <c r="M119" t="inlineStr"/>
       <c r="N119" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -18989,17 +18138,6 @@
       <c r="O119" t="n">
         <v>1</v>
       </c>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="inlineStr"/>
-      <c r="T119" t="inlineStr"/>
-      <c r="U119" t="inlineStr"/>
-      <c r="V119" t="inlineStr"/>
-      <c r="W119" t="inlineStr"/>
-      <c r="X119" t="inlineStr"/>
-      <c r="Y119" t="inlineStr"/>
-      <c r="Z119" t="inlineStr"/>
       <c r="AA119" t="n">
         <v>0</v>
       </c>
@@ -19042,14 +18180,9 @@
       <c r="AN119" t="n">
         <v>0</v>
       </c>
-      <c r="AO119" t="inlineStr"/>
       <c r="AP119" t="n">
         <v>5.24</v>
       </c>
-      <c r="AQ119" t="inlineStr"/>
-      <c r="AR119" t="inlineStr"/>
-      <c r="AS119" t="inlineStr"/>
-      <c r="AT119" t="inlineStr"/>
       <c r="AU119" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -19109,7 +18242,6 @@
           <t>DPWH (Batch 2)</t>
         </is>
       </c>
-      <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -19118,17 +18250,6 @@
       <c r="O120" t="n">
         <v>1</v>
       </c>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="inlineStr"/>
-      <c r="T120" t="inlineStr"/>
-      <c r="U120" t="inlineStr"/>
-      <c r="V120" t="inlineStr"/>
-      <c r="W120" t="inlineStr"/>
-      <c r="X120" t="inlineStr"/>
-      <c r="Y120" t="inlineStr"/>
-      <c r="Z120" t="inlineStr"/>
       <c r="AA120" t="n">
         <v>0</v>
       </c>
@@ -19171,14 +18292,9 @@
       <c r="AN120" t="n">
         <v>0</v>
       </c>
-      <c r="AO120" t="inlineStr"/>
       <c r="AP120" t="n">
         <v>10.24</v>
       </c>
-      <c r="AQ120" t="inlineStr"/>
-      <c r="AR120" t="inlineStr"/>
-      <c r="AS120" t="inlineStr"/>
-      <c r="AT120" t="inlineStr"/>
       <c r="AU120" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -19238,7 +18354,6 @@
           <t>DPWH (Batch 2)</t>
         </is>
       </c>
-      <c r="M121" t="inlineStr"/>
       <c r="N121" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -19247,17 +18362,6 @@
       <c r="O121" t="n">
         <v>1</v>
       </c>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="inlineStr"/>
-      <c r="T121" t="inlineStr"/>
-      <c r="U121" t="inlineStr"/>
-      <c r="V121" t="inlineStr"/>
-      <c r="W121" t="inlineStr"/>
-      <c r="X121" t="inlineStr"/>
-      <c r="Y121" t="inlineStr"/>
-      <c r="Z121" t="inlineStr"/>
       <c r="AA121" t="n">
         <v>0</v>
       </c>
@@ -19300,14 +18404,9 @@
       <c r="AN121" t="n">
         <v>0</v>
       </c>
-      <c r="AO121" t="inlineStr"/>
       <c r="AP121" t="n">
         <v>5.24</v>
       </c>
-      <c r="AQ121" t="inlineStr"/>
-      <c r="AR121" t="inlineStr"/>
-      <c r="AS121" t="inlineStr"/>
-      <c r="AT121" t="inlineStr"/>
       <c r="AU121" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -19367,7 +18466,6 @@
           <t>DPWH (Batch 2)</t>
         </is>
       </c>
-      <c r="M122" t="inlineStr"/>
       <c r="N122" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -19376,17 +18474,6 @@
       <c r="O122" t="n">
         <v>1</v>
       </c>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="inlineStr"/>
-      <c r="T122" t="inlineStr"/>
-      <c r="U122" t="inlineStr"/>
-      <c r="V122" t="inlineStr"/>
-      <c r="W122" t="inlineStr"/>
-      <c r="X122" t="inlineStr"/>
-      <c r="Y122" t="inlineStr"/>
-      <c r="Z122" t="inlineStr"/>
       <c r="AA122" t="n">
         <v>0</v>
       </c>
@@ -19429,14 +18516,9 @@
       <c r="AN122" t="n">
         <v>0</v>
       </c>
-      <c r="AO122" t="inlineStr"/>
       <c r="AP122" t="n">
         <v>10.24</v>
       </c>
-      <c r="AQ122" t="inlineStr"/>
-      <c r="AR122" t="inlineStr"/>
-      <c r="AS122" t="inlineStr"/>
-      <c r="AT122" t="inlineStr"/>
       <c r="AU122" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -19496,7 +18578,6 @@
           <t>DPWH (Batch 2)</t>
         </is>
       </c>
-      <c r="M123" t="inlineStr"/>
       <c r="N123" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -19505,17 +18586,6 @@
       <c r="O123" t="n">
         <v>1</v>
       </c>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="inlineStr"/>
-      <c r="T123" t="inlineStr"/>
-      <c r="U123" t="inlineStr"/>
-      <c r="V123" t="inlineStr"/>
-      <c r="W123" t="inlineStr"/>
-      <c r="X123" t="inlineStr"/>
-      <c r="Y123" t="inlineStr"/>
-      <c r="Z123" t="inlineStr"/>
       <c r="AA123" t="n">
         <v>0</v>
       </c>
@@ -19558,14 +18628,9 @@
       <c r="AN123" t="n">
         <v>0</v>
       </c>
-      <c r="AO123" t="inlineStr"/>
       <c r="AP123" t="n">
         <v>5.24</v>
       </c>
-      <c r="AQ123" t="inlineStr"/>
-      <c r="AR123" t="inlineStr"/>
-      <c r="AS123" t="inlineStr"/>
-      <c r="AT123" t="inlineStr"/>
       <c r="AU123" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -19625,7 +18690,6 @@
           <t>DPWH (Batch 2)</t>
         </is>
       </c>
-      <c r="M124" t="inlineStr"/>
       <c r="N124" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -19634,17 +18698,6 @@
       <c r="O124" t="n">
         <v>1</v>
       </c>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="inlineStr"/>
-      <c r="T124" t="inlineStr"/>
-      <c r="U124" t="inlineStr"/>
-      <c r="V124" t="inlineStr"/>
-      <c r="W124" t="inlineStr"/>
-      <c r="X124" t="inlineStr"/>
-      <c r="Y124" t="inlineStr"/>
-      <c r="Z124" t="inlineStr"/>
       <c r="AA124" t="n">
         <v>0</v>
       </c>
@@ -19687,14 +18740,9 @@
       <c r="AN124" t="n">
         <v>0</v>
       </c>
-      <c r="AO124" t="inlineStr"/>
       <c r="AP124" t="n">
         <v>10.24</v>
       </c>
-      <c r="AQ124" t="inlineStr"/>
-      <c r="AR124" t="inlineStr"/>
-      <c r="AS124" t="inlineStr"/>
-      <c r="AT124" t="inlineStr"/>
       <c r="AU124" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -19754,7 +18802,6 @@
           <t>DPWH (Batch 2)</t>
         </is>
       </c>
-      <c r="M125" t="inlineStr"/>
       <c r="N125" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -19763,17 +18810,6 @@
       <c r="O125" t="n">
         <v>1</v>
       </c>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="inlineStr"/>
-      <c r="T125" t="inlineStr"/>
-      <c r="U125" t="inlineStr"/>
-      <c r="V125" t="inlineStr"/>
-      <c r="W125" t="inlineStr"/>
-      <c r="X125" t="inlineStr"/>
-      <c r="Y125" t="inlineStr"/>
-      <c r="Z125" t="inlineStr"/>
       <c r="AA125" t="n">
         <v>0</v>
       </c>
@@ -19816,14 +18852,9 @@
       <c r="AN125" t="n">
         <v>0</v>
       </c>
-      <c r="AO125" t="inlineStr"/>
       <c r="AP125" t="n">
         <v>10.24</v>
       </c>
-      <c r="AQ125" t="inlineStr"/>
-      <c r="AR125" t="inlineStr"/>
-      <c r="AS125" t="inlineStr"/>
-      <c r="AT125" t="inlineStr"/>
       <c r="AU125" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -19883,7 +18914,6 @@
           <t>DPWH (Batch 2)</t>
         </is>
       </c>
-      <c r="M126" t="inlineStr"/>
       <c r="N126" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -19892,17 +18922,6 @@
       <c r="O126" t="n">
         <v>1</v>
       </c>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="inlineStr"/>
-      <c r="T126" t="inlineStr"/>
-      <c r="U126" t="inlineStr"/>
-      <c r="V126" t="inlineStr"/>
-      <c r="W126" t="inlineStr"/>
-      <c r="X126" t="inlineStr"/>
-      <c r="Y126" t="inlineStr"/>
-      <c r="Z126" t="inlineStr"/>
       <c r="AA126" t="n">
         <v>0</v>
       </c>
@@ -19945,14 +18964,9 @@
       <c r="AN126" t="n">
         <v>0</v>
       </c>
-      <c r="AO126" t="inlineStr"/>
       <c r="AP126" t="n">
         <v>10.24</v>
       </c>
-      <c r="AQ126" t="inlineStr"/>
-      <c r="AR126" t="inlineStr"/>
-      <c r="AS126" t="inlineStr"/>
-      <c r="AT126" t="inlineStr"/>
       <c r="AU126" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -20012,7 +19026,6 @@
           <t>DPWH (Batch 2)</t>
         </is>
       </c>
-      <c r="M127" t="inlineStr"/>
       <c r="N127" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -20021,17 +19034,6 @@
       <c r="O127" t="n">
         <v>1</v>
       </c>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="inlineStr"/>
-      <c r="T127" t="inlineStr"/>
-      <c r="U127" t="inlineStr"/>
-      <c r="V127" t="inlineStr"/>
-      <c r="W127" t="inlineStr"/>
-      <c r="X127" t="inlineStr"/>
-      <c r="Y127" t="inlineStr"/>
-      <c r="Z127" t="inlineStr"/>
       <c r="AA127" t="n">
         <v>0</v>
       </c>
@@ -20074,14 +19076,9 @@
       <c r="AN127" t="n">
         <v>0</v>
       </c>
-      <c r="AO127" t="inlineStr"/>
       <c r="AP127" t="n">
         <v>10.24</v>
       </c>
-      <c r="AQ127" t="inlineStr"/>
-      <c r="AR127" t="inlineStr"/>
-      <c r="AS127" t="inlineStr"/>
-      <c r="AT127" t="inlineStr"/>
       <c r="AU127" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -20141,7 +19138,6 @@
           <t>DPWH (Batch 2)</t>
         </is>
       </c>
-      <c r="M128" t="inlineStr"/>
       <c r="N128" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -20150,17 +19146,6 @@
       <c r="O128" t="n">
         <v>1</v>
       </c>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="inlineStr"/>
-      <c r="T128" t="inlineStr"/>
-      <c r="U128" t="inlineStr"/>
-      <c r="V128" t="inlineStr"/>
-      <c r="W128" t="inlineStr"/>
-      <c r="X128" t="inlineStr"/>
-      <c r="Y128" t="inlineStr"/>
-      <c r="Z128" t="inlineStr"/>
       <c r="AA128" t="n">
         <v>0</v>
       </c>
@@ -20203,14 +19188,9 @@
       <c r="AN128" t="n">
         <v>0</v>
       </c>
-      <c r="AO128" t="inlineStr"/>
       <c r="AP128" t="n">
         <v>10.24</v>
       </c>
-      <c r="AQ128" t="inlineStr"/>
-      <c r="AR128" t="inlineStr"/>
-      <c r="AS128" t="inlineStr"/>
-      <c r="AT128" t="inlineStr"/>
       <c r="AU128" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -20270,7 +19250,6 @@
           <t>DPWH (Batch 2)</t>
         </is>
       </c>
-      <c r="M129" t="inlineStr"/>
       <c r="N129" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -20279,17 +19258,6 @@
       <c r="O129" t="n">
         <v>1</v>
       </c>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="inlineStr"/>
-      <c r="T129" t="inlineStr"/>
-      <c r="U129" t="inlineStr"/>
-      <c r="V129" t="inlineStr"/>
-      <c r="W129" t="inlineStr"/>
-      <c r="X129" t="inlineStr"/>
-      <c r="Y129" t="inlineStr"/>
-      <c r="Z129" t="inlineStr"/>
       <c r="AA129" t="n">
         <v>0</v>
       </c>
@@ -20332,14 +19300,9 @@
       <c r="AN129" t="n">
         <v>0</v>
       </c>
-      <c r="AO129" t="inlineStr"/>
       <c r="AP129" t="n">
         <v>10.24</v>
       </c>
-      <c r="AQ129" t="inlineStr"/>
-      <c r="AR129" t="inlineStr"/>
-      <c r="AS129" t="inlineStr"/>
-      <c r="AT129" t="inlineStr"/>
       <c r="AU129" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -20399,7 +19362,6 @@
           <t>DPWH (Batch 2)</t>
         </is>
       </c>
-      <c r="M130" t="inlineStr"/>
       <c r="N130" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -20408,17 +19370,6 @@
       <c r="O130" t="n">
         <v>1</v>
       </c>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="inlineStr"/>
-      <c r="T130" t="inlineStr"/>
-      <c r="U130" t="inlineStr"/>
-      <c r="V130" t="inlineStr"/>
-      <c r="W130" t="inlineStr"/>
-      <c r="X130" t="inlineStr"/>
-      <c r="Y130" t="inlineStr"/>
-      <c r="Z130" t="inlineStr"/>
       <c r="AA130" t="n">
         <v>0</v>
       </c>
@@ -20461,14 +19412,9 @@
       <c r="AN130" t="n">
         <v>0</v>
       </c>
-      <c r="AO130" t="inlineStr"/>
       <c r="AP130" t="n">
         <v>10.24</v>
       </c>
-      <c r="AQ130" t="inlineStr"/>
-      <c r="AR130" t="inlineStr"/>
-      <c r="AS130" t="inlineStr"/>
-      <c r="AT130" t="inlineStr"/>
       <c r="AU130" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -20528,7 +19474,6 @@
           <t>DPWH (Batch 1)</t>
         </is>
       </c>
-      <c r="M131" t="inlineStr"/>
       <c r="N131" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -20537,17 +19482,6 @@
       <c r="O131" t="n">
         <v>1</v>
       </c>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="inlineStr"/>
-      <c r="T131" t="inlineStr"/>
-      <c r="U131" t="inlineStr"/>
-      <c r="V131" t="inlineStr"/>
-      <c r="W131" t="inlineStr"/>
-      <c r="X131" t="inlineStr"/>
-      <c r="Y131" t="inlineStr"/>
-      <c r="Z131" t="inlineStr"/>
       <c r="AA131" t="n">
         <v>0</v>
       </c>
@@ -20590,14 +19524,9 @@
       <c r="AN131" t="n">
         <v>0</v>
       </c>
-      <c r="AO131" t="inlineStr"/>
       <c r="AP131" t="n">
         <v>10.24</v>
       </c>
-      <c r="AQ131" t="inlineStr"/>
-      <c r="AR131" t="inlineStr"/>
-      <c r="AS131" t="inlineStr"/>
-      <c r="AT131" t="inlineStr"/>
       <c r="AU131" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -20657,7 +19586,6 @@
           <t>DPWH (Batch 1)</t>
         </is>
       </c>
-      <c r="M132" t="inlineStr"/>
       <c r="N132" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -20666,17 +19594,6 @@
       <c r="O132" t="n">
         <v>0.85</v>
       </c>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="inlineStr"/>
-      <c r="T132" t="inlineStr"/>
-      <c r="U132" t="inlineStr"/>
-      <c r="V132" t="inlineStr"/>
-      <c r="W132" t="inlineStr"/>
-      <c r="X132" t="inlineStr"/>
-      <c r="Y132" t="inlineStr"/>
-      <c r="Z132" t="inlineStr"/>
       <c r="AA132" t="n">
         <v>0</v>
       </c>
@@ -20719,12 +19636,6 @@
       <c r="AN132" t="n">
         <v>0.04999999999999993</v>
       </c>
-      <c r="AO132" t="inlineStr"/>
-      <c r="AP132" t="inlineStr"/>
-      <c r="AQ132" t="inlineStr"/>
-      <c r="AR132" t="inlineStr"/>
-      <c r="AS132" t="inlineStr"/>
-      <c r="AT132" t="inlineStr"/>
       <c r="AU132" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -20784,7 +19695,6 @@
           <t>DPWH (Batch 2)</t>
         </is>
       </c>
-      <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -20793,17 +19703,6 @@
       <c r="O133" t="n">
         <v>1</v>
       </c>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="inlineStr"/>
-      <c r="T133" t="inlineStr"/>
-      <c r="U133" t="inlineStr"/>
-      <c r="V133" t="inlineStr"/>
-      <c r="W133" t="inlineStr"/>
-      <c r="X133" t="inlineStr"/>
-      <c r="Y133" t="inlineStr"/>
-      <c r="Z133" t="inlineStr"/>
       <c r="AA133" t="n">
         <v>0</v>
       </c>
@@ -20846,14 +19745,9 @@
       <c r="AN133" t="n">
         <v>0</v>
       </c>
-      <c r="AO133" t="inlineStr"/>
       <c r="AP133" t="n">
         <v>10.24</v>
       </c>
-      <c r="AQ133" t="inlineStr"/>
-      <c r="AR133" t="inlineStr"/>
-      <c r="AS133" t="inlineStr"/>
-      <c r="AT133" t="inlineStr"/>
       <c r="AU133" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -20913,7 +19807,6 @@
           <t>DPWH (Batch 2)</t>
         </is>
       </c>
-      <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -20922,17 +19815,6 @@
       <c r="O134" t="n">
         <v>1</v>
       </c>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="inlineStr"/>
-      <c r="T134" t="inlineStr"/>
-      <c r="U134" t="inlineStr"/>
-      <c r="V134" t="inlineStr"/>
-      <c r="W134" t="inlineStr"/>
-      <c r="X134" t="inlineStr"/>
-      <c r="Y134" t="inlineStr"/>
-      <c r="Z134" t="inlineStr"/>
       <c r="AA134" t="n">
         <v>0</v>
       </c>
@@ -20975,14 +19857,9 @@
       <c r="AN134" t="n">
         <v>0.05000000000000004</v>
       </c>
-      <c r="AO134" t="inlineStr"/>
       <c r="AP134" t="n">
         <v>5.25</v>
       </c>
-      <c r="AQ134" t="inlineStr"/>
-      <c r="AR134" t="inlineStr"/>
-      <c r="AS134" t="inlineStr"/>
-      <c r="AT134" t="inlineStr"/>
       <c r="AU134" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -21042,7 +19919,6 @@
           <t>DPWH (Batch 2)</t>
         </is>
       </c>
-      <c r="M135" t="inlineStr"/>
       <c r="N135" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -21051,17 +19927,6 @@
       <c r="O135" t="n">
         <v>1</v>
       </c>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="inlineStr"/>
-      <c r="T135" t="inlineStr"/>
-      <c r="U135" t="inlineStr"/>
-      <c r="V135" t="inlineStr"/>
-      <c r="W135" t="inlineStr"/>
-      <c r="X135" t="inlineStr"/>
-      <c r="Y135" t="inlineStr"/>
-      <c r="Z135" t="inlineStr"/>
       <c r="AA135" t="n">
         <v>0</v>
       </c>
@@ -21104,14 +19969,9 @@
       <c r="AN135" t="n">
         <v>0</v>
       </c>
-      <c r="AO135" t="inlineStr"/>
       <c r="AP135" t="n">
         <v>10.24</v>
       </c>
-      <c r="AQ135" t="inlineStr"/>
-      <c r="AR135" t="inlineStr"/>
-      <c r="AS135" t="inlineStr"/>
-      <c r="AT135" t="inlineStr"/>
       <c r="AU135" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -21171,7 +20031,6 @@
           <t>DPWH (Batch 2)</t>
         </is>
       </c>
-      <c r="M136" t="inlineStr"/>
       <c r="N136" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -21180,17 +20039,6 @@
       <c r="O136" t="n">
         <v>1</v>
       </c>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="inlineStr"/>
-      <c r="T136" t="inlineStr"/>
-      <c r="U136" t="inlineStr"/>
-      <c r="V136" t="inlineStr"/>
-      <c r="W136" t="inlineStr"/>
-      <c r="X136" t="inlineStr"/>
-      <c r="Y136" t="inlineStr"/>
-      <c r="Z136" t="inlineStr"/>
       <c r="AA136" t="n">
         <v>0</v>
       </c>
@@ -21233,14 +20081,9 @@
       <c r="AN136" t="n">
         <v>0</v>
       </c>
-      <c r="AO136" t="inlineStr"/>
       <c r="AP136" t="n">
         <v>10.24</v>
       </c>
-      <c r="AQ136" t="inlineStr"/>
-      <c r="AR136" t="inlineStr"/>
-      <c r="AS136" t="inlineStr"/>
-      <c r="AT136" t="inlineStr"/>
       <c r="AU136" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -21300,7 +20143,6 @@
           <t>DPWH (Batch 2)</t>
         </is>
       </c>
-      <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -21309,17 +20151,6 @@
       <c r="O137" t="n">
         <v>1</v>
       </c>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="inlineStr"/>
-      <c r="T137" t="inlineStr"/>
-      <c r="U137" t="inlineStr"/>
-      <c r="V137" t="inlineStr"/>
-      <c r="W137" t="inlineStr"/>
-      <c r="X137" t="inlineStr"/>
-      <c r="Y137" t="inlineStr"/>
-      <c r="Z137" t="inlineStr"/>
       <c r="AA137" t="n">
         <v>0</v>
       </c>
@@ -21362,14 +20193,9 @@
       <c r="AN137" t="n">
         <v>0</v>
       </c>
-      <c r="AO137" t="inlineStr"/>
       <c r="AP137" t="n">
         <v>10.24</v>
       </c>
-      <c r="AQ137" t="inlineStr"/>
-      <c r="AR137" t="inlineStr"/>
-      <c r="AS137" t="inlineStr"/>
-      <c r="AT137" t="inlineStr"/>
       <c r="AU137" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -21429,7 +20255,6 @@
           <t>DPWH (Batch 2)</t>
         </is>
       </c>
-      <c r="M138" t="inlineStr"/>
       <c r="N138" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -21438,17 +20263,6 @@
       <c r="O138" t="n">
         <v>1</v>
       </c>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="inlineStr"/>
-      <c r="T138" t="inlineStr"/>
-      <c r="U138" t="inlineStr"/>
-      <c r="V138" t="inlineStr"/>
-      <c r="W138" t="inlineStr"/>
-      <c r="X138" t="inlineStr"/>
-      <c r="Y138" t="inlineStr"/>
-      <c r="Z138" t="inlineStr"/>
       <c r="AA138" t="n">
         <v>0</v>
       </c>
@@ -21491,14 +20305,9 @@
       <c r="AN138" t="n">
         <v>0</v>
       </c>
-      <c r="AO138" t="inlineStr"/>
       <c r="AP138" t="n">
         <v>10.24</v>
       </c>
-      <c r="AQ138" t="inlineStr"/>
-      <c r="AR138" t="inlineStr"/>
-      <c r="AS138" t="inlineStr"/>
-      <c r="AT138" t="inlineStr"/>
       <c r="AU138" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -21558,7 +20367,6 @@
           <t>DPWH (Batch 2)</t>
         </is>
       </c>
-      <c r="M139" t="inlineStr"/>
       <c r="N139" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -21567,17 +20375,6 @@
       <c r="O139" t="n">
         <v>1</v>
       </c>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="inlineStr"/>
-      <c r="T139" t="inlineStr"/>
-      <c r="U139" t="inlineStr"/>
-      <c r="V139" t="inlineStr"/>
-      <c r="W139" t="inlineStr"/>
-      <c r="X139" t="inlineStr"/>
-      <c r="Y139" t="inlineStr"/>
-      <c r="Z139" t="inlineStr"/>
       <c r="AA139" t="n">
         <v>0</v>
       </c>
@@ -21620,14 +20417,9 @@
       <c r="AN139" t="n">
         <v>0</v>
       </c>
-      <c r="AO139" t="inlineStr"/>
       <c r="AP139" t="n">
         <v>10.24</v>
       </c>
-      <c r="AQ139" t="inlineStr"/>
-      <c r="AR139" t="inlineStr"/>
-      <c r="AS139" t="inlineStr"/>
-      <c r="AT139" t="inlineStr"/>
       <c r="AU139" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -21795,14 +20587,9 @@
       <c r="AN140" t="n">
         <v>0</v>
       </c>
-      <c r="AO140" t="inlineStr"/>
       <c r="AP140" t="n">
         <v>4.25</v>
       </c>
-      <c r="AQ140" t="inlineStr"/>
-      <c r="AR140" t="inlineStr"/>
-      <c r="AS140" t="inlineStr"/>
-      <c r="AT140" t="inlineStr"/>
       <c r="AU140" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -21871,7 +20658,7 @@
       <c r="O141" t="n">
         <v>1</v>
       </c>
-      <c r="P141" s="2" t="n">
+      <c r="P141" s="3" t="n">
         <v>45741</v>
       </c>
       <c r="Q141" t="inlineStr">
@@ -21919,7 +20706,6 @@
           <t>CPAN Engineering and Enterprises</t>
         </is>
       </c>
-      <c r="Z141" t="inlineStr"/>
       <c r="AA141" t="n">
         <v>0</v>
       </c>
@@ -21962,14 +20748,9 @@
       <c r="AN141" t="n">
         <v>0</v>
       </c>
-      <c r="AO141" t="inlineStr"/>
       <c r="AP141" t="n">
         <v>4.25</v>
       </c>
-      <c r="AQ141" t="inlineStr"/>
-      <c r="AR141" t="inlineStr"/>
-      <c r="AS141" t="inlineStr"/>
-      <c r="AT141" t="inlineStr"/>
       <c r="AU141" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -22137,12 +20918,6 @@
       <c r="AN142" t="n">
         <v>0.05000000000000004</v>
       </c>
-      <c r="AO142" t="inlineStr"/>
-      <c r="AP142" t="inlineStr"/>
-      <c r="AQ142" t="inlineStr"/>
-      <c r="AR142" t="inlineStr"/>
-      <c r="AS142" t="inlineStr"/>
-      <c r="AT142" t="inlineStr"/>
       <c r="AU142" t="inlineStr">
         <is>
           <t>ongoing</t>
@@ -22310,12 +21085,6 @@
       <c r="AN143" t="n">
         <v>0.03000000000000003</v>
       </c>
-      <c r="AO143" t="inlineStr"/>
-      <c r="AP143" t="inlineStr"/>
-      <c r="AQ143" t="inlineStr"/>
-      <c r="AR143" t="inlineStr"/>
-      <c r="AS143" t="inlineStr"/>
-      <c r="AT143" t="inlineStr"/>
       <c r="AU143" t="inlineStr">
         <is>
           <t>ongoing</t>
@@ -22483,12 +21252,6 @@
       <c r="AN144" t="n">
         <v>0.02000000000000002</v>
       </c>
-      <c r="AO144" t="inlineStr"/>
-      <c r="AP144" t="inlineStr"/>
-      <c r="AQ144" t="inlineStr"/>
-      <c r="AR144" t="inlineStr"/>
-      <c r="AS144" t="inlineStr"/>
-      <c r="AT144" t="inlineStr"/>
       <c r="AU144" t="inlineStr">
         <is>
           <t>ongoing</t>
@@ -22577,19 +21340,19 @@
           <t>REPAIR 2024 - RIX - PAGADIAN CITY - 001</t>
         </is>
       </c>
-      <c r="T145" s="2" t="n">
+      <c r="T145" s="3" t="n">
         <v>45519</v>
       </c>
-      <c r="U145" s="2" t="n">
+      <c r="U145" s="3" t="n">
         <v>45527</v>
       </c>
-      <c r="V145" s="2" t="n">
+      <c r="V145" s="3" t="n">
         <v>45539</v>
       </c>
-      <c r="W145" s="2" t="n">
+      <c r="W145" s="3" t="n">
         <v>45558</v>
       </c>
-      <c r="X145" s="2" t="n">
+      <c r="X145" s="3" t="n">
         <v>45581</v>
       </c>
       <c r="Y145" t="inlineStr">
@@ -22644,7 +21407,6 @@
       <c r="AN145" t="n">
         <v>0</v>
       </c>
-      <c r="AO145" t="inlineStr"/>
       <c r="AP145" t="n">
         <v>3.25</v>
       </c>
@@ -22657,7 +21419,6 @@
       <c r="AS145" t="n">
         <v>5552640.82</v>
       </c>
-      <c r="AT145" t="inlineStr"/>
       <c r="AU145" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -22825,14 +21586,9 @@
       <c r="AN146" t="n">
         <v>0</v>
       </c>
-      <c r="AO146" t="inlineStr"/>
       <c r="AP146" t="n">
         <v>3.25</v>
       </c>
-      <c r="AQ146" t="inlineStr"/>
-      <c r="AR146" t="inlineStr"/>
-      <c r="AS146" t="inlineStr"/>
-      <c r="AT146" t="inlineStr"/>
       <c r="AU146" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -23000,12 +21756,6 @@
       <c r="AN147" t="n">
         <v>0.03000000000000003</v>
       </c>
-      <c r="AO147" t="inlineStr"/>
-      <c r="AP147" t="inlineStr"/>
-      <c r="AQ147" t="inlineStr"/>
-      <c r="AR147" t="inlineStr"/>
-      <c r="AS147" t="inlineStr"/>
-      <c r="AT147" t="inlineStr"/>
       <c r="AU147" t="inlineStr">
         <is>
           <t>ongoing</t>
@@ -23173,14 +21923,9 @@
       <c r="AN148" t="n">
         <v>0</v>
       </c>
-      <c r="AO148" t="inlineStr"/>
       <c r="AP148" t="n">
         <v>4.25</v>
       </c>
-      <c r="AQ148" t="inlineStr"/>
-      <c r="AR148" t="inlineStr"/>
-      <c r="AS148" t="inlineStr"/>
-      <c r="AT148" t="inlineStr"/>
       <c r="AU148" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -23346,14 +22091,9 @@
       <c r="AN149" t="n">
         <v>0</v>
       </c>
-      <c r="AO149" t="inlineStr"/>
       <c r="AP149" t="n">
         <v>1.25</v>
       </c>
-      <c r="AQ149" t="inlineStr"/>
-      <c r="AR149" t="inlineStr"/>
-      <c r="AS149" t="inlineStr"/>
-      <c r="AT149" t="inlineStr"/>
       <c r="AU149" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -23519,12 +22259,6 @@
       <c r="AN150" t="n">
         <v>0.05000000000000004</v>
       </c>
-      <c r="AO150" t="inlineStr"/>
-      <c r="AP150" t="inlineStr"/>
-      <c r="AQ150" t="inlineStr"/>
-      <c r="AR150" t="inlineStr"/>
-      <c r="AS150" t="inlineStr"/>
-      <c r="AT150" t="inlineStr"/>
       <c r="AU150" t="inlineStr">
         <is>
           <t>ongoing</t>
@@ -23690,14 +22424,9 @@
       <c r="AN151" t="n">
         <v>0</v>
       </c>
-      <c r="AO151" t="inlineStr"/>
       <c r="AP151" t="n">
         <v>1.25</v>
       </c>
-      <c r="AQ151" t="inlineStr"/>
-      <c r="AR151" t="inlineStr"/>
-      <c r="AS151" t="inlineStr"/>
-      <c r="AT151" t="inlineStr"/>
       <c r="AU151" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -23766,7 +22495,7 @@
       <c r="O152" t="n">
         <v>1</v>
       </c>
-      <c r="P152" s="2" t="n">
+      <c r="P152" s="3" t="n">
         <v>45675</v>
       </c>
       <c r="Q152" t="inlineStr">
@@ -23784,19 +22513,19 @@
           <t>ZDS-24-RR-02</t>
         </is>
       </c>
-      <c r="T152" s="2" t="n">
+      <c r="T152" s="3" t="n">
         <v>45462</v>
       </c>
-      <c r="U152" s="2" t="n">
+      <c r="U152" s="3" t="n">
         <v>45471</v>
       </c>
-      <c r="V152" s="2" t="n">
+      <c r="V152" s="3" t="n">
         <v>45483</v>
       </c>
-      <c r="W152" s="2" t="n">
+      <c r="W152" s="3" t="n">
         <v>45489</v>
       </c>
-      <c r="X152" s="2" t="n">
+      <c r="X152" s="3" t="n">
         <v>45548</v>
       </c>
       <c r="Y152" t="inlineStr">
@@ -23851,14 +22580,9 @@
       <c r="AN152" t="n">
         <v>0</v>
       </c>
-      <c r="AO152" t="inlineStr"/>
       <c r="AP152" t="n">
         <v>1.25</v>
       </c>
-      <c r="AQ152" t="inlineStr"/>
-      <c r="AR152" t="inlineStr"/>
-      <c r="AS152" t="inlineStr"/>
-      <c r="AT152" t="inlineStr"/>
       <c r="AU152" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -23927,7 +22651,7 @@
       <c r="O153" t="n">
         <v>1</v>
       </c>
-      <c r="P153" s="2" t="n">
+      <c r="P153" s="3" t="n">
         <v>45645</v>
       </c>
       <c r="Q153" t="inlineStr">
@@ -23945,19 +22669,19 @@
           <t>ZDS-24-RR-01</t>
         </is>
       </c>
-      <c r="T153" s="2" t="n">
+      <c r="T153" s="3" t="n">
         <v>45462</v>
       </c>
-      <c r="U153" s="2" t="n">
+      <c r="U153" s="3" t="n">
         <v>45471</v>
       </c>
-      <c r="V153" s="2" t="n">
+      <c r="V153" s="3" t="n">
         <v>45483</v>
       </c>
-      <c r="W153" s="2" t="n">
+      <c r="W153" s="3" t="n">
         <v>45489</v>
       </c>
-      <c r="X153" s="2" t="n">
+      <c r="X153" s="3" t="n">
         <v>45548</v>
       </c>
       <c r="Y153" t="inlineStr">
@@ -24012,14 +22736,9 @@
       <c r="AN153" t="n">
         <v>0</v>
       </c>
-      <c r="AO153" t="inlineStr"/>
       <c r="AP153" t="n">
         <v>1.25</v>
       </c>
-      <c r="AQ153" t="inlineStr"/>
-      <c r="AR153" t="inlineStr"/>
-      <c r="AS153" t="inlineStr"/>
-      <c r="AT153" t="inlineStr"/>
       <c r="AU153" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -24088,7 +22807,7 @@
       <c r="O154" t="n">
         <v>1</v>
       </c>
-      <c r="P154" s="2" t="n">
+      <c r="P154" s="3" t="n">
         <v>45675</v>
       </c>
       <c r="Q154" t="inlineStr">
@@ -24106,19 +22825,19 @@
           <t>ZDS-24-RR-03</t>
         </is>
       </c>
-      <c r="T154" s="2" t="n">
+      <c r="T154" s="3" t="n">
         <v>45462</v>
       </c>
-      <c r="U154" s="2" t="n">
+      <c r="U154" s="3" t="n">
         <v>45471</v>
       </c>
-      <c r="V154" s="2" t="n">
+      <c r="V154" s="3" t="n">
         <v>45483</v>
       </c>
-      <c r="W154" s="2" t="n">
+      <c r="W154" s="3" t="n">
         <v>45489</v>
       </c>
-      <c r="X154" s="2" t="n">
+      <c r="X154" s="3" t="n">
         <v>45548</v>
       </c>
       <c r="Y154" t="inlineStr">
@@ -24173,14 +22892,9 @@
       <c r="AN154" t="n">
         <v>0</v>
       </c>
-      <c r="AO154" t="inlineStr"/>
       <c r="AP154" t="n">
         <v>1.25</v>
       </c>
-      <c r="AQ154" t="inlineStr"/>
-      <c r="AR154" t="inlineStr"/>
-      <c r="AS154" t="inlineStr"/>
-      <c r="AT154" t="inlineStr"/>
       <c r="AU154" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -24346,12 +23060,6 @@
       <c r="AN155" t="n">
         <v>0.25</v>
       </c>
-      <c r="AO155" t="inlineStr"/>
-      <c r="AP155" t="inlineStr"/>
-      <c r="AQ155" t="inlineStr"/>
-      <c r="AR155" t="inlineStr"/>
-      <c r="AS155" t="inlineStr"/>
-      <c r="AT155" t="inlineStr"/>
       <c r="AU155" t="inlineStr">
         <is>
           <t>ongoing</t>
@@ -24517,12 +23225,6 @@
       <c r="AN156" t="n">
         <v>0.45</v>
       </c>
-      <c r="AO156" t="inlineStr"/>
-      <c r="AP156" t="inlineStr"/>
-      <c r="AQ156" t="inlineStr"/>
-      <c r="AR156" t="inlineStr"/>
-      <c r="AS156" t="inlineStr"/>
-      <c r="AT156" t="inlineStr"/>
       <c r="AU156" t="inlineStr">
         <is>
           <t>ongoing</t>
@@ -24688,15 +23390,82 @@
       <c r="AN157" t="n">
         <v>0.35</v>
       </c>
-      <c r="AO157" t="inlineStr"/>
-      <c r="AP157" t="inlineStr"/>
-      <c r="AQ157" t="inlineStr"/>
-      <c r="AR157" t="inlineStr"/>
-      <c r="AS157" t="inlineStr"/>
-      <c r="AT157" t="inlineStr"/>
       <c r="AU157" t="inlineStr">
         <is>
           <t>ongoing</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="AV2:AV157" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>76% - 90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>

--- a/Filtered_By_Region/Region IX/Region IX_REPAIR.xlsx
+++ b/Filtered_By_Region/Region IX/Region IX_REPAIR.xlsx
@@ -776,47 +776,8 @@
           <t>MORTE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0</v>
-      </c>
       <c r="AM2" t="n">
         <v>1</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
@@ -925,47 +886,8 @@
           <t>MORTE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
       <c r="AM3" t="n">
         <v>1</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
@@ -1074,47 +996,8 @@
           <t>MORTE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0</v>
-      </c>
       <c r="AM4" t="n">
         <v>1</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0</v>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
@@ -1223,47 +1106,8 @@
           <t>MORTE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0</v>
-      </c>
       <c r="AM5" t="n">
         <v>1</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0</v>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
@@ -1372,47 +1216,8 @@
           <t>Stars and Stripes Construction</t>
         </is>
       </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0</v>
-      </c>
       <c r="AM6" t="n">
         <v>1</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>0</v>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
@@ -1521,47 +1326,8 @@
           <t>RGS Construction</t>
         </is>
       </c>
-      <c r="AA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>0</v>
-      </c>
       <c r="AM7" t="n">
         <v>1</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>0</v>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
@@ -1631,47 +1397,8 @@
       <c r="O8" t="n">
         <v>1</v>
       </c>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>0</v>
-      </c>
       <c r="AM8" t="n">
         <v>1</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>0</v>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
@@ -1741,47 +1468,8 @@
       <c r="O9" t="n">
         <v>1</v>
       </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0</v>
-      </c>
       <c r="AM9" t="n">
         <v>1</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>0</v>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
@@ -1851,47 +1539,8 @@
       <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>0</v>
-      </c>
       <c r="AM10" t="n">
         <v>1</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>0</v>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
@@ -1961,47 +1610,8 @@
       <c r="O11" t="n">
         <v>1</v>
       </c>
-      <c r="AA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>0</v>
-      </c>
       <c r="AM11" t="n">
         <v>1</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>0</v>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
@@ -2110,47 +1720,8 @@
           <t>ARADEL CONST. &amp; SUPPLIES</t>
         </is>
       </c>
-      <c r="AA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>0</v>
-      </c>
       <c r="AM12" t="n">
         <v>1</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>0</v>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
@@ -2259,47 +1830,8 @@
           <t>ARADEL CONST. &amp; SUPPLIES</t>
         </is>
       </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>0</v>
-      </c>
       <c r="AM13" t="n">
         <v>1</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>0</v>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
@@ -2408,47 +1940,8 @@
           <t>JZ MAGO CONST. &amp; ENTERPRISES</t>
         </is>
       </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>0</v>
-      </c>
       <c r="AM14" t="n">
         <v>1</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>0</v>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
@@ -2557,47 +2050,8 @@
           <t>ARADEL CONST. &amp; SUPPLIES</t>
         </is>
       </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>0</v>
-      </c>
       <c r="AM15" t="n">
         <v>1</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>0</v>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
@@ -2706,47 +2160,8 @@
           <t>JZ MAGO CONST. &amp; ENTERPRISES</t>
         </is>
       </c>
-      <c r="AA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>0</v>
-      </c>
       <c r="AM16" t="n">
         <v>1</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>0</v>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
@@ -2855,47 +2270,8 @@
           <t>JZ MAGO CONST. &amp; ENTERPRISES</t>
         </is>
       </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>0</v>
-      </c>
       <c r="AM17" t="n">
         <v>1</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>0</v>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
@@ -3004,47 +2380,8 @@
           <t>ALIÑAB CONST. &amp; SUPPLIES</t>
         </is>
       </c>
-      <c r="AA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>0</v>
-      </c>
       <c r="AM18" t="n">
         <v>1</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>0</v>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
@@ -3165,47 +2502,8 @@
           <t>JM2K CONSTUCTION</t>
         </is>
       </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>0</v>
-      </c>
       <c r="AM19" t="n">
         <v>1</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>0</v>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
@@ -3326,47 +2624,8 @@
           <t>MMP CONSTRUCTION  AND SUPPLIES</t>
         </is>
       </c>
-      <c r="AA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>0</v>
-      </c>
       <c r="AM20" t="n">
         <v>1</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>0</v>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
@@ -3487,47 +2746,8 @@
           <t>ZAMBOANGA 3VC CONSTRUCTION, INC.</t>
         </is>
       </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>0</v>
-      </c>
       <c r="AM21" t="n">
         <v>1</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>0</v>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
@@ -3648,47 +2868,8 @@
           <t>IYADA BUILDERS AND ENTERPRISES</t>
         </is>
       </c>
-      <c r="AA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>0</v>
-      </c>
       <c r="AM22" t="n">
         <v>1</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>0</v>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
@@ -3809,47 +2990,8 @@
           <t>IYADA BUILDERS AND ENTERPRISES</t>
         </is>
       </c>
-      <c r="AA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>0</v>
-      </c>
       <c r="AM23" t="n">
         <v>1</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>0</v>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
@@ -3970,47 +3112,8 @@
           <t>ZAMBOANGA 3VC CONSTRUCTION, INC.</t>
         </is>
       </c>
-      <c r="AA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>0</v>
-      </c>
       <c r="AM24" t="n">
         <v>1</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>0</v>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
@@ -4131,47 +3234,8 @@
           <t>HIGH RISER CONSTRUCTION AND TRADING</t>
         </is>
       </c>
-      <c r="AA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>0</v>
-      </c>
       <c r="AM25" t="n">
         <v>1</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>0</v>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
@@ -4292,47 +3356,8 @@
           <t>ZAMBOANGA 3VC CONSTRUCTION, INC.</t>
         </is>
       </c>
-      <c r="AA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>0</v>
-      </c>
       <c r="AM26" t="n">
         <v>1</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>0</v>
       </c>
       <c r="AP26" t="inlineStr">
         <is>
@@ -4453,47 +3478,8 @@
           <t>HIGH RISER CONSTRUCTION AND TRADING</t>
         </is>
       </c>
-      <c r="AA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>0</v>
-      </c>
       <c r="AM27" t="n">
         <v>1</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>0</v>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
@@ -4614,47 +3600,8 @@
           <t>SK PATH CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>0</v>
-      </c>
       <c r="AM28" t="n">
         <v>1</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>0</v>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
@@ -4762,47 +3709,8 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="AA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>0</v>
-      </c>
       <c r="AM29" t="n">
         <v>1</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>0</v>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
@@ -4910,47 +3818,8 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="AA30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>0</v>
-      </c>
       <c r="AM30" t="n">
         <v>1</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>0</v>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
@@ -5058,47 +3927,8 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="AA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>0</v>
-      </c>
       <c r="AM31" t="n">
         <v>1</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>0</v>
       </c>
       <c r="AP31" t="inlineStr">
         <is>
@@ -5206,47 +4036,8 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="AA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>0</v>
-      </c>
       <c r="AM32" t="n">
         <v>1</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>0</v>
       </c>
       <c r="AP32" t="inlineStr">
         <is>
@@ -5354,47 +4145,8 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="AA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>0</v>
-      </c>
       <c r="AM33" t="n">
         <v>1</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>0</v>
       </c>
       <c r="AP33" t="inlineStr">
         <is>
@@ -5502,47 +4254,8 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="AA34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>0</v>
-      </c>
       <c r="AM34" t="n">
         <v>1</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>0</v>
       </c>
       <c r="AP34" t="inlineStr">
         <is>
@@ -5650,47 +4363,8 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="AA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>0</v>
-      </c>
       <c r="AM35" t="n">
         <v>1</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>0</v>
       </c>
       <c r="AP35" t="inlineStr">
         <is>
@@ -5798,47 +4472,8 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="AA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>0</v>
-      </c>
       <c r="AM36" t="n">
         <v>1</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>0</v>
       </c>
       <c r="AP36" t="inlineStr">
         <is>
@@ -5946,47 +4581,8 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="AA37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>0</v>
-      </c>
       <c r="AM37" t="n">
         <v>1</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>0</v>
       </c>
       <c r="AP37" t="inlineStr">
         <is>
@@ -6094,47 +4690,8 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="AA38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>0</v>
-      </c>
       <c r="AM38" t="n">
         <v>1</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>0</v>
       </c>
       <c r="AP38" t="inlineStr">
         <is>
@@ -6242,47 +4799,8 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="AA39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>0</v>
-      </c>
       <c r="AM39" t="n">
         <v>1</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>0</v>
       </c>
       <c r="AP39" t="inlineStr">
         <is>
@@ -6390,47 +4908,8 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="AA40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>0</v>
-      </c>
       <c r="AM40" t="n">
         <v>1</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>0</v>
       </c>
       <c r="AP40" t="inlineStr">
         <is>
@@ -6538,47 +5017,8 @@
           <t>CPAN ENGINEERING</t>
         </is>
       </c>
-      <c r="AA41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>0</v>
-      </c>
       <c r="AM41" t="n">
         <v>1</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>0</v>
       </c>
       <c r="AP41" t="inlineStr">
         <is>
@@ -6686,47 +5126,8 @@
           <t>CPAN ENGINEERING</t>
         </is>
       </c>
-      <c r="AA42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>0</v>
-      </c>
       <c r="AM42" t="n">
         <v>1</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>0</v>
       </c>
       <c r="AP42" t="inlineStr">
         <is>
@@ -6834,47 +5235,8 @@
           <t>CPAN ENGINEERING</t>
         </is>
       </c>
-      <c r="AA43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>0</v>
-      </c>
       <c r="AM43" t="n">
         <v>1</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>0</v>
       </c>
       <c r="AP43" t="inlineStr">
         <is>
@@ -6982,47 +5344,8 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="AA44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>0</v>
-      </c>
       <c r="AM44" t="n">
         <v>1</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>0</v>
       </c>
       <c r="AP44" t="inlineStr">
         <is>
@@ -7130,47 +5453,8 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="AA45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>0</v>
-      </c>
       <c r="AM45" t="n">
         <v>1</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>0</v>
       </c>
       <c r="AP45" t="inlineStr">
         <is>
@@ -7278,47 +5562,8 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="AA46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>0</v>
-      </c>
       <c r="AM46" t="n">
         <v>1</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>0</v>
       </c>
       <c r="AP46" t="inlineStr">
         <is>
@@ -7426,47 +5671,8 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="AA47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>0</v>
-      </c>
       <c r="AM47" t="n">
         <v>1</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>0</v>
       </c>
       <c r="AP47" t="inlineStr">
         <is>
@@ -7574,47 +5780,8 @@
           <t>CPAN ENGINEERING</t>
         </is>
       </c>
-      <c r="AA48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>0</v>
-      </c>
       <c r="AM48" t="n">
         <v>1</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>0</v>
       </c>
       <c r="AP48" t="inlineStr">
         <is>
@@ -7722,47 +5889,8 @@
           <t>CPAN ENGINEERING</t>
         </is>
       </c>
-      <c r="AA49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>0</v>
-      </c>
       <c r="AM49" t="n">
         <v>1</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>0</v>
       </c>
       <c r="AP49" t="inlineStr">
         <is>
@@ -7870,47 +5998,8 @@
           <t>CPAN ENGINEERING</t>
         </is>
       </c>
-      <c r="AA50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL50" t="n">
-        <v>0</v>
-      </c>
       <c r="AM50" t="n">
         <v>1</v>
-      </c>
-      <c r="AN50" t="n">
-        <v>0</v>
       </c>
       <c r="AP50" t="inlineStr">
         <is>
@@ -8018,47 +6107,8 @@
           <t>CPAN ENGINEERING</t>
         </is>
       </c>
-      <c r="AA51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL51" t="n">
-        <v>0</v>
-      </c>
       <c r="AM51" t="n">
         <v>1</v>
-      </c>
-      <c r="AN51" t="n">
-        <v>0</v>
       </c>
       <c r="AP51" t="inlineStr">
         <is>
@@ -8167,47 +6217,8 @@
           <t>AC DEMONI CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL52" t="n">
-        <v>0</v>
-      </c>
       <c r="AM52" t="n">
         <v>1</v>
-      </c>
-      <c r="AN52" t="n">
-        <v>0</v>
       </c>
       <c r="AP52" t="inlineStr">
         <is>
@@ -8316,47 +6327,8 @@
           <t>CPIN BUILDERS</t>
         </is>
       </c>
-      <c r="AA53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL53" t="n">
-        <v>0</v>
-      </c>
       <c r="AM53" t="n">
         <v>1</v>
-      </c>
-      <c r="AN53" t="n">
-        <v>0</v>
       </c>
       <c r="AP53" t="inlineStr">
         <is>
@@ -8465,47 +6437,8 @@
           <t>CHIOCO BUILDERS AND SUPPLIES</t>
         </is>
       </c>
-      <c r="AA54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL54" t="n">
-        <v>0</v>
-      </c>
       <c r="AM54" t="n">
         <v>1</v>
-      </c>
-      <c r="AN54" t="n">
-        <v>0</v>
       </c>
       <c r="AP54" t="inlineStr">
         <is>
@@ -8614,47 +6547,8 @@
           <t>JOCODZ CONSTRUCTION AND SUPPLIES</t>
         </is>
       </c>
-      <c r="AA55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ55" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL55" t="n">
-        <v>0</v>
-      </c>
       <c r="AM55" t="n">
         <v>1</v>
-      </c>
-      <c r="AN55" t="n">
-        <v>0</v>
       </c>
       <c r="AP55" t="inlineStr">
         <is>
@@ -8763,47 +6657,8 @@
           <t>JOCODZ CONSTRUCTION AND SUPPLIES</t>
         </is>
       </c>
-      <c r="AA56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ56" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL56" t="n">
-        <v>0</v>
-      </c>
       <c r="AM56" t="n">
         <v>1</v>
-      </c>
-      <c r="AN56" t="n">
-        <v>0</v>
       </c>
       <c r="AP56" t="inlineStr">
         <is>
@@ -8912,47 +6767,8 @@
           <t>CPIN BUILDERS</t>
         </is>
       </c>
-      <c r="AA57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ57" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL57" t="n">
-        <v>0</v>
-      </c>
       <c r="AM57" t="n">
         <v>1</v>
-      </c>
-      <c r="AN57" t="n">
-        <v>0</v>
       </c>
       <c r="AP57" t="inlineStr">
         <is>
@@ -9061,47 +6877,8 @@
           <t>JOCODZ CONSTRUCTION AND SUPPLIES</t>
         </is>
       </c>
-      <c r="AA58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL58" t="n">
-        <v>0</v>
-      </c>
       <c r="AM58" t="n">
         <v>1</v>
-      </c>
-      <c r="AN58" t="n">
-        <v>0</v>
       </c>
       <c r="AP58" t="inlineStr">
         <is>
@@ -9210,47 +6987,8 @@
           <t>AYUS BUILDERS AND ENTERPRISES</t>
         </is>
       </c>
-      <c r="AA59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE59" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ59" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL59" t="n">
-        <v>0</v>
-      </c>
       <c r="AM59" t="n">
         <v>1</v>
-      </c>
-      <c r="AN59" t="n">
-        <v>0</v>
       </c>
       <c r="AP59" t="inlineStr">
         <is>
@@ -9359,47 +7097,8 @@
           <t>AYUS BUILDERS AND ENTERPRISES</t>
         </is>
       </c>
-      <c r="AA60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ60" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL60" t="n">
-        <v>0</v>
-      </c>
       <c r="AM60" t="n">
         <v>1</v>
-      </c>
-      <c r="AN60" t="n">
-        <v>0</v>
       </c>
       <c r="AP60" t="inlineStr">
         <is>
@@ -9508,47 +7207,8 @@
           <t>ARADEL CONSTRUCTION AND SUPPLIES</t>
         </is>
       </c>
-      <c r="AA61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ61" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL61" t="n">
-        <v>0</v>
-      </c>
       <c r="AM61" t="n">
         <v>1</v>
-      </c>
-      <c r="AN61" t="n">
-        <v>0</v>
       </c>
       <c r="AP61" t="inlineStr">
         <is>
@@ -9657,47 +7317,8 @@
           <t>ARADEL CONSTRUCTION AND SUPPLIES</t>
         </is>
       </c>
-      <c r="AA62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE62" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ62" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL62" t="n">
-        <v>0</v>
-      </c>
       <c r="AM62" t="n">
         <v>1</v>
-      </c>
-      <c r="AN62" t="n">
-        <v>0</v>
       </c>
       <c r="AP62" t="inlineStr">
         <is>
@@ -9806,47 +7427,8 @@
           <t>CDTECH BUILDERS</t>
         </is>
       </c>
-      <c r="AA63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ63" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL63" t="n">
-        <v>0</v>
-      </c>
       <c r="AM63" t="n">
         <v>1</v>
-      </c>
-      <c r="AN63" t="n">
-        <v>0</v>
       </c>
       <c r="AP63" t="inlineStr">
         <is>
@@ -9955,47 +7537,8 @@
           <t>CDTECH BUILDERS</t>
         </is>
       </c>
-      <c r="AA64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ64" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL64" t="n">
-        <v>0</v>
-      </c>
       <c r="AM64" t="n">
         <v>1</v>
-      </c>
-      <c r="AN64" t="n">
-        <v>0</v>
       </c>
       <c r="AP64" t="inlineStr">
         <is>
@@ -10104,47 +7647,8 @@
           <t>A.M. TABAYAG BUILDERS</t>
         </is>
       </c>
-      <c r="AA65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ65" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL65" t="n">
-        <v>0</v>
-      </c>
       <c r="AM65" t="n">
         <v>1</v>
-      </c>
-      <c r="AN65" t="n">
-        <v>0</v>
       </c>
       <c r="AP65" t="inlineStr">
         <is>
@@ -10253,47 +7757,8 @@
           <t>A.M. TABAYAG BUILDERS</t>
         </is>
       </c>
-      <c r="AA66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL66" t="n">
-        <v>0</v>
-      </c>
       <c r="AM66" t="n">
         <v>1</v>
-      </c>
-      <c r="AN66" t="n">
-        <v>0</v>
       </c>
       <c r="AP66" t="inlineStr">
         <is>
@@ -10402,47 +7867,8 @@
           <t>KAYRO CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="AA67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE67" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ67" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL67" t="n">
-        <v>0</v>
-      </c>
       <c r="AM67" t="n">
         <v>1</v>
-      </c>
-      <c r="AN67" t="n">
-        <v>0</v>
       </c>
       <c r="AP67" t="inlineStr">
         <is>
@@ -10551,47 +7977,8 @@
           <t>KAYRO CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="AA68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE68" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ68" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL68" t="n">
-        <v>0</v>
-      </c>
       <c r="AM68" t="n">
         <v>1</v>
-      </c>
-      <c r="AN68" t="n">
-        <v>0</v>
       </c>
       <c r="AP68" t="inlineStr">
         <is>
@@ -10700,47 +8087,8 @@
           <t>DASSAN CONSTRUCTION AND SUPPLIES</t>
         </is>
       </c>
-      <c r="AA69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE69" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ69" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL69" t="n">
-        <v>0</v>
-      </c>
       <c r="AM69" t="n">
         <v>1</v>
-      </c>
-      <c r="AN69" t="n">
-        <v>0</v>
       </c>
       <c r="AP69" t="inlineStr">
         <is>
@@ -10849,47 +8197,8 @@
           <t>DASSAN CONSTRUCTION AND SUPPLIES</t>
         </is>
       </c>
-      <c r="AA70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ70" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL70" t="n">
-        <v>0</v>
-      </c>
       <c r="AM70" t="n">
         <v>1</v>
-      </c>
-      <c r="AN70" t="n">
-        <v>0</v>
       </c>
       <c r="AP70" t="inlineStr">
         <is>
@@ -10998,47 +8307,8 @@
           <t>MS CONSTRUCTION AND MARKETING</t>
         </is>
       </c>
-      <c r="AA71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE71" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ71" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL71" t="n">
-        <v>0</v>
-      </c>
       <c r="AM71" t="n">
         <v>1</v>
-      </c>
-      <c r="AN71" t="n">
-        <v>0</v>
       </c>
       <c r="AP71" t="inlineStr">
         <is>
@@ -11147,47 +8417,8 @@
           <t>MS CONSTRUCTION AND MARKETING</t>
         </is>
       </c>
-      <c r="AA72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ72" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL72" t="n">
-        <v>0</v>
-      </c>
       <c r="AM72" t="n">
         <v>1</v>
-      </c>
-      <c r="AN72" t="n">
-        <v>0</v>
       </c>
       <c r="AP72" t="inlineStr">
         <is>
@@ -11305,47 +8536,8 @@
           <t>WAITING FOR SARO RELEASE</t>
         </is>
       </c>
-      <c r="AA73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE73" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ73" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL73" t="n">
-        <v>0</v>
-      </c>
       <c r="AM73" t="n">
         <v>1</v>
-      </c>
-      <c r="AN73" t="n">
-        <v>0</v>
       </c>
       <c r="AP73" t="inlineStr">
         <is>
@@ -11463,47 +8655,8 @@
           <t>WAITING FOR SARO RELEASE</t>
         </is>
       </c>
-      <c r="AA74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE74" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ74" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL74" t="n">
-        <v>0</v>
-      </c>
       <c r="AM74" t="n">
         <v>1</v>
-      </c>
-      <c r="AN74" t="n">
-        <v>0</v>
       </c>
       <c r="AP74" t="inlineStr">
         <is>
@@ -11621,47 +8774,8 @@
           <t>WAITING FOR SARO RELEASE</t>
         </is>
       </c>
-      <c r="AA75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE75" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ75" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL75" t="n">
-        <v>0</v>
-      </c>
       <c r="AM75" t="n">
         <v>1</v>
-      </c>
-      <c r="AN75" t="n">
-        <v>0</v>
       </c>
       <c r="AP75" t="inlineStr">
         <is>
@@ -11779,47 +8893,8 @@
           <t>WAITING FOR SARO RELEASE</t>
         </is>
       </c>
-      <c r="AA76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE76" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ76" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL76" t="n">
-        <v>0</v>
-      </c>
       <c r="AM76" t="n">
         <v>1</v>
-      </c>
-      <c r="AN76" t="n">
-        <v>0</v>
       </c>
       <c r="AP76" t="inlineStr">
         <is>
@@ -11937,47 +9012,8 @@
           <t>WAITING FOR SARO RELEASE</t>
         </is>
       </c>
-      <c r="AA77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE77" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ77" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL77" t="n">
-        <v>0</v>
-      </c>
       <c r="AM77" t="n">
         <v>1</v>
-      </c>
-      <c r="AN77" t="n">
-        <v>0</v>
       </c>
       <c r="AP77" t="inlineStr">
         <is>
@@ -12086,47 +9122,8 @@
           <t>MORTE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE78" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ78" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL78" t="n">
-        <v>0</v>
-      </c>
       <c r="AM78" t="n">
         <v>1</v>
-      </c>
-      <c r="AN78" t="n">
-        <v>0</v>
       </c>
       <c r="AO78" t="n">
         <v>0</v>
@@ -12238,47 +9235,8 @@
           <t>MORTE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ79" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL79" t="n">
-        <v>0</v>
-      </c>
       <c r="AM79" t="n">
         <v>1</v>
-      </c>
-      <c r="AN79" t="n">
-        <v>0</v>
       </c>
       <c r="AO79" t="n">
         <v>0</v>
@@ -12389,47 +9347,8 @@
           <t>NGP Construction</t>
         </is>
       </c>
-      <c r="AA80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE80" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ80" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL80" t="n">
-        <v>0</v>
-      </c>
       <c r="AM80" t="n">
         <v>1</v>
-      </c>
-      <c r="AN80" t="n">
-        <v>0</v>
       </c>
       <c r="AO80" t="n">
         <v>0</v>
@@ -12502,47 +9421,8 @@
       <c r="O81" t="n">
         <v>1</v>
       </c>
-      <c r="AA81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE81" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ81" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL81" t="n">
-        <v>0</v>
-      </c>
       <c r="AM81" t="n">
         <v>1</v>
-      </c>
-      <c r="AN81" t="n">
-        <v>0</v>
       </c>
       <c r="AO81" t="n">
         <v>0</v>
@@ -12615,47 +9495,8 @@
       <c r="O82" t="n">
         <v>1</v>
       </c>
-      <c r="AA82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE82" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ82" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL82" t="n">
-        <v>0</v>
-      </c>
       <c r="AM82" t="n">
         <v>1</v>
-      </c>
-      <c r="AN82" t="n">
-        <v>0</v>
       </c>
       <c r="AO82" t="n">
         <v>0</v>
@@ -12767,47 +9608,8 @@
           <t>JZ MAGO CONST. &amp; ENTERPRISES</t>
         </is>
       </c>
-      <c r="AA83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE83" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ83" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL83" t="n">
-        <v>0</v>
-      </c>
       <c r="AM83" t="n">
         <v>1</v>
-      </c>
-      <c r="AN83" t="n">
-        <v>0</v>
       </c>
       <c r="AO83" t="n">
         <v>0</v>
@@ -12919,47 +9721,8 @@
           <t>JZ MAGO CONST. &amp; ENTERPRISES</t>
         </is>
       </c>
-      <c r="AA84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE84" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ84" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL84" t="n">
-        <v>0</v>
-      </c>
       <c r="AM84" t="n">
         <v>1</v>
-      </c>
-      <c r="AN84" t="n">
-        <v>0</v>
       </c>
       <c r="AO84" t="n">
         <v>0</v>
@@ -13085,47 +9848,8 @@
           <t>PM CONSTRUCTION AND TRADING</t>
         </is>
       </c>
-      <c r="AA85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE85" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ85" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL85" t="n">
-        <v>0</v>
-      </c>
       <c r="AM85" t="n">
         <v>1</v>
-      </c>
-      <c r="AN85" t="n">
-        <v>0</v>
       </c>
       <c r="AO85" t="n">
         <v>0</v>
@@ -13251,47 +9975,8 @@
           <t>JM2K CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE86" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ86" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL86" t="n">
-        <v>0</v>
-      </c>
       <c r="AM86" t="n">
         <v>1</v>
-      </c>
-      <c r="AN86" t="n">
-        <v>0</v>
       </c>
       <c r="AO86" t="n">
         <v>0</v>
@@ -13417,47 +10102,8 @@
           <t>ZAMBOPEN CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE87" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ87" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL87" t="n">
-        <v>0</v>
-      </c>
       <c r="AM87" t="n">
         <v>1</v>
-      </c>
-      <c r="AN87" t="n">
-        <v>0</v>
       </c>
       <c r="AO87" t="n">
         <v>0</v>
@@ -13583,47 +10229,8 @@
           <t xml:space="preserve">LONG ISLAND BUILDERS AND CONST. </t>
         </is>
       </c>
-      <c r="AA88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE88" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ88" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL88" t="n">
-        <v>0</v>
-      </c>
       <c r="AM88" t="n">
         <v>1</v>
-      </c>
-      <c r="AN88" t="n">
-        <v>0</v>
       </c>
       <c r="AO88" t="n">
         <v>0</v>
@@ -13721,47 +10328,8 @@
           <t>STARS &amp; STRIPES CONST</t>
         </is>
       </c>
-      <c r="AA89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE89" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ89" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL89" t="n">
-        <v>0</v>
-      </c>
       <c r="AM89" t="n">
         <v>1</v>
-      </c>
-      <c r="AN89" t="n">
-        <v>0</v>
       </c>
       <c r="AO89" t="n">
         <v>0</v>
@@ -13859,47 +10427,8 @@
           <t>STARS &amp; STRIPES CONST</t>
         </is>
       </c>
-      <c r="AA90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE90" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ90" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL90" t="n">
-        <v>0</v>
-      </c>
       <c r="AM90" t="n">
         <v>1</v>
-      </c>
-      <c r="AN90" t="n">
-        <v>0</v>
       </c>
       <c r="AO90" t="n">
         <v>0</v>
@@ -13997,47 +10526,8 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="AA91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE91" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ91" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL91" t="n">
-        <v>0</v>
-      </c>
       <c r="AM91" t="n">
         <v>1</v>
-      </c>
-      <c r="AN91" t="n">
-        <v>0</v>
       </c>
       <c r="AO91" t="n">
         <v>0</v>
@@ -14135,47 +10625,8 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="AA92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE92" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ92" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL92" t="n">
-        <v>0</v>
-      </c>
       <c r="AM92" t="n">
         <v>1</v>
-      </c>
-      <c r="AN92" t="n">
-        <v>0</v>
       </c>
       <c r="AO92" t="n">
         <v>0</v>
@@ -14273,47 +10724,8 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="AA93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE93" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ93" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL93" t="n">
-        <v>0</v>
-      </c>
       <c r="AM93" t="n">
         <v>1</v>
-      </c>
-      <c r="AN93" t="n">
-        <v>0</v>
       </c>
       <c r="AO93" t="n">
         <v>0</v>
@@ -14411,47 +10823,8 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="AA94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ94" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL94" t="n">
-        <v>0</v>
-      </c>
       <c r="AM94" t="n">
         <v>1</v>
-      </c>
-      <c r="AN94" t="n">
-        <v>0</v>
       </c>
       <c r="AO94" t="n">
         <v>0</v>
@@ -14549,47 +10922,8 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="AA95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE95" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ95" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL95" t="n">
-        <v>0</v>
-      </c>
       <c r="AM95" t="n">
         <v>1</v>
-      </c>
-      <c r="AN95" t="n">
-        <v>0</v>
       </c>
       <c r="AO95" t="n">
         <v>0</v>
@@ -14687,47 +11021,8 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="AA96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE96" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ96" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL96" t="n">
-        <v>0</v>
-      </c>
       <c r="AM96" t="n">
         <v>1</v>
-      </c>
-      <c r="AN96" t="n">
-        <v>0</v>
       </c>
       <c r="AO96" t="n">
         <v>0</v>
@@ -14825,47 +11120,8 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="AA97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE97" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ97" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL97" t="n">
-        <v>0</v>
-      </c>
       <c r="AM97" t="n">
         <v>1</v>
-      </c>
-      <c r="AN97" t="n">
-        <v>0</v>
       </c>
       <c r="AO97" t="n">
         <v>0</v>
@@ -14977,47 +11233,8 @@
           <t>CPIN BUILDERS</t>
         </is>
       </c>
-      <c r="AA98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE98" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ98" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL98" t="n">
-        <v>0</v>
-      </c>
       <c r="AM98" t="n">
         <v>1</v>
-      </c>
-      <c r="AN98" t="n">
-        <v>0</v>
       </c>
       <c r="AO98" t="n">
         <v>0</v>
@@ -15129,47 +11346,8 @@
           <t>CPIN BUILDERS</t>
         </is>
       </c>
-      <c r="AA99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE99" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ99" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL99" t="n">
-        <v>0</v>
-      </c>
       <c r="AM99" t="n">
         <v>1</v>
-      </c>
-      <c r="AN99" t="n">
-        <v>0</v>
       </c>
       <c r="AO99" t="n">
         <v>0</v>
@@ -15281,47 +11459,8 @@
           <t>CPIN BUILDERS</t>
         </is>
       </c>
-      <c r="AA100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE100" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ100" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL100" t="n">
-        <v>0</v>
-      </c>
       <c r="AM100" t="n">
         <v>1</v>
-      </c>
-      <c r="AN100" t="n">
-        <v>0</v>
       </c>
       <c r="AO100" t="n">
         <v>0</v>
@@ -15433,47 +11572,8 @@
           <t>CPIN BUILDERS</t>
         </is>
       </c>
-      <c r="AA101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE101" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ101" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL101" t="n">
-        <v>0</v>
-      </c>
       <c r="AM101" t="n">
         <v>1</v>
-      </c>
-      <c r="AN101" t="n">
-        <v>0</v>
       </c>
       <c r="AO101" t="n">
         <v>0</v>
@@ -15585,47 +11685,8 @@
           <t>CPIN BUILDERS</t>
         </is>
       </c>
-      <c r="AA102" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB102" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC102" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD102" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE102" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF102" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG102" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH102" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI102" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ102" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK102" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL102" t="n">
-        <v>0</v>
-      </c>
       <c r="AM102" t="n">
         <v>1</v>
-      </c>
-      <c r="AN102" t="n">
-        <v>0</v>
       </c>
       <c r="AO102" t="n">
         <v>0</v>
@@ -15737,47 +11798,8 @@
           <t>CPIN BUILDERS</t>
         </is>
       </c>
-      <c r="AA103" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB103" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC103" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD103" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE103" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF103" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG103" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH103" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI103" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ103" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK103" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL103" t="n">
-        <v>0</v>
-      </c>
       <c r="AM103" t="n">
         <v>1</v>
-      </c>
-      <c r="AN103" t="n">
-        <v>0</v>
       </c>
       <c r="AO103" t="n">
         <v>0</v>
@@ -15889,47 +11911,8 @@
           <t>CPIN BUILDERS</t>
         </is>
       </c>
-      <c r="AA104" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB104" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC104" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD104" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE104" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF104" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG104" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH104" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI104" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ104" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK104" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL104" t="n">
-        <v>0</v>
-      </c>
       <c r="AM104" t="n">
         <v>1</v>
-      </c>
-      <c r="AN104" t="n">
-        <v>0</v>
       </c>
       <c r="AO104" t="n">
         <v>0</v>
@@ -16041,47 +12024,8 @@
           <t>CPIN BUILDERS</t>
         </is>
       </c>
-      <c r="AA105" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB105" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC105" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD105" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE105" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF105" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG105" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH105" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI105" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ105" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK105" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL105" t="n">
-        <v>0</v>
-      </c>
       <c r="AM105" t="n">
         <v>1</v>
-      </c>
-      <c r="AN105" t="n">
-        <v>0</v>
       </c>
       <c r="AO105" t="n">
         <v>0</v>
@@ -16195,47 +12139,8 @@
           <t>Diplahan Commercial</t>
         </is>
       </c>
-      <c r="AA106" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB106" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC106" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD106" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE106" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF106" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG106" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH106" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI106" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ106" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK106" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL106" t="n">
-        <v>0</v>
-      </c>
       <c r="AM106" t="n">
         <v>1</v>
-      </c>
-      <c r="AN106" t="n">
-        <v>0</v>
       </c>
       <c r="AO106" t="n">
         <v>0</v>
@@ -16349,47 +12254,8 @@
           <t>Diplahan Commercial</t>
         </is>
       </c>
-      <c r="AA107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE107" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ107" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL107" t="n">
-        <v>0</v>
-      </c>
       <c r="AM107" t="n">
         <v>1</v>
-      </c>
-      <c r="AN107" t="n">
-        <v>0</v>
       </c>
       <c r="AO107" t="n">
         <v>0</v>
@@ -16503,47 +12369,8 @@
           <t>Diplahan Commercial</t>
         </is>
       </c>
-      <c r="AA108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE108" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ108" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL108" t="n">
-        <v>0</v>
-      </c>
       <c r="AM108" t="n">
         <v>1</v>
-      </c>
-      <c r="AN108" t="n">
-        <v>0</v>
       </c>
       <c r="AO108" t="n">
         <v>0</v>
@@ -16662,47 +12489,8 @@
           <t>Stone Throw Construction and Enterprise</t>
         </is>
       </c>
-      <c r="AA109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE109" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ109" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL109" t="n">
-        <v>0</v>
-      </c>
       <c r="AM109" t="n">
         <v>1</v>
-      </c>
-      <c r="AN109" t="n">
-        <v>0</v>
       </c>
       <c r="AO109" t="n">
         <v>0</v>
@@ -16821,47 +12609,8 @@
           <t>Stone Throw Construction and Enterprise</t>
         </is>
       </c>
-      <c r="AA110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE110" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ110" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL110" t="n">
-        <v>0</v>
-      </c>
       <c r="AM110" t="n">
         <v>1</v>
-      </c>
-      <c r="AN110" t="n">
-        <v>0</v>
       </c>
       <c r="AO110" t="n">
         <v>0</v>
@@ -16973,47 +12722,8 @@
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="AA111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE111" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ111" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL111" t="n">
-        <v>0</v>
-      </c>
       <c r="AM111" t="n">
         <v>1</v>
-      </c>
-      <c r="AN111" t="n">
-        <v>0</v>
       </c>
       <c r="AP111" t="inlineStr">
         <is>
@@ -17127,47 +12837,8 @@
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="AA112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE112" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ112" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL112" t="n">
-        <v>0</v>
-      </c>
       <c r="AM112" t="n">
         <v>1</v>
-      </c>
-      <c r="AN112" t="n">
-        <v>0</v>
       </c>
       <c r="AP112" t="inlineStr">
         <is>
@@ -17281,47 +12952,8 @@
           <t>CPIN Builders</t>
         </is>
       </c>
-      <c r="AA113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE113" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ113" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL113" t="n">
-        <v>0</v>
-      </c>
       <c r="AM113" t="n">
         <v>1</v>
-      </c>
-      <c r="AN113" t="n">
-        <v>0</v>
       </c>
       <c r="AP113" t="inlineStr">
         <is>
@@ -17435,47 +13067,8 @@
           <t>JZ MAGO CONSTRUCTION &amp; ENT.</t>
         </is>
       </c>
-      <c r="AA114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE114" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ114" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL114" t="n">
-        <v>0</v>
-      </c>
       <c r="AM114" t="n">
         <v>1</v>
-      </c>
-      <c r="AN114" t="n">
-        <v>0</v>
       </c>
       <c r="AP114" t="inlineStr">
         <is>
@@ -17589,47 +13182,8 @@
           <t>JZ MAGO CONSTRUCTION &amp; ENT.</t>
         </is>
       </c>
-      <c r="AA115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE115" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ115" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL115" t="n">
-        <v>0</v>
-      </c>
       <c r="AM115" t="n">
         <v>1</v>
-      </c>
-      <c r="AN115" t="n">
-        <v>0</v>
       </c>
       <c r="AP115" t="inlineStr">
         <is>
@@ -17747,47 +13301,8 @@
           <t>CPAN Engineering &amp; Enterprises</t>
         </is>
       </c>
-      <c r="AA116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE116" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ116" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL116" t="n">
-        <v>0</v>
-      </c>
       <c r="AM116" t="n">
         <v>1</v>
-      </c>
-      <c r="AN116" t="n">
-        <v>0</v>
       </c>
       <c r="AO116" t="n">
         <v>44986</v>
@@ -17906,47 +13421,8 @@
           <t>CPAN Engineering &amp; Enterprises</t>
         </is>
       </c>
-      <c r="AA117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE117" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ117" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL117" t="n">
-        <v>0</v>
-      </c>
       <c r="AM117" t="n">
         <v>1</v>
-      </c>
-      <c r="AN117" t="n">
-        <v>0</v>
       </c>
       <c r="AO117" t="n">
         <v>44986</v>
@@ -18026,47 +13502,8 @@
       <c r="O118" t="n">
         <v>1</v>
       </c>
-      <c r="AA118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE118" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ118" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL118" t="n">
-        <v>0</v>
-      </c>
       <c r="AM118" t="n">
         <v>1</v>
-      </c>
-      <c r="AN118" t="n">
-        <v>0</v>
       </c>
       <c r="AP118" t="n">
         <v>2.25</v>
@@ -18138,47 +13575,8 @@
       <c r="O119" t="n">
         <v>1</v>
       </c>
-      <c r="AA119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE119" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ119" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL119" t="n">
-        <v>0</v>
-      </c>
       <c r="AM119" t="n">
         <v>1</v>
-      </c>
-      <c r="AN119" t="n">
-        <v>0</v>
       </c>
       <c r="AP119" t="n">
         <v>5.24</v>
@@ -18250,47 +13648,8 @@
       <c r="O120" t="n">
         <v>1</v>
       </c>
-      <c r="AA120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE120" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ120" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL120" t="n">
-        <v>0</v>
-      </c>
       <c r="AM120" t="n">
         <v>1</v>
-      </c>
-      <c r="AN120" t="n">
-        <v>0</v>
       </c>
       <c r="AP120" t="n">
         <v>10.24</v>
@@ -18362,47 +13721,8 @@
       <c r="O121" t="n">
         <v>1</v>
       </c>
-      <c r="AA121" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB121" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC121" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD121" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE121" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF121" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG121" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH121" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI121" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ121" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK121" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL121" t="n">
-        <v>0</v>
-      </c>
       <c r="AM121" t="n">
         <v>1</v>
-      </c>
-      <c r="AN121" t="n">
-        <v>0</v>
       </c>
       <c r="AP121" t="n">
         <v>5.24</v>
@@ -18474,47 +13794,8 @@
       <c r="O122" t="n">
         <v>1</v>
       </c>
-      <c r="AA122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE122" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ122" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL122" t="n">
-        <v>0</v>
-      </c>
       <c r="AM122" t="n">
         <v>1</v>
-      </c>
-      <c r="AN122" t="n">
-        <v>0</v>
       </c>
       <c r="AP122" t="n">
         <v>10.24</v>
@@ -18586,47 +13867,8 @@
       <c r="O123" t="n">
         <v>1</v>
       </c>
-      <c r="AA123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE123" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ123" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL123" t="n">
-        <v>0</v>
-      </c>
       <c r="AM123" t="n">
         <v>1</v>
-      </c>
-      <c r="AN123" t="n">
-        <v>0</v>
       </c>
       <c r="AP123" t="n">
         <v>5.24</v>
@@ -18698,47 +13940,8 @@
       <c r="O124" t="n">
         <v>1</v>
       </c>
-      <c r="AA124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE124" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ124" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL124" t="n">
-        <v>0</v>
-      </c>
       <c r="AM124" t="n">
         <v>1</v>
-      </c>
-      <c r="AN124" t="n">
-        <v>0</v>
       </c>
       <c r="AP124" t="n">
         <v>10.24</v>
@@ -18810,47 +14013,8 @@
       <c r="O125" t="n">
         <v>1</v>
       </c>
-      <c r="AA125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE125" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ125" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL125" t="n">
-        <v>0</v>
-      </c>
       <c r="AM125" t="n">
         <v>1</v>
-      </c>
-      <c r="AN125" t="n">
-        <v>0</v>
       </c>
       <c r="AP125" t="n">
         <v>10.24</v>
@@ -18922,47 +14086,8 @@
       <c r="O126" t="n">
         <v>1</v>
       </c>
-      <c r="AA126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE126" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ126" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL126" t="n">
-        <v>0</v>
-      </c>
       <c r="AM126" t="n">
         <v>1</v>
-      </c>
-      <c r="AN126" t="n">
-        <v>0</v>
       </c>
       <c r="AP126" t="n">
         <v>10.24</v>
@@ -19034,47 +14159,8 @@
       <c r="O127" t="n">
         <v>1</v>
       </c>
-      <c r="AA127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE127" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ127" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL127" t="n">
-        <v>0</v>
-      </c>
       <c r="AM127" t="n">
         <v>1</v>
-      </c>
-      <c r="AN127" t="n">
-        <v>0</v>
       </c>
       <c r="AP127" t="n">
         <v>10.24</v>
@@ -19146,47 +14232,8 @@
       <c r="O128" t="n">
         <v>1</v>
       </c>
-      <c r="AA128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE128" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ128" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL128" t="n">
-        <v>0</v>
-      </c>
       <c r="AM128" t="n">
         <v>1</v>
-      </c>
-      <c r="AN128" t="n">
-        <v>0</v>
       </c>
       <c r="AP128" t="n">
         <v>10.24</v>
@@ -19258,47 +14305,8 @@
       <c r="O129" t="n">
         <v>1</v>
       </c>
-      <c r="AA129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE129" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ129" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL129" t="n">
-        <v>0</v>
-      </c>
       <c r="AM129" t="n">
         <v>1</v>
-      </c>
-      <c r="AN129" t="n">
-        <v>0</v>
       </c>
       <c r="AP129" t="n">
         <v>10.24</v>
@@ -19370,47 +14378,8 @@
       <c r="O130" t="n">
         <v>1</v>
       </c>
-      <c r="AA130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE130" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ130" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL130" t="n">
-        <v>0</v>
-      </c>
       <c r="AM130" t="n">
         <v>1</v>
-      </c>
-      <c r="AN130" t="n">
-        <v>0</v>
       </c>
       <c r="AP130" t="n">
         <v>10.24</v>
@@ -19482,47 +14451,8 @@
       <c r="O131" t="n">
         <v>1</v>
       </c>
-      <c r="AA131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE131" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ131" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL131" t="n">
-        <v>0</v>
-      </c>
       <c r="AM131" t="n">
         <v>1</v>
-      </c>
-      <c r="AN131" t="n">
-        <v>0</v>
       </c>
       <c r="AP131" t="n">
         <v>10.24</v>
@@ -19594,47 +14524,8 @@
       <c r="O132" t="n">
         <v>0.85</v>
       </c>
-      <c r="AA132" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB132" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC132" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD132" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE132" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF132" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG132" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH132" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI132" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ132" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK132" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL132" t="n">
-        <v>0</v>
-      </c>
       <c r="AM132" t="n">
         <v>0.8</v>
-      </c>
-      <c r="AN132" t="n">
-        <v>0.04999999999999993</v>
       </c>
       <c r="AU132" t="inlineStr">
         <is>
@@ -19703,47 +14594,8 @@
       <c r="O133" t="n">
         <v>1</v>
       </c>
-      <c r="AA133" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB133" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC133" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD133" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE133" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF133" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG133" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH133" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI133" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ133" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK133" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL133" t="n">
-        <v>0</v>
-      </c>
       <c r="AM133" t="n">
         <v>1</v>
-      </c>
-      <c r="AN133" t="n">
-        <v>0</v>
       </c>
       <c r="AP133" t="n">
         <v>10.24</v>
@@ -19815,47 +14667,8 @@
       <c r="O134" t="n">
         <v>1</v>
       </c>
-      <c r="AA134" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB134" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC134" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD134" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE134" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF134" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG134" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH134" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI134" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ134" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK134" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL134" t="n">
-        <v>0</v>
-      </c>
       <c r="AM134" t="n">
         <v>0.95</v>
-      </c>
-      <c r="AN134" t="n">
-        <v>0.05000000000000004</v>
       </c>
       <c r="AP134" t="n">
         <v>5.25</v>
@@ -19927,47 +14740,8 @@
       <c r="O135" t="n">
         <v>1</v>
       </c>
-      <c r="AA135" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB135" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC135" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD135" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE135" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF135" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG135" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH135" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI135" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ135" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK135" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL135" t="n">
-        <v>0</v>
-      </c>
       <c r="AM135" t="n">
         <v>1</v>
-      </c>
-      <c r="AN135" t="n">
-        <v>0</v>
       </c>
       <c r="AP135" t="n">
         <v>10.24</v>
@@ -20039,47 +14813,8 @@
       <c r="O136" t="n">
         <v>1</v>
       </c>
-      <c r="AA136" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB136" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC136" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD136" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE136" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF136" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG136" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH136" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI136" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ136" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK136" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL136" t="n">
-        <v>0</v>
-      </c>
       <c r="AM136" t="n">
         <v>1</v>
-      </c>
-      <c r="AN136" t="n">
-        <v>0</v>
       </c>
       <c r="AP136" t="n">
         <v>10.24</v>
@@ -20151,47 +14886,8 @@
       <c r="O137" t="n">
         <v>1</v>
       </c>
-      <c r="AA137" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB137" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC137" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD137" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE137" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF137" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG137" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH137" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI137" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ137" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK137" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL137" t="n">
-        <v>0</v>
-      </c>
       <c r="AM137" t="n">
         <v>1</v>
-      </c>
-      <c r="AN137" t="n">
-        <v>0</v>
       </c>
       <c r="AP137" t="n">
         <v>10.24</v>
@@ -20263,47 +14959,8 @@
       <c r="O138" t="n">
         <v>1</v>
       </c>
-      <c r="AA138" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB138" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC138" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD138" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE138" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF138" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG138" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH138" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI138" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ138" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK138" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL138" t="n">
-        <v>0</v>
-      </c>
       <c r="AM138" t="n">
         <v>1</v>
-      </c>
-      <c r="AN138" t="n">
-        <v>0</v>
       </c>
       <c r="AP138" t="n">
         <v>10.24</v>
@@ -20375,47 +15032,8 @@
       <c r="O139" t="n">
         <v>1</v>
       </c>
-      <c r="AA139" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB139" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC139" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD139" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE139" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF139" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG139" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH139" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI139" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ139" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK139" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL139" t="n">
-        <v>0</v>
-      </c>
       <c r="AM139" t="n">
         <v>1</v>
-      </c>
-      <c r="AN139" t="n">
-        <v>0</v>
       </c>
       <c r="AP139" t="n">
         <v>10.24</v>
@@ -20545,47 +15163,8 @@
           <t>Awaiting SARO Release</t>
         </is>
       </c>
-      <c r="AA140" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB140" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC140" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD140" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE140" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF140" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG140" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH140" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI140" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ140" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK140" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL140" t="n">
-        <v>0</v>
-      </c>
       <c r="AM140" t="n">
         <v>1</v>
-      </c>
-      <c r="AN140" t="n">
-        <v>0</v>
       </c>
       <c r="AP140" t="n">
         <v>4.25</v>
@@ -20706,47 +15285,8 @@
           <t>CPAN Engineering and Enterprises</t>
         </is>
       </c>
-      <c r="AA141" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB141" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC141" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD141" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE141" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF141" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG141" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH141" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI141" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ141" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK141" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL141" t="n">
-        <v>0</v>
-      </c>
       <c r="AM141" t="n">
         <v>1</v>
-      </c>
-      <c r="AN141" t="n">
-        <v>0</v>
       </c>
       <c r="AP141" t="n">
         <v>4.25</v>
@@ -20876,47 +15416,8 @@
           <t>Awaiting SARO Release</t>
         </is>
       </c>
-      <c r="AA142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD142" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI142" t="n">
-        <v>7</v>
-      </c>
-      <c r="AJ142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL142" t="n">
-        <v>0</v>
-      </c>
       <c r="AM142" t="n">
         <v>0.85</v>
-      </c>
-      <c r="AN142" t="n">
-        <v>0.05000000000000004</v>
       </c>
       <c r="AU142" t="inlineStr">
         <is>
@@ -21043,47 +15544,8 @@
           <t>Awaiting SARO Release</t>
         </is>
       </c>
-      <c r="AA143" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB143" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC143" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD143" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE143" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF143" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG143" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH143" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI143" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ143" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK143" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL143" t="n">
-        <v>0</v>
-      </c>
       <c r="AM143" t="n">
         <v>0.95</v>
-      </c>
-      <c r="AN143" t="n">
-        <v>0.03000000000000003</v>
       </c>
       <c r="AU143" t="inlineStr">
         <is>
@@ -21210,47 +15672,8 @@
           <t>Awaiting SARO Release</t>
         </is>
       </c>
-      <c r="AA144" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB144" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC144" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD144" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE144" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF144" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG144" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH144" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI144" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ144" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK144" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL144" t="n">
-        <v>0</v>
-      </c>
       <c r="AM144" t="n">
         <v>0.97</v>
-      </c>
-      <c r="AN144" t="n">
-        <v>0.02000000000000002</v>
       </c>
       <c r="AU144" t="inlineStr">
         <is>
@@ -21365,47 +15788,8 @@
           <t>Revised from 9CL to 6CL</t>
         </is>
       </c>
-      <c r="AA145" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB145" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC145" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD145" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE145" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF145" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG145" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH145" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI145" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ145" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK145" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL145" t="n">
-        <v>0</v>
-      </c>
       <c r="AM145" t="n">
         <v>1</v>
-      </c>
-      <c r="AN145" t="n">
-        <v>0</v>
       </c>
       <c r="AP145" t="n">
         <v>3.25</v>
@@ -21544,47 +15928,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AA146" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB146" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC146" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD146" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE146" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF146" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG146" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH146" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI146" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ146" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK146" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL146" t="n">
-        <v>0</v>
-      </c>
       <c r="AM146" t="n">
         <v>1</v>
-      </c>
-      <c r="AN146" t="n">
-        <v>0</v>
       </c>
       <c r="AP146" t="n">
         <v>3.25</v>
@@ -21714,47 +16059,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AA147" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB147" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC147" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD147" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE147" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF147" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG147" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH147" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI147" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ147" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK147" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL147" t="n">
-        <v>0</v>
-      </c>
       <c r="AM147" t="n">
         <v>0.95</v>
-      </c>
-      <c r="AN147" t="n">
-        <v>0.03000000000000003</v>
       </c>
       <c r="AU147" t="inlineStr">
         <is>
@@ -21881,47 +16187,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AA148" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB148" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC148" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD148" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE148" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF148" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG148" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH148" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI148" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ148" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK148" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL148" t="n">
-        <v>0</v>
-      </c>
       <c r="AM148" t="n">
         <v>1</v>
-      </c>
-      <c r="AN148" t="n">
-        <v>0</v>
       </c>
       <c r="AP148" t="n">
         <v>4.25</v>
@@ -22049,47 +16316,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AA149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE149" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ149" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL149" t="n">
-        <v>0</v>
-      </c>
       <c r="AM149" t="n">
         <v>1</v>
-      </c>
-      <c r="AN149" t="n">
-        <v>0</v>
       </c>
       <c r="AP149" t="n">
         <v>1.25</v>
@@ -22217,47 +16445,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AA150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD150" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI150" t="n">
-        <v>7</v>
-      </c>
-      <c r="AJ150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL150" t="n">
-        <v>0</v>
-      </c>
       <c r="AM150" t="n">
         <v>0.35</v>
-      </c>
-      <c r="AN150" t="n">
-        <v>0.05000000000000004</v>
       </c>
       <c r="AU150" t="inlineStr">
         <is>
@@ -22382,47 +16571,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AA151" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB151" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC151" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD151" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE151" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF151" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG151" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH151" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI151" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ151" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK151" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL151" t="n">
-        <v>0</v>
-      </c>
       <c r="AM151" t="n">
         <v>1</v>
-      </c>
-      <c r="AN151" t="n">
-        <v>0</v>
       </c>
       <c r="AP151" t="n">
         <v>1.25</v>
@@ -22538,47 +16688,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AA152" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB152" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC152" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD152" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE152" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF152" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG152" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH152" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI152" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ152" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK152" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL152" t="n">
-        <v>0</v>
-      </c>
       <c r="AM152" t="n">
         <v>1</v>
-      </c>
-      <c r="AN152" t="n">
-        <v>0</v>
       </c>
       <c r="AP152" t="n">
         <v>1.25</v>
@@ -22694,47 +16805,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AA153" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB153" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC153" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD153" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE153" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF153" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG153" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH153" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI153" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ153" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK153" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL153" t="n">
-        <v>0</v>
-      </c>
       <c r="AM153" t="n">
         <v>1</v>
-      </c>
-      <c r="AN153" t="n">
-        <v>0</v>
       </c>
       <c r="AP153" t="n">
         <v>1.25</v>
@@ -22850,47 +16922,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AA154" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB154" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC154" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD154" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE154" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF154" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG154" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH154" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI154" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ154" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK154" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL154" t="n">
-        <v>0</v>
-      </c>
       <c r="AM154" t="n">
         <v>1</v>
-      </c>
-      <c r="AN154" t="n">
-        <v>0</v>
       </c>
       <c r="AP154" t="n">
         <v>1.25</v>
@@ -23018,47 +17051,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AA155" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB155" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC155" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD155" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE155" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF155" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG155" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH155" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI155" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ155" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK155" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL155" t="n">
-        <v>0</v>
-      </c>
       <c r="AM155" t="n">
         <v>0.65</v>
-      </c>
-      <c r="AN155" t="n">
-        <v>0.25</v>
       </c>
       <c r="AU155" t="inlineStr">
         <is>
@@ -23183,47 +17177,8 @@
           <t>Nego-Procurement due to failure of bidding</t>
         </is>
       </c>
-      <c r="AA156" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB156" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC156" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD156" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE156" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF156" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG156" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH156" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI156" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ156" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK156" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL156" t="n">
-        <v>0</v>
-      </c>
       <c r="AM156" t="n">
         <v>0.15</v>
-      </c>
-      <c r="AN156" t="n">
-        <v>0.45</v>
       </c>
       <c r="AU156" t="inlineStr">
         <is>
@@ -23348,47 +17303,8 @@
           <t>Nego-Procurement due to failure of bidding</t>
         </is>
       </c>
-      <c r="AA157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD157" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI157" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL157" t="n">
-        <v>0</v>
-      </c>
       <c r="AM157" t="n">
         <v>0.15</v>
-      </c>
-      <c r="AN157" t="n">
-        <v>0.35</v>
       </c>
       <c r="AU157" t="inlineStr">
         <is>
